--- a/Example/AR1 - Q1.2023.xlsx
+++ b/Example/AR1 - Q1.2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\DPiUS\Zespol Przetwarzania\Raporty kwartalne\2023Q1\NBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C60DF-D2F2-4127-B75C-411024D6B7E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="6"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST.01" sheetId="6" r:id="rId1"/>
@@ -30,28 +31,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">ST.06!$B$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ST.07!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AAFBD137-8757-49F3-9DC4-E1E705403070}</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2257,7 +2247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2734,7 +2724,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3207,51 +3197,51 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3273,17 +3263,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Hiperłącze 2" xfId="8"/>
-    <cellStyle name="Normal 10 3 3" xfId="5"/>
-    <cellStyle name="Normal 11" xfId="4"/>
-    <cellStyle name="Normal 7 2" xfId="7"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="3"/>
-    <cellStyle name="Normalny 2 2" xfId="6"/>
-    <cellStyle name="Normalny 3" xfId="2"/>
-    <cellStyle name="Normalny 4" xfId="1"/>
+    <cellStyle name="Hiperłącze 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 11" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 7 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalny 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalny 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normalny 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3319,9 +3310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3359,7 +3350,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3394,6 +3385,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3429,9 +3437,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3615,7 +3640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007A70"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4564,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB4DCD7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5308,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007A70"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6101,7 +6126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB4DCD7"/>
   </sheetPr>
@@ -7987,7 +8012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007A70"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8446,18 +8471,18 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="188" t="s">
+      <c r="J6" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188" t="s">
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="179"/>
+      <c r="N6" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
+      <c r="O6" s="179"/>
+      <c r="P6" s="179"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
@@ -8469,22 +8494,22 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="179" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188" t="s">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179" t="s">
         <v>427</v>
       </c>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188" t="s">
+      <c r="M7" s="179"/>
+      <c r="N7" s="179" t="s">
         <v>428</v>
       </c>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188" t="s">
+      <c r="O7" s="179"/>
+      <c r="P7" s="179" t="s">
         <v>429</v>
       </c>
-      <c r="Q7" s="188"/>
+      <c r="Q7" s="179"/>
     </row>
     <row r="8" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
@@ -8531,18 +8556,18 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="178" t="s">
+      <c r="J9" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178" t="s">
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
     </row>
     <row r="10" spans="1:18" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
@@ -8554,22 +8579,22 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="189" t="s">
+      <c r="J10" s="177" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="190"/>
-      <c r="L10" s="189" t="s">
+      <c r="K10" s="178"/>
+      <c r="L10" s="177" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="190"/>
-      <c r="N10" s="178" t="s">
+      <c r="M10" s="178"/>
+      <c r="N10" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" s="178"/>
+      <c r="Q10" s="176"/>
     </row>
     <row r="11" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
@@ -8610,25 +8635,25 @@
       <c r="A12" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="190" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="178" t="s">
+      <c r="F12" s="176" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="179" t="s">
+      <c r="G12" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="178" t="s">
+      <c r="H12" s="176" t="s">
         <v>207</v>
       </c>
       <c r="I12" s="84" t="s">
@@ -8664,15 +8689,15 @@
       <c r="A13" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="178"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="178"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="176"/>
       <c r="I13" s="84" t="s">
         <v>420</v>
       </c>
@@ -8706,15 +8731,15 @@
       <c r="A14" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="178"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="178"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="119" t="s">
         <v>208</v>
       </c>
@@ -8748,15 +8773,15 @@
       <c r="A15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
       <c r="E15" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="178"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="178"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="176"/>
       <c r="I15" s="119" t="s">
         <v>50</v>
       </c>
@@ -8790,17 +8815,17 @@
       <c r="A16" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177" t="s">
+      <c r="B16" s="189"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="178"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="178" t="s">
+      <c r="F16" s="176"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I16" s="84" t="s">
@@ -8836,15 +8861,15 @@
       <c r="A17" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="178"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="176"/>
       <c r="I17" s="84" t="s">
         <v>416</v>
       </c>
@@ -8878,15 +8903,15 @@
       <c r="A18" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
       <c r="E18" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="178"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="178"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="176"/>
       <c r="I18" s="119" t="s">
         <v>208</v>
       </c>
@@ -8920,15 +8945,15 @@
       <c r="A19" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="178"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="178"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="176"/>
       <c r="I19" s="119" t="s">
         <v>50</v>
       </c>
@@ -8962,19 +8987,19 @@
       <c r="A20" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="176"/>
-      <c r="C20" s="177" t="s">
+      <c r="B20" s="189"/>
+      <c r="C20" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="177"/>
+      <c r="D20" s="190"/>
       <c r="E20" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="178"/>
-      <c r="G20" s="182" t="s">
+      <c r="F20" s="176"/>
+      <c r="G20" s="183" t="s">
         <v>421</v>
       </c>
-      <c r="H20" s="183"/>
+      <c r="H20" s="184"/>
       <c r="I20" s="119" t="s">
         <v>50</v>
       </c>
@@ -9008,15 +9033,15 @@
       <c r="A21" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="190"/>
       <c r="E21" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
       <c r="I21" s="69" t="s">
         <v>426</v>
       </c>
@@ -9050,19 +9075,19 @@
       <c r="A22" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177" t="s">
+      <c r="B22" s="189"/>
+      <c r="C22" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="177"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="178"/>
-      <c r="G22" s="182" t="s">
+      <c r="F22" s="176"/>
+      <c r="G22" s="183" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="183"/>
+      <c r="H22" s="184"/>
       <c r="I22" s="84" t="s">
         <v>178</v>
       </c>
@@ -9096,15 +9121,15 @@
       <c r="A23" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
       <c r="E23" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="178"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="187"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="188"/>
       <c r="I23" s="119" t="s">
         <v>50</v>
       </c>
@@ -9138,15 +9163,15 @@
       <c r="A24" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190"/>
       <c r="E24" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="185"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
       <c r="I24" s="69" t="s">
         <v>356</v>
       </c>
@@ -9180,19 +9205,19 @@
       <c r="A25" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177" t="s">
+      <c r="B25" s="189"/>
+      <c r="C25" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="177"/>
+      <c r="D25" s="190"/>
       <c r="E25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="182" t="s">
+      <c r="F25" s="176"/>
+      <c r="G25" s="183" t="s">
         <v>423</v>
       </c>
-      <c r="H25" s="183"/>
+      <c r="H25" s="184"/>
       <c r="I25" s="69" t="s">
         <v>178</v>
       </c>
@@ -9226,15 +9251,15 @@
       <c r="A26" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
       <c r="E26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="188"/>
       <c r="I26" s="119" t="s">
         <v>50</v>
       </c>
@@ -9268,15 +9293,15 @@
       <c r="A27" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="176"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
       <c r="E27" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="185"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
       <c r="I27" s="69" t="s">
         <v>356</v>
       </c>
@@ -9310,25 +9335,25 @@
       <c r="A28" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="189" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="177" t="s">
+      <c r="C28" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="177" t="s">
+      <c r="D28" s="190" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="178" t="s">
+      <c r="F28" s="176" t="s">
         <v>358</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="178" t="s">
+      <c r="H28" s="176" t="s">
         <v>207</v>
       </c>
       <c r="I28" s="84" t="s">
@@ -9364,15 +9389,15 @@
       <c r="A29" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
       <c r="E29" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="178"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="178"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="176"/>
       <c r="I29" s="119" t="s">
         <v>50</v>
       </c>
@@ -9406,17 +9431,17 @@
       <c r="A30" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="176"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177" t="s">
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="178"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="178" t="s">
+      <c r="F30" s="176"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I30" s="69" t="s">
@@ -9452,15 +9477,15 @@
       <c r="A31" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
       <c r="E31" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="178"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="178"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="176"/>
       <c r="I31" s="70" t="s">
         <v>50</v>
       </c>
@@ -9597,24 +9622,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H30:H31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="F28:F31"/>
@@ -9631,6 +9638,24 @@
     <mergeCell ref="C25:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9639,19 +9664,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007A70"/>
   </sheetPr>
   <dimension ref="A2:J168"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A91" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="56"/>
+    <col min="1" max="1" width="9.140625" style="198"/>
     <col min="2" max="2" width="14.140625" style="56" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="56" customWidth="1"/>
     <col min="4" max="9" width="21.140625" style="56" customWidth="1"/>
@@ -9785,7 +9810,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="198" t="s">
         <v>466</v>
       </c>
       <c r="B11" s="93" t="s">
@@ -9815,7 +9840,7 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="198" t="s">
         <v>467</v>
       </c>
       <c r="B12" s="93" t="s">
@@ -9845,7 +9870,7 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="198" t="s">
         <v>468</v>
       </c>
       <c r="B13" s="93" t="s">
@@ -9875,7 +9900,7 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="198" t="s">
         <v>469</v>
       </c>
       <c r="B14" s="93" t="s">
@@ -9905,7 +9930,7 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="198" t="s">
         <v>470</v>
       </c>
       <c r="B15" s="93" t="s">
@@ -9935,7 +9960,7 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="198" t="s">
         <v>471</v>
       </c>
       <c r="B16" s="93" t="s">
@@ -9965,7 +9990,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="198" t="s">
         <v>472</v>
       </c>
       <c r="B17" s="93" t="s">
@@ -9995,7 +10020,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="198" t="s">
         <v>473</v>
       </c>
       <c r="B18" s="93" t="s">
@@ -10025,7 +10050,7 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="198" t="s">
         <v>474</v>
       </c>
       <c r="B19" s="93" t="s">
@@ -10055,7 +10080,7 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="198" t="s">
         <v>475</v>
       </c>
       <c r="B20" s="93" t="s">
@@ -10085,7 +10110,7 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="198" t="s">
         <v>476</v>
       </c>
       <c r="B21" s="93" t="s">
@@ -10115,7 +10140,7 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="198" t="s">
         <v>477</v>
       </c>
       <c r="B22" s="93" t="s">
@@ -10145,7 +10170,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="198" t="s">
         <v>478</v>
       </c>
       <c r="B23" s="93" t="s">
@@ -10175,7 +10200,7 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="198" t="s">
         <v>479</v>
       </c>
       <c r="B24" s="93" t="s">
@@ -10205,7 +10230,7 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="198" t="s">
         <v>480</v>
       </c>
       <c r="B25" s="93" t="s">
@@ -10235,7 +10260,7 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="198" t="s">
         <v>481</v>
       </c>
       <c r="B26" s="93" t="s">
@@ -10265,7 +10290,7 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="198" t="s">
         <v>482</v>
       </c>
       <c r="B27" s="93" t="s">
@@ -10295,7 +10320,7 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="198" t="s">
         <v>483</v>
       </c>
       <c r="B28" s="93" t="s">
@@ -10325,7 +10350,7 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="198" t="s">
         <v>484</v>
       </c>
       <c r="B29" s="93" t="s">
@@ -10355,7 +10380,7 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="198" t="s">
         <v>485</v>
       </c>
       <c r="B30" s="93" t="s">
@@ -10385,7 +10410,7 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="198" t="s">
         <v>486</v>
       </c>
       <c r="B31" s="93" t="s">
@@ -10415,7 +10440,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="198" t="s">
         <v>487</v>
       </c>
       <c r="B32" s="93" t="s">
@@ -10445,7 +10470,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="198" t="s">
         <v>488</v>
       </c>
       <c r="B33" s="93" t="s">
@@ -10475,7 +10500,7 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="198" t="s">
         <v>489</v>
       </c>
       <c r="B34" s="93" t="s">
@@ -10505,7 +10530,7 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="198" t="s">
         <v>490</v>
       </c>
       <c r="B35" s="93" t="s">
@@ -10535,7 +10560,7 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="198" t="s">
         <v>491</v>
       </c>
       <c r="B36" s="93" t="s">
@@ -10565,7 +10590,7 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="198" t="s">
         <v>492</v>
       </c>
       <c r="B37" s="93" t="s">
@@ -10595,7 +10620,7 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="198" t="s">
         <v>493</v>
       </c>
       <c r="B38" s="93" t="s">
@@ -10625,7 +10650,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="198" t="s">
         <v>494</v>
       </c>
       <c r="B39" s="93" t="s">
@@ -10688,7 +10713,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="198" t="s">
         <v>495</v>
       </c>
       <c r="B41" s="93" t="s">
@@ -10718,7 +10743,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="198" t="s">
         <v>497</v>
       </c>
       <c r="B42" s="93" t="s">
@@ -10748,7 +10773,7 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="198" t="s">
         <v>498</v>
       </c>
       <c r="B43" s="93" t="s">
@@ -10778,7 +10803,7 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="198" t="s">
         <v>500</v>
       </c>
       <c r="B44" s="93" t="s">
@@ -10808,7 +10833,7 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="198" t="s">
         <v>502</v>
       </c>
       <c r="B45" s="93" t="s">
@@ -10838,7 +10863,7 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="198" t="s">
         <v>504</v>
       </c>
       <c r="B46" s="93" t="s">
@@ -10868,7 +10893,7 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="198" t="s">
         <v>506</v>
       </c>
       <c r="B47" s="93" t="s">
@@ -10898,7 +10923,7 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="198" t="s">
         <v>507</v>
       </c>
       <c r="B48" s="93" t="s">
@@ -10928,7 +10953,7 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="198" t="s">
         <v>508</v>
       </c>
       <c r="B49" s="93" t="s">
@@ -10958,7 +10983,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="198" t="s">
         <v>509</v>
       </c>
       <c r="B50" s="93" t="s">
@@ -10988,7 +11013,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="198" t="s">
         <v>511</v>
       </c>
       <c r="B51" s="93" t="s">
@@ -11018,7 +11043,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="198" t="s">
         <v>514</v>
       </c>
       <c r="B52" s="93" t="s">
@@ -11048,7 +11073,7 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="198" t="s">
         <v>516</v>
       </c>
       <c r="B53" s="93" t="s">
@@ -11078,7 +11103,7 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="198" t="s">
         <v>518</v>
       </c>
       <c r="B54" s="93" t="s">
@@ -11108,7 +11133,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="198" t="s">
         <v>520</v>
       </c>
       <c r="B55" s="93" t="s">
@@ -11138,7 +11163,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="198" t="s">
         <v>521</v>
       </c>
       <c r="B56" s="93" t="s">
@@ -11168,7 +11193,7 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="198" t="s">
         <v>523</v>
       </c>
       <c r="B57" s="93" t="s">
@@ -11198,7 +11223,7 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="198" t="s">
         <v>525</v>
       </c>
       <c r="B58" s="93" t="s">
@@ -11228,7 +11253,7 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="198" t="s">
         <v>527</v>
       </c>
       <c r="B59" s="93" t="s">
@@ -11258,7 +11283,7 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="198" t="s">
         <v>528</v>
       </c>
       <c r="B60" s="93" t="s">
@@ -11288,7 +11313,7 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="198" t="s">
         <v>530</v>
       </c>
       <c r="B61" s="93" t="s">
@@ -11318,7 +11343,7 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="198" t="s">
         <v>531</v>
       </c>
       <c r="B62" s="93" t="s">
@@ -11348,7 +11373,7 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="198" t="s">
         <v>533</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11378,7 +11403,7 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="198" t="s">
         <v>535</v>
       </c>
       <c r="B64" s="93" t="s">
@@ -11408,7 +11433,7 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="198" t="s">
         <v>537</v>
       </c>
       <c r="B65" s="93" t="s">
@@ -11438,7 +11463,7 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="198" t="s">
         <v>539</v>
       </c>
       <c r="B66" s="93" t="s">
@@ -11468,7 +11493,7 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="198" t="s">
         <v>542</v>
       </c>
       <c r="B67" s="93" t="s">
@@ -11498,7 +11523,7 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="198" t="s">
         <v>543</v>
       </c>
       <c r="B68" s="93" t="s">
@@ -11528,7 +11553,7 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="198" t="s">
         <v>545</v>
       </c>
       <c r="B69" s="93" t="s">
@@ -11558,7 +11583,7 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="198" t="s">
         <v>547</v>
       </c>
       <c r="B70" s="93" t="s">
@@ -11588,7 +11613,7 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="198" t="s">
         <v>550</v>
       </c>
       <c r="B71" s="93" t="s">
@@ -11618,7 +11643,7 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="198" t="s">
         <v>553</v>
       </c>
       <c r="B72" s="93" t="s">
@@ -11648,7 +11673,7 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="198" t="s">
         <v>555</v>
       </c>
       <c r="B73" s="93" t="s">
@@ -11678,7 +11703,7 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="198" t="s">
         <v>558</v>
       </c>
       <c r="B74" s="93" t="s">
@@ -11708,7 +11733,7 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="198" t="s">
         <v>561</v>
       </c>
       <c r="B75" s="93" t="s">
@@ -11738,7 +11763,7 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="198" t="s">
         <v>563</v>
       </c>
       <c r="B76" s="93" t="s">
@@ -11768,7 +11793,7 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="198" t="s">
         <v>565</v>
       </c>
       <c r="B77" s="93" t="s">
@@ -11798,7 +11823,7 @@
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="198" t="s">
         <v>567</v>
       </c>
       <c r="B78" s="93" t="s">
@@ -11828,7 +11853,7 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="198" t="s">
         <v>570</v>
       </c>
       <c r="B79" s="93" t="s">
@@ -11858,7 +11883,7 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="198" t="s">
         <v>572</v>
       </c>
       <c r="B80" s="93" t="s">
@@ -11888,7 +11913,7 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="198" t="s">
         <v>573</v>
       </c>
       <c r="B81" s="93" t="s">
@@ -11918,7 +11943,7 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="198" t="s">
         <v>574</v>
       </c>
       <c r="B82" s="93" t="s">
@@ -11948,7 +11973,7 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="198" t="s">
         <v>575</v>
       </c>
       <c r="B83" s="93" t="s">
@@ -11978,7 +12003,7 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="198" t="s">
         <v>577</v>
       </c>
       <c r="B84" s="93" t="s">
@@ -12008,7 +12033,7 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="56" t="s">
+      <c r="A85" s="198" t="s">
         <v>580</v>
       </c>
       <c r="B85" s="93" t="s">
@@ -12038,7 +12063,7 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="56" t="s">
+      <c r="A86" s="198" t="s">
         <v>581</v>
       </c>
       <c r="B86" s="93" t="s">
@@ -12068,7 +12093,7 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="198" t="s">
         <v>583</v>
       </c>
       <c r="B87" s="93" t="s">
@@ -12098,7 +12123,7 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="56" t="s">
+      <c r="A88" s="198" t="s">
         <v>585</v>
       </c>
       <c r="B88" s="93" t="s">
@@ -12128,7 +12153,7 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="198" t="s">
         <v>587</v>
       </c>
       <c r="B89" s="93" t="s">
@@ -12158,7 +12183,7 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="56" t="s">
+      <c r="A90" s="198" t="s">
         <v>589</v>
       </c>
       <c r="B90" s="93" t="s">
@@ -12188,7 +12213,7 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="198" t="s">
         <v>591</v>
       </c>
       <c r="B91" s="93" t="s">
@@ -12218,7 +12243,7 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="56" t="s">
+      <c r="A92" s="198" t="s">
         <v>593</v>
       </c>
       <c r="B92" s="93" t="s">
@@ -12248,7 +12273,7 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="198" t="s">
         <v>595</v>
       </c>
       <c r="B93" s="93" t="s">
@@ -12278,7 +12303,7 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="56" t="s">
+      <c r="A94" s="198" t="s">
         <v>597</v>
       </c>
       <c r="B94" s="93" t="s">
@@ -12308,7 +12333,7 @@
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="56" t="s">
+      <c r="A95" s="198" t="s">
         <v>599</v>
       </c>
       <c r="B95" s="93" t="s">
@@ -12338,7 +12363,7 @@
       <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="56" t="s">
+      <c r="A96" s="198" t="s">
         <v>601</v>
       </c>
       <c r="B96" s="93" t="s">
@@ -12368,7 +12393,7 @@
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="198" t="s">
         <v>604</v>
       </c>
       <c r="B97" s="93" t="s">
@@ -12398,7 +12423,7 @@
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="56" t="s">
+      <c r="A98" s="198" t="s">
         <v>606</v>
       </c>
       <c r="B98" s="93" t="s">
@@ -12428,7 +12453,7 @@
       <c r="J98" s="11"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="56" t="s">
+      <c r="A99" s="198" t="s">
         <v>608</v>
       </c>
       <c r="B99" s="93" t="s">
@@ -12458,7 +12483,7 @@
       <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="198" t="s">
         <v>611</v>
       </c>
       <c r="B100" s="93" t="s">
@@ -12488,7 +12513,7 @@
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
+      <c r="A101" s="198" t="s">
         <v>613</v>
       </c>
       <c r="B101" s="93" t="s">
@@ -12518,7 +12543,7 @@
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="198" t="s">
         <v>615</v>
       </c>
       <c r="B102" s="93" t="s">
@@ -12548,7 +12573,7 @@
       <c r="J102" s="11"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="198" t="s">
         <v>617</v>
       </c>
       <c r="B103" s="93" t="s">
@@ -12578,7 +12603,7 @@
       <c r="J103" s="11"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="56" t="s">
+      <c r="A104" s="198" t="s">
         <v>619</v>
       </c>
       <c r="B104" s="93" t="s">
@@ -12608,7 +12633,7 @@
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="56" t="s">
+      <c r="A105" s="198" t="s">
         <v>621</v>
       </c>
       <c r="B105" s="93" t="s">
@@ -12638,7 +12663,7 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="56" t="s">
+      <c r="A106" s="198" t="s">
         <v>622</v>
       </c>
       <c r="B106" s="93" t="s">
@@ -12668,7 +12693,7 @@
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="198" t="s">
         <v>624</v>
       </c>
       <c r="B107" s="93" t="s">
@@ -12698,7 +12723,7 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="56" t="s">
+      <c r="A108" s="198" t="s">
         <v>625</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -12728,7 +12753,7 @@
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="56" t="s">
+      <c r="A109" s="198" t="s">
         <v>627</v>
       </c>
       <c r="B109" s="93" t="s">
@@ -12758,7 +12783,7 @@
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="56" t="s">
+      <c r="A110" s="198" t="s">
         <v>630</v>
       </c>
       <c r="B110" s="93" t="s">
@@ -12788,7 +12813,7 @@
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="198" t="s">
         <v>631</v>
       </c>
       <c r="B111" s="93" t="s">
@@ -12818,7 +12843,7 @@
       <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="56" t="s">
+      <c r="A112" s="198" t="s">
         <v>633</v>
       </c>
       <c r="B112" s="93" t="s">
@@ -12848,7 +12873,7 @@
       <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="56" t="s">
+      <c r="A113" s="198" t="s">
         <v>635</v>
       </c>
       <c r="B113" s="93" t="s">
@@ -12878,7 +12903,7 @@
       <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="56" t="s">
+      <c r="A114" s="198" t="s">
         <v>637</v>
       </c>
       <c r="B114" s="93" t="s">
@@ -12908,7 +12933,7 @@
       <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="56" t="s">
+      <c r="A115" s="198" t="s">
         <v>639</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -12938,7 +12963,7 @@
       <c r="J115" s="11"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="56" t="s">
+      <c r="A116" s="198" t="s">
         <v>640</v>
       </c>
       <c r="B116" s="93" t="s">
@@ -12968,7 +12993,7 @@
       <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="56" t="s">
+      <c r="A117" s="198" t="s">
         <v>641</v>
       </c>
       <c r="B117" s="93" t="s">
@@ -12998,7 +13023,7 @@
       <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="56" t="s">
+      <c r="A118" s="198" t="s">
         <v>643</v>
       </c>
       <c r="B118" s="93" t="s">
@@ -13028,7 +13053,7 @@
       <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="56" t="s">
+      <c r="A119" s="198" t="s">
         <v>645</v>
       </c>
       <c r="B119" s="93" t="s">
@@ -13058,7 +13083,7 @@
       <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="198" t="s">
         <v>646</v>
       </c>
       <c r="B120" s="93" t="s">
@@ -13088,7 +13113,7 @@
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="56" t="s">
+      <c r="A121" s="198" t="s">
         <v>649</v>
       </c>
       <c r="B121" s="93" t="s">
@@ -13118,7 +13143,7 @@
       <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="56" t="s">
+      <c r="A122" s="198" t="s">
         <v>651</v>
       </c>
       <c r="B122" s="93" t="s">
@@ -13148,7 +13173,7 @@
       <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="56" t="s">
+      <c r="A123" s="198" t="s">
         <v>652</v>
       </c>
       <c r="B123" s="93" t="s">
@@ -13178,7 +13203,7 @@
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="56" t="s">
+      <c r="A124" s="198" t="s">
         <v>654</v>
       </c>
       <c r="B124" s="93" t="s">
@@ -13208,7 +13233,7 @@
       <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="56" t="s">
+      <c r="A125" s="198" t="s">
         <v>655</v>
       </c>
       <c r="B125" s="93" t="s">
@@ -13238,7 +13263,7 @@
       <c r="J125" s="11"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="56" t="s">
+      <c r="A126" s="198" t="s">
         <v>657</v>
       </c>
       <c r="B126" s="93" t="s">
@@ -13268,7 +13293,7 @@
       <c r="J126" s="11"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="56" t="s">
+      <c r="A127" s="198" t="s">
         <v>659</v>
       </c>
       <c r="B127" s="93" t="s">
@@ -13298,7 +13323,7 @@
       <c r="J127" s="11"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="56" t="s">
+      <c r="A128" s="198" t="s">
         <v>660</v>
       </c>
       <c r="B128" s="93" t="s">
@@ -13328,7 +13353,7 @@
       <c r="J128" s="11"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="56" t="s">
+      <c r="A129" s="198" t="s">
         <v>663</v>
       </c>
       <c r="B129" s="93" t="s">
@@ -13358,7 +13383,7 @@
       <c r="J129" s="11"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="56" t="s">
+      <c r="A130" s="198" t="s">
         <v>665</v>
       </c>
       <c r="B130" s="93" t="s">
@@ -13388,7 +13413,7 @@
       <c r="J130" s="11"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="56" t="s">
+      <c r="A131" s="198" t="s">
         <v>666</v>
       </c>
       <c r="B131" s="93" t="s">
@@ -13418,7 +13443,7 @@
       <c r="J131" s="11"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="56" t="s">
+      <c r="A132" s="198" t="s">
         <v>667</v>
       </c>
       <c r="B132" s="93" t="s">
@@ -13448,7 +13473,7 @@
       <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="56" t="s">
+      <c r="A133" s="198" t="s">
         <v>668</v>
       </c>
       <c r="B133" s="93" t="s">
@@ -13478,7 +13503,7 @@
       <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="56" t="s">
+      <c r="A134" s="198" t="s">
         <v>670</v>
       </c>
       <c r="B134" s="93" t="s">
@@ -13508,7 +13533,7 @@
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="56" t="s">
+      <c r="A135" s="198" t="s">
         <v>671</v>
       </c>
       <c r="B135" s="93" t="s">
@@ -13538,7 +13563,7 @@
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="56" t="s">
+      <c r="A136" s="198" t="s">
         <v>672</v>
       </c>
       <c r="B136" s="93" t="s">
@@ -13568,7 +13593,7 @@
       <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="56" t="s">
+      <c r="A137" s="198" t="s">
         <v>674</v>
       </c>
       <c r="B137" s="93" t="s">
@@ -13598,7 +13623,7 @@
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="56" t="s">
+      <c r="A138" s="198" t="s">
         <v>676</v>
       </c>
       <c r="B138" s="93" t="s">
@@ -13628,7 +13653,7 @@
       <c r="J138" s="11"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="56" t="s">
+      <c r="A139" s="198" t="s">
         <v>678</v>
       </c>
       <c r="B139" s="93" t="s">
@@ -13658,7 +13683,7 @@
       <c r="J139" s="11"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="56" t="s">
+      <c r="A140" s="198" t="s">
         <v>680</v>
       </c>
       <c r="B140" s="93" t="s">
@@ -13688,7 +13713,7 @@
       <c r="J140" s="11"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="56" t="s">
+      <c r="A141" s="198" t="s">
         <v>681</v>
       </c>
       <c r="B141" s="93" t="s">
@@ -13718,7 +13743,7 @@
       <c r="J141" s="11"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="56" t="s">
+      <c r="A142" s="198" t="s">
         <v>683</v>
       </c>
       <c r="B142" s="93" t="s">
@@ -13748,7 +13773,7 @@
       <c r="J142" s="11"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="56" t="s">
+      <c r="A143" s="198" t="s">
         <v>685</v>
       </c>
       <c r="B143" s="93" t="s">
@@ -13778,7 +13803,7 @@
       <c r="J143" s="11"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="56" t="s">
+      <c r="A144" s="198" t="s">
         <v>688</v>
       </c>
       <c r="B144" s="93" t="s">
@@ -13808,7 +13833,7 @@
       <c r="J144" s="11"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="56" t="s">
+      <c r="A145" s="198" t="s">
         <v>690</v>
       </c>
       <c r="B145" s="93" t="s">
@@ -13838,7 +13863,7 @@
       <c r="J145" s="11"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="56" t="s">
+      <c r="A146" s="198" t="s">
         <v>693</v>
       </c>
       <c r="B146" s="93" t="s">
@@ -13868,7 +13893,7 @@
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="56" t="s">
+      <c r="A147" s="198" t="s">
         <v>695</v>
       </c>
       <c r="B147" s="93" t="s">
@@ -13898,7 +13923,7 @@
       <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="56" t="s">
+      <c r="A148" s="198" t="s">
         <v>697</v>
       </c>
       <c r="B148" s="93" t="s">
@@ -13928,7 +13953,7 @@
       <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="56" t="s">
+      <c r="A149" s="198" t="s">
         <v>699</v>
       </c>
       <c r="B149" s="93" t="s">
@@ -13958,7 +13983,7 @@
       <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="56" t="s">
+      <c r="A150" s="198" t="s">
         <v>701</v>
       </c>
       <c r="B150" s="93" t="s">
@@ -13988,7 +14013,7 @@
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="56" t="s">
+      <c r="A151" s="198" t="s">
         <v>702</v>
       </c>
       <c r="B151" s="93" t="s">
@@ -14018,7 +14043,7 @@
       <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="56" t="s">
+      <c r="A152" s="198" t="s">
         <v>703</v>
       </c>
       <c r="B152" s="93" t="s">
@@ -14048,7 +14073,7 @@
       <c r="J152" s="11"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="56" t="s">
+      <c r="A153" s="198" t="s">
         <v>705</v>
       </c>
       <c r="B153" s="93" t="s">
@@ -14078,7 +14103,7 @@
       <c r="J153" s="11"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="56" t="s">
+      <c r="A154" s="198" t="s">
         <v>708</v>
       </c>
       <c r="B154" s="93" t="s">
@@ -14108,7 +14133,7 @@
       <c r="J154" s="11"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="56" t="s">
+      <c r="A155" s="198" t="s">
         <v>710</v>
       </c>
       <c r="B155" s="93" t="s">
@@ -14138,7 +14163,7 @@
       <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="56" t="s">
+      <c r="A156" s="198" t="s">
         <v>713</v>
       </c>
       <c r="B156" s="93" t="s">
@@ -14168,7 +14193,7 @@
       <c r="J156" s="11"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="56" t="s">
+      <c r="A157" s="198" t="s">
         <v>715</v>
       </c>
       <c r="B157" s="93" t="s">
@@ -14198,7 +14223,7 @@
       <c r="J157" s="11"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="56" t="s">
+      <c r="A158" s="198" t="s">
         <v>716</v>
       </c>
       <c r="B158" s="93" t="s">
@@ -14228,7 +14253,7 @@
       <c r="J158" s="11"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="56" t="s">
+      <c r="A159" s="198" t="s">
         <v>718</v>
       </c>
       <c r="B159" s="93" t="s">
@@ -14258,7 +14283,7 @@
       <c r="J159" s="11"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="56" t="s">
+      <c r="A160" s="198" t="s">
         <v>719</v>
       </c>
       <c r="B160" s="93" t="s">
@@ -14387,14 +14412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007A70"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -14790,11 +14815,11 @@
     </row>
     <row r="8" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178" t="s">
+      <c r="F8" s="176"/>
+      <c r="G8" s="176" t="s">
         <v>201</v>
       </c>
       <c r="H8" s="159"/>
@@ -14836,27 +14861,27 @@
         <v>175</v>
       </c>
       <c r="E10" s="141">
-        <f>E11</f>
+        <f t="shared" ref="E10:J10" si="0">E11</f>
         <v>81</v>
       </c>
       <c r="F10" s="141">
-        <f>F11</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G10" s="143">
-        <f>G11</f>
+        <f t="shared" si="0"/>
         <v>98595.170000000013</v>
       </c>
       <c r="H10" s="143">
-        <f>H11</f>
+        <f t="shared" si="0"/>
         <v>20807.039999999997</v>
       </c>
       <c r="I10" s="143">
-        <f>I11</f>
+        <f t="shared" si="0"/>
         <v>75370.52</v>
       </c>
       <c r="J10" s="143">
-        <f>J11</f>
+        <f t="shared" si="0"/>
         <v>105469.47</v>
       </c>
       <c r="K10" s="41"/>
@@ -14877,23 +14902,23 @@
         <v>81</v>
       </c>
       <c r="F11" s="141">
-        <f t="shared" ref="F11:J11" si="0">SUM(F12,F14:F15)</f>
+        <f t="shared" ref="F11:J11" si="1">SUM(F12,F14:F15)</f>
         <v>35</v>
       </c>
       <c r="G11" s="143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98595.170000000013</v>
       </c>
       <c r="H11" s="143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20807.039999999997</v>
       </c>
       <c r="I11" s="143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75370.52</v>
       </c>
       <c r="J11" s="143">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105469.47</v>
       </c>
       <c r="K11" s="41"/>
@@ -15460,7 +15485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15675,8 +15700,8 @@
     <mergeCell ref="C7:I7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="D12:I12" r:id="rId2" display="mateusz.szpatusko@paytel.pl"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="D12:I12" r:id="rId2" display="mateusz.szpatusko@paytel.pl" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Example/AR1 - Q1.2023.xlsx
+++ b/Example/AR1 - Q1.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D082979-8A7D-45C1-9138-69DACF2C7D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16460125-C46C-4016-966E-1AB70C5B04A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST.01" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">ST.06!$B$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ST.07!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2712,7 +2712,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3083,15 +3083,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3251,6 +3242,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4083,13 +4077,13 @@
       <c r="A7" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="154" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="157" t="s">
         <v>179</v>
       </c>
       <c r="E7" s="69" t="s">
@@ -4102,11 +4096,11 @@
       <c r="A8" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="158"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="74" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="160"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="69" t="s">
         <v>363</v>
       </c>
@@ -4117,11 +4111,11 @@
       <c r="A9" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="158"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="160"/>
+      <c r="D9" s="157"/>
       <c r="E9" s="69" t="s">
         <v>364</v>
       </c>
@@ -4132,11 +4126,11 @@
       <c r="A10" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="158"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="160"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="69" t="s">
         <v>50</v>
       </c>
@@ -4147,11 +4141,11 @@
       <c r="A11" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="159"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="160"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="69" t="s">
         <v>365</v>
       </c>
@@ -4162,13 +4156,13 @@
       <c r="A12" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="158" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="157" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="69" t="s">
@@ -4181,11 +4175,11 @@
       <c r="A13" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="161"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="74" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="160"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="69" t="s">
         <v>363</v>
       </c>
@@ -4196,11 +4190,11 @@
       <c r="A14" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="161"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="D14" s="160"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="69" t="s">
         <v>364</v>
       </c>
@@ -4211,11 +4205,11 @@
       <c r="A15" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="161"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="160"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
@@ -4226,13 +4220,13 @@
       <c r="A16" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="159" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="157" t="s">
         <v>181</v>
       </c>
       <c r="E16" s="69" t="s">
@@ -4245,11 +4239,11 @@
       <c r="A17" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="162"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="D17" s="160"/>
+      <c r="D17" s="157"/>
       <c r="E17" s="69" t="s">
         <v>367</v>
       </c>
@@ -4260,11 +4254,11 @@
       <c r="A18" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="162"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="160"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="69" t="s">
         <v>363</v>
       </c>
@@ -4275,11 +4269,11 @@
       <c r="A19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="162"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="D19" s="160"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="69" t="s">
         <v>364</v>
       </c>
@@ -4290,11 +4284,11 @@
       <c r="A20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="162"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="D20" s="160"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="69" t="s">
         <v>368</v>
       </c>
@@ -4305,11 +4299,11 @@
       <c r="A21" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="162"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="157"/>
       <c r="E21" s="69" t="s">
         <v>369</v>
       </c>
@@ -4320,11 +4314,11 @@
       <c r="A22" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="162"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="D22" s="160"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="69" t="s">
         <v>370</v>
       </c>
@@ -4335,11 +4329,11 @@
       <c r="A23" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="162"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="160"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="69" t="s">
         <v>371</v>
       </c>
@@ -4350,11 +4344,11 @@
       <c r="A24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="162"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="160"/>
+      <c r="D24" s="157"/>
       <c r="E24" s="69" t="s">
         <v>372</v>
       </c>
@@ -4365,11 +4359,11 @@
       <c r="A25" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="162"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="160"/>
+      <c r="D25" s="157"/>
       <c r="E25" s="69" t="s">
         <v>176</v>
       </c>
@@ -5043,13 +5037,13 @@
       <c r="A8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="163" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="165" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -5062,11 +5056,11 @@
       <c r="A9" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="167"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="169"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="68" t="s">
         <v>50</v>
       </c>
@@ -5077,7 +5071,7 @@
       <c r="A10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="160" t="s">
         <v>384</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -5096,7 +5090,7 @@
       <c r="A11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="164"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="61" t="s">
         <v>392</v>
       </c>
@@ -5111,7 +5105,7 @@
       <c r="A12" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="164"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="61" t="s">
         <v>388</v>
       </c>
@@ -5126,7 +5120,7 @@
       <c r="A13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="164"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="61" t="s">
         <v>393</v>
       </c>
@@ -5141,7 +5135,7 @@
       <c r="A14" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="165"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="55" t="s">
         <v>394</v>
       </c>
@@ -5748,13 +5742,13 @@
       <c r="A8" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="154" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="170" t="s">
+      <c r="D8" s="167" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="69" t="s">
@@ -5767,11 +5761,11 @@
       <c r="A9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="158"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="171"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="69" t="s">
         <v>363</v>
       </c>
@@ -5782,11 +5776,11 @@
       <c r="A10" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="158"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="171"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="69" t="s">
         <v>50</v>
       </c>
@@ -5797,11 +5791,11 @@
       <c r="A11" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="158"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="D11" s="171"/>
+      <c r="D11" s="168"/>
       <c r="E11" s="69" t="s">
         <v>401</v>
       </c>
@@ -5812,11 +5806,11 @@
       <c r="A12" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="159"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="91" t="s">
         <v>402</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="69" t="s">
         <v>403</v>
       </c>
@@ -5827,13 +5821,13 @@
       <c r="A13" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="154" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="170" t="s">
+      <c r="D13" s="167" t="s">
         <v>191</v>
       </c>
       <c r="E13" s="69" t="s">
@@ -5846,11 +5840,11 @@
       <c r="A14" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="158"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="69" t="s">
         <v>363</v>
       </c>
@@ -5861,11 +5855,11 @@
       <c r="A15" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="158"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="D15" s="171"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
@@ -5876,11 +5870,11 @@
       <c r="A16" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="159"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="69" t="s">
         <v>401</v>
       </c>
@@ -5891,13 +5885,13 @@
       <c r="A17" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="154" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="170" t="s">
+      <c r="D17" s="167" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="69" t="s">
@@ -5910,11 +5904,11 @@
       <c r="A18" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="159"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="172"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="69" t="s">
         <v>363</v>
       </c>
@@ -6449,7 +6443,7 @@
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="101"/>
-      <c r="G6" s="173" t="s">
+      <c r="G6" s="170" t="s">
         <v>405</v>
       </c>
       <c r="H6" s="103" t="s">
@@ -6469,7 +6463,7 @@
       <c r="F7" s="109" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="171"/>
       <c r="H7" s="102"/>
       <c r="I7" s="109" t="s">
         <v>408</v>
@@ -6487,7 +6481,7 @@
       </c>
       <c r="E8" s="105"/>
       <c r="F8" s="106"/>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="172" t="s">
         <v>199</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -6507,7 +6501,7 @@
       <c r="F9" s="108" t="s">
         <v>411</v>
       </c>
-      <c r="G9" s="176"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="107"/>
       <c r="I9" s="108" t="s">
         <v>390</v>
@@ -7873,18 +7867,18 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="189" t="s">
+      <c r="J6" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189" t="s">
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="189"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
     </row>
     <row r="7" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
@@ -7896,22 +7890,22 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="189" t="s">
+      <c r="J7" s="186" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189" t="s">
+      <c r="K7" s="186"/>
+      <c r="L7" s="186" t="s">
         <v>427</v>
       </c>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189" t="s">
+      <c r="M7" s="186"/>
+      <c r="N7" s="186" t="s">
         <v>428</v>
       </c>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189" t="s">
+      <c r="O7" s="186"/>
+      <c r="P7" s="186" t="s">
         <v>429</v>
       </c>
-      <c r="Q7" s="189"/>
+      <c r="Q7" s="186"/>
     </row>
     <row r="8" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
@@ -7958,18 +7952,18 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="179" t="s">
+      <c r="J9" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179" t="s">
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="O9" s="179"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
     </row>
     <row r="10" spans="1:18" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
@@ -7981,22 +7975,22 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="190" t="s">
+      <c r="J10" s="187" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="191"/>
-      <c r="L10" s="190" t="s">
+      <c r="K10" s="188"/>
+      <c r="L10" s="187" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="191"/>
-      <c r="N10" s="179" t="s">
+      <c r="M10" s="188"/>
+      <c r="N10" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" s="179"/>
+      <c r="Q10" s="176"/>
     </row>
     <row r="11" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
@@ -8037,564 +8031,564 @@
       <c r="A12" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="174" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="175" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="179" t="s">
+      <c r="F12" s="176" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="180" t="s">
+      <c r="G12" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="176" t="s">
         <v>207</v>
       </c>
       <c r="I12" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
       <c r="R12" s="43"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="179"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="179"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="176"/>
       <c r="I13" s="84" t="s">
         <v>420</v>
       </c>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
       <c r="R13" s="43"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="179"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="179"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
       <c r="R14" s="43"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="179"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="179"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="176"/>
       <c r="I15" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
       <c r="R15" s="43"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178" t="s">
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="179"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="179" t="s">
+      <c r="F16" s="176"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I16" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
       <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="179"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="176"/>
       <c r="I17" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
       <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="179"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="179"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="176"/>
       <c r="I18" s="119" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
       <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="179"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="179"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="176"/>
       <c r="I19" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
       <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178" t="s">
+      <c r="B20" s="174"/>
+      <c r="C20" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="178"/>
+      <c r="D20" s="175"/>
       <c r="E20" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="179"/>
-      <c r="G20" s="183" t="s">
+      <c r="F20" s="176"/>
+      <c r="G20" s="180" t="s">
         <v>421</v>
       </c>
-      <c r="H20" s="184"/>
+      <c r="H20" s="181"/>
       <c r="I20" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
       <c r="R20" s="43"/>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
       <c r="E21" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="F21" s="179"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="186"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="183"/>
       <c r="I21" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
       <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178" t="s">
+      <c r="B22" s="174"/>
+      <c r="C22" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="178"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="179"/>
-      <c r="G22" s="183" t="s">
+      <c r="F22" s="176"/>
+      <c r="G22" s="180" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="184"/>
+      <c r="H22" s="181"/>
       <c r="I22" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
       <c r="R22" s="43"/>
     </row>
     <row r="23" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="179"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="188"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
       <c r="I23" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
       <c r="R23" s="43"/>
     </row>
     <row r="24" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="F24" s="179"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="186"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="183"/>
       <c r="I24" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
       <c r="R24" s="43"/>
     </row>
     <row r="25" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178" t="s">
+      <c r="B25" s="174"/>
+      <c r="C25" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="178"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="179"/>
-      <c r="G25" s="183" t="s">
+      <c r="F25" s="176"/>
+      <c r="G25" s="180" t="s">
         <v>423</v>
       </c>
-      <c r="H25" s="184"/>
+      <c r="H25" s="181"/>
       <c r="I25" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
       <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="179"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="188"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
       <c r="I26" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
       <c r="R26" s="43"/>
     </row>
     <row r="27" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="179"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="186"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="183"/>
       <c r="I27" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
       <c r="R27" s="43"/>
     </row>
     <row r="28" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="174" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="178" t="s">
+      <c r="C28" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="178" t="s">
+      <c r="D28" s="175" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="179" t="s">
+      <c r="F28" s="176" t="s">
         <v>358</v>
       </c>
-      <c r="G28" s="180" t="s">
+      <c r="G28" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="179" t="s">
+      <c r="H28" s="176" t="s">
         <v>207</v>
       </c>
       <c r="I28" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
       <c r="R28" s="43"/>
     </row>
     <row r="29" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="179"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="179"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="176"/>
       <c r="I29" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
       <c r="R29" s="43"/>
     </row>
     <row r="30" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178" t="s">
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="179"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="179" t="s">
+      <c r="F30" s="176"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I30" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
       <c r="R30" s="43"/>
     </row>
     <row r="31" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="178"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="179"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="176"/>
       <c r="I31" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="154"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
       <c r="R31" s="43"/>
     </row>
     <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -8758,7 +8752,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="156"/>
+    <col min="1" max="1" width="9.140625" style="153"/>
     <col min="2" max="2" width="14.140625" style="56" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="56" customWidth="1"/>
     <col min="4" max="9" width="21.140625" style="56" customWidth="1"/>
@@ -8798,28 +8792,28 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="86"/>
       <c r="C5" s="86"/>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
-      <c r="D6" s="193" t="s">
+      <c r="D6" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194" t="s">
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="86"/>
@@ -8846,53 +8840,53 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
-      <c r="D8" s="195" t="s">
+      <c r="D8" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="86"/>
       <c r="C9" s="86"/>
-      <c r="D9" s="195" t="s">
+      <c r="D9" s="192" t="s">
         <v>432</v>
       </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="121"/>
       <c r="C10" s="121"/>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="152" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="153" t="s">
         <v>462</v>
       </c>
       <c r="B11" s="93" t="s">
@@ -8910,7 +8904,7 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="153" t="s">
         <v>463</v>
       </c>
       <c r="B12" s="93" t="s">
@@ -8928,7 +8922,7 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="153" t="s">
         <v>464</v>
       </c>
       <c r="B13" s="93" t="s">
@@ -8946,7 +8940,7 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="153" t="s">
         <v>465</v>
       </c>
       <c r="B14" s="93" t="s">
@@ -8964,7 +8958,7 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="153" t="s">
         <v>466</v>
       </c>
       <c r="B15" s="93" t="s">
@@ -8982,7 +8976,7 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="153" t="s">
         <v>467</v>
       </c>
       <c r="B16" s="93" t="s">
@@ -9000,7 +8994,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="153" t="s">
         <v>468</v>
       </c>
       <c r="B17" s="93" t="s">
@@ -9018,7 +9012,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="153" t="s">
         <v>469</v>
       </c>
       <c r="B18" s="93" t="s">
@@ -9036,7 +9030,7 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="153" t="s">
         <v>470</v>
       </c>
       <c r="B19" s="93" t="s">
@@ -9054,7 +9048,7 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="153" t="s">
         <v>471</v>
       </c>
       <c r="B20" s="93" t="s">
@@ -9072,7 +9066,7 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="153" t="s">
         <v>472</v>
       </c>
       <c r="B21" s="93" t="s">
@@ -9090,7 +9084,7 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="153" t="s">
         <v>473</v>
       </c>
       <c r="B22" s="93" t="s">
@@ -9108,7 +9102,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="156" t="s">
+      <c r="A23" s="153" t="s">
         <v>474</v>
       </c>
       <c r="B23" s="93" t="s">
@@ -9126,7 +9120,7 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="153" t="s">
         <v>475</v>
       </c>
       <c r="B24" s="93" t="s">
@@ -9144,7 +9138,7 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="153" t="s">
         <v>476</v>
       </c>
       <c r="B25" s="93" t="s">
@@ -9162,7 +9156,7 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="153" t="s">
         <v>477</v>
       </c>
       <c r="B26" s="93" t="s">
@@ -9180,7 +9174,7 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="156" t="s">
+      <c r="A27" s="153" t="s">
         <v>478</v>
       </c>
       <c r="B27" s="93" t="s">
@@ -9198,7 +9192,7 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="153" t="s">
         <v>479</v>
       </c>
       <c r="B28" s="93" t="s">
@@ -9216,7 +9210,7 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="153" t="s">
         <v>480</v>
       </c>
       <c r="B29" s="93" t="s">
@@ -9234,7 +9228,7 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="153" t="s">
         <v>481</v>
       </c>
       <c r="B30" s="93" t="s">
@@ -9252,7 +9246,7 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="156" t="s">
+      <c r="A31" s="153" t="s">
         <v>482</v>
       </c>
       <c r="B31" s="93" t="s">
@@ -9270,7 +9264,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="153" t="s">
         <v>483</v>
       </c>
       <c r="B32" s="93" t="s">
@@ -9288,7 +9282,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="153" t="s">
         <v>484</v>
       </c>
       <c r="B33" s="93" t="s">
@@ -9306,7 +9300,7 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="153" t="s">
         <v>485</v>
       </c>
       <c r="B34" s="93" t="s">
@@ -9324,7 +9318,7 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="153" t="s">
         <v>486</v>
       </c>
       <c r="B35" s="93" t="s">
@@ -9342,7 +9336,7 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="156" t="s">
+      <c r="A36" s="153" t="s">
         <v>487</v>
       </c>
       <c r="B36" s="93" t="s">
@@ -9360,7 +9354,7 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="153" t="s">
         <v>488</v>
       </c>
       <c r="B37" s="93" t="s">
@@ -9378,7 +9372,7 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="153" t="s">
         <v>489</v>
       </c>
       <c r="B38" s="93" t="s">
@@ -9396,7 +9390,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="153" t="s">
         <v>490</v>
       </c>
       <c r="B39" s="93" t="s">
@@ -9429,7 +9423,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="156" t="s">
+      <c r="A41" s="153" t="s">
         <v>491</v>
       </c>
       <c r="B41" s="93" t="s">
@@ -9447,7 +9441,7 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="156" t="s">
+      <c r="A42" s="153" t="s">
         <v>493</v>
       </c>
       <c r="B42" s="93" t="s">
@@ -9465,7 +9459,7 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="153" t="s">
         <v>494</v>
       </c>
       <c r="B43" s="93" t="s">
@@ -9483,7 +9477,7 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="153" t="s">
         <v>496</v>
       </c>
       <c r="B44" s="93" t="s">
@@ -9501,7 +9495,7 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="153" t="s">
         <v>498</v>
       </c>
       <c r="B45" s="93" t="s">
@@ -9519,7 +9513,7 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="153" t="s">
         <v>500</v>
       </c>
       <c r="B46" s="93" t="s">
@@ -9537,7 +9531,7 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="153" t="s">
         <v>502</v>
       </c>
       <c r="B47" s="93" t="s">
@@ -9555,7 +9549,7 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="153" t="s">
         <v>503</v>
       </c>
       <c r="B48" s="93" t="s">
@@ -9573,7 +9567,7 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="156" t="s">
+      <c r="A49" s="153" t="s">
         <v>504</v>
       </c>
       <c r="B49" s="93" t="s">
@@ -9591,7 +9585,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="153" t="s">
         <v>505</v>
       </c>
       <c r="B50" s="93" t="s">
@@ -9609,7 +9603,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="156" t="s">
+      <c r="A51" s="153" t="s">
         <v>507</v>
       </c>
       <c r="B51" s="93" t="s">
@@ -9627,7 +9621,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="156" t="s">
+      <c r="A52" s="153" t="s">
         <v>510</v>
       </c>
       <c r="B52" s="93" t="s">
@@ -9645,7 +9639,7 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="156" t="s">
+      <c r="A53" s="153" t="s">
         <v>512</v>
       </c>
       <c r="B53" s="93" t="s">
@@ -9663,7 +9657,7 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="156" t="s">
+      <c r="A54" s="153" t="s">
         <v>514</v>
       </c>
       <c r="B54" s="93" t="s">
@@ -9681,7 +9675,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="153" t="s">
         <v>516</v>
       </c>
       <c r="B55" s="93" t="s">
@@ -9699,7 +9693,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="156" t="s">
+      <c r="A56" s="153" t="s">
         <v>517</v>
       </c>
       <c r="B56" s="93" t="s">
@@ -9717,7 +9711,7 @@
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="156" t="s">
+      <c r="A57" s="153" t="s">
         <v>519</v>
       </c>
       <c r="B57" s="93" t="s">
@@ -9735,7 +9729,7 @@
       <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="156" t="s">
+      <c r="A58" s="153" t="s">
         <v>521</v>
       </c>
       <c r="B58" s="93" t="s">
@@ -9753,7 +9747,7 @@
       <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="156" t="s">
+      <c r="A59" s="153" t="s">
         <v>523</v>
       </c>
       <c r="B59" s="93" t="s">
@@ -9771,7 +9765,7 @@
       <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="156" t="s">
+      <c r="A60" s="153" t="s">
         <v>524</v>
       </c>
       <c r="B60" s="93" t="s">
@@ -9789,7 +9783,7 @@
       <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="156" t="s">
+      <c r="A61" s="153" t="s">
         <v>526</v>
       </c>
       <c r="B61" s="93" t="s">
@@ -9807,7 +9801,7 @@
       <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="156" t="s">
+      <c r="A62" s="153" t="s">
         <v>527</v>
       </c>
       <c r="B62" s="93" t="s">
@@ -9825,7 +9819,7 @@
       <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="156" t="s">
+      <c r="A63" s="153" t="s">
         <v>529</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -9843,7 +9837,7 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="156" t="s">
+      <c r="A64" s="153" t="s">
         <v>531</v>
       </c>
       <c r="B64" s="93" t="s">
@@ -9861,7 +9855,7 @@
       <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="156" t="s">
+      <c r="A65" s="153" t="s">
         <v>533</v>
       </c>
       <c r="B65" s="93" t="s">
@@ -9879,7 +9873,7 @@
       <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="153" t="s">
         <v>535</v>
       </c>
       <c r="B66" s="93" t="s">
@@ -9897,7 +9891,7 @@
       <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="156" t="s">
+      <c r="A67" s="153" t="s">
         <v>538</v>
       </c>
       <c r="B67" s="93" t="s">
@@ -9915,7 +9909,7 @@
       <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="156" t="s">
+      <c r="A68" s="153" t="s">
         <v>539</v>
       </c>
       <c r="B68" s="93" t="s">
@@ -9933,7 +9927,7 @@
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="153" t="s">
         <v>541</v>
       </c>
       <c r="B69" s="93" t="s">
@@ -9951,7 +9945,7 @@
       <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="156" t="s">
+      <c r="A70" s="153" t="s">
         <v>543</v>
       </c>
       <c r="B70" s="93" t="s">
@@ -9969,7 +9963,7 @@
       <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="156" t="s">
+      <c r="A71" s="153" t="s">
         <v>546</v>
       </c>
       <c r="B71" s="93" t="s">
@@ -9987,7 +9981,7 @@
       <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="156" t="s">
+      <c r="A72" s="153" t="s">
         <v>549</v>
       </c>
       <c r="B72" s="93" t="s">
@@ -10005,7 +9999,7 @@
       <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="156" t="s">
+      <c r="A73" s="153" t="s">
         <v>551</v>
       </c>
       <c r="B73" s="93" t="s">
@@ -10023,7 +10017,7 @@
       <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="153" t="s">
         <v>554</v>
       </c>
       <c r="B74" s="93" t="s">
@@ -10041,7 +10035,7 @@
       <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="156" t="s">
+      <c r="A75" s="153" t="s">
         <v>557</v>
       </c>
       <c r="B75" s="93" t="s">
@@ -10059,7 +10053,7 @@
       <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="156" t="s">
+      <c r="A76" s="153" t="s">
         <v>559</v>
       </c>
       <c r="B76" s="93" t="s">
@@ -10077,7 +10071,7 @@
       <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="156" t="s">
+      <c r="A77" s="153" t="s">
         <v>561</v>
       </c>
       <c r="B77" s="93" t="s">
@@ -10095,7 +10089,7 @@
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="156" t="s">
+      <c r="A78" s="153" t="s">
         <v>563</v>
       </c>
       <c r="B78" s="93" t="s">
@@ -10113,7 +10107,7 @@
       <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="156" t="s">
+      <c r="A79" s="153" t="s">
         <v>566</v>
       </c>
       <c r="B79" s="93" t="s">
@@ -10131,7 +10125,7 @@
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="156" t="s">
+      <c r="A80" s="153" t="s">
         <v>568</v>
       </c>
       <c r="B80" s="93" t="s">
@@ -10149,7 +10143,7 @@
       <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="156" t="s">
+      <c r="A81" s="153" t="s">
         <v>569</v>
       </c>
       <c r="B81" s="93" t="s">
@@ -10167,7 +10161,7 @@
       <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="153" t="s">
         <v>570</v>
       </c>
       <c r="B82" s="93" t="s">
@@ -10185,7 +10179,7 @@
       <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="156" t="s">
+      <c r="A83" s="153" t="s">
         <v>571</v>
       </c>
       <c r="B83" s="93" t="s">
@@ -10203,7 +10197,7 @@
       <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="156" t="s">
+      <c r="A84" s="153" t="s">
         <v>573</v>
       </c>
       <c r="B84" s="93" t="s">
@@ -10221,7 +10215,7 @@
       <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="156" t="s">
+      <c r="A85" s="153" t="s">
         <v>576</v>
       </c>
       <c r="B85" s="93" t="s">
@@ -10239,7 +10233,7 @@
       <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="156" t="s">
+      <c r="A86" s="153" t="s">
         <v>577</v>
       </c>
       <c r="B86" s="93" t="s">
@@ -10257,7 +10251,7 @@
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="156" t="s">
+      <c r="A87" s="153" t="s">
         <v>579</v>
       </c>
       <c r="B87" s="93" t="s">
@@ -10275,7 +10269,7 @@
       <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="156" t="s">
+      <c r="A88" s="153" t="s">
         <v>581</v>
       </c>
       <c r="B88" s="93" t="s">
@@ -10293,7 +10287,7 @@
       <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="156" t="s">
+      <c r="A89" s="153" t="s">
         <v>583</v>
       </c>
       <c r="B89" s="93" t="s">
@@ -10311,7 +10305,7 @@
       <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="156" t="s">
+      <c r="A90" s="153" t="s">
         <v>585</v>
       </c>
       <c r="B90" s="93" t="s">
@@ -10329,7 +10323,7 @@
       <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="153" t="s">
         <v>587</v>
       </c>
       <c r="B91" s="93" t="s">
@@ -10347,7 +10341,7 @@
       <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="156" t="s">
+      <c r="A92" s="153" t="s">
         <v>589</v>
       </c>
       <c r="B92" s="93" t="s">
@@ -10365,7 +10359,7 @@
       <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="156" t="s">
+      <c r="A93" s="153" t="s">
         <v>591</v>
       </c>
       <c r="B93" s="93" t="s">
@@ -10383,7 +10377,7 @@
       <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="156" t="s">
+      <c r="A94" s="153" t="s">
         <v>593</v>
       </c>
       <c r="B94" s="93" t="s">
@@ -10401,7 +10395,7 @@
       <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="156" t="s">
+      <c r="A95" s="153" t="s">
         <v>595</v>
       </c>
       <c r="B95" s="93" t="s">
@@ -10419,7 +10413,7 @@
       <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="156" t="s">
+      <c r="A96" s="153" t="s">
         <v>597</v>
       </c>
       <c r="B96" s="93" t="s">
@@ -10437,7 +10431,7 @@
       <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="156" t="s">
+      <c r="A97" s="153" t="s">
         <v>600</v>
       </c>
       <c r="B97" s="93" t="s">
@@ -10455,7 +10449,7 @@
       <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="156" t="s">
+      <c r="A98" s="153" t="s">
         <v>602</v>
       </c>
       <c r="B98" s="93" t="s">
@@ -10473,7 +10467,7 @@
       <c r="J98" s="11"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="156" t="s">
+      <c r="A99" s="153" t="s">
         <v>604</v>
       </c>
       <c r="B99" s="93" t="s">
@@ -10491,7 +10485,7 @@
       <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="156" t="s">
+      <c r="A100" s="153" t="s">
         <v>607</v>
       </c>
       <c r="B100" s="93" t="s">
@@ -10509,7 +10503,7 @@
       <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="156" t="s">
+      <c r="A101" s="153" t="s">
         <v>609</v>
       </c>
       <c r="B101" s="93" t="s">
@@ -10527,7 +10521,7 @@
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="153" t="s">
         <v>611</v>
       </c>
       <c r="B102" s="93" t="s">
@@ -10545,7 +10539,7 @@
       <c r="J102" s="11"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="156" t="s">
+      <c r="A103" s="153" t="s">
         <v>613</v>
       </c>
       <c r="B103" s="93" t="s">
@@ -10563,7 +10557,7 @@
       <c r="J103" s="11"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="156" t="s">
+      <c r="A104" s="153" t="s">
         <v>615</v>
       </c>
       <c r="B104" s="93" t="s">
@@ -10581,7 +10575,7 @@
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="156" t="s">
+      <c r="A105" s="153" t="s">
         <v>617</v>
       </c>
       <c r="B105" s="93" t="s">
@@ -10599,7 +10593,7 @@
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="156" t="s">
+      <c r="A106" s="153" t="s">
         <v>618</v>
       </c>
       <c r="B106" s="93" t="s">
@@ -10617,7 +10611,7 @@
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="156" t="s">
+      <c r="A107" s="153" t="s">
         <v>620</v>
       </c>
       <c r="B107" s="93" t="s">
@@ -10635,7 +10629,7 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="156" t="s">
+      <c r="A108" s="153" t="s">
         <v>621</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -10653,7 +10647,7 @@
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="156" t="s">
+      <c r="A109" s="153" t="s">
         <v>623</v>
       </c>
       <c r="B109" s="93" t="s">
@@ -10671,7 +10665,7 @@
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="156" t="s">
+      <c r="A110" s="153" t="s">
         <v>626</v>
       </c>
       <c r="B110" s="93" t="s">
@@ -10689,7 +10683,7 @@
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="156" t="s">
+      <c r="A111" s="153" t="s">
         <v>627</v>
       </c>
       <c r="B111" s="93" t="s">
@@ -10707,7 +10701,7 @@
       <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="156" t="s">
+      <c r="A112" s="153" t="s">
         <v>629</v>
       </c>
       <c r="B112" s="93" t="s">
@@ -10725,7 +10719,7 @@
       <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="156" t="s">
+      <c r="A113" s="153" t="s">
         <v>631</v>
       </c>
       <c r="B113" s="93" t="s">
@@ -10743,7 +10737,7 @@
       <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="156" t="s">
+      <c r="A114" s="153" t="s">
         <v>633</v>
       </c>
       <c r="B114" s="93" t="s">
@@ -10761,7 +10755,7 @@
       <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="156" t="s">
+      <c r="A115" s="153" t="s">
         <v>635</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -10779,7 +10773,7 @@
       <c r="J115" s="11"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="156" t="s">
+      <c r="A116" s="153" t="s">
         <v>636</v>
       </c>
       <c r="B116" s="93" t="s">
@@ -10797,7 +10791,7 @@
       <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="156" t="s">
+      <c r="A117" s="153" t="s">
         <v>637</v>
       </c>
       <c r="B117" s="93" t="s">
@@ -10815,7 +10809,7 @@
       <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="156" t="s">
+      <c r="A118" s="153" t="s">
         <v>639</v>
       </c>
       <c r="B118" s="93" t="s">
@@ -10833,7 +10827,7 @@
       <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="156" t="s">
+      <c r="A119" s="153" t="s">
         <v>641</v>
       </c>
       <c r="B119" s="93" t="s">
@@ -10851,7 +10845,7 @@
       <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="156" t="s">
+      <c r="A120" s="153" t="s">
         <v>642</v>
       </c>
       <c r="B120" s="93" t="s">
@@ -10869,7 +10863,7 @@
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="156" t="s">
+      <c r="A121" s="153" t="s">
         <v>645</v>
       </c>
       <c r="B121" s="93" t="s">
@@ -10887,7 +10881,7 @@
       <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="156" t="s">
+      <c r="A122" s="153" t="s">
         <v>647</v>
       </c>
       <c r="B122" s="93" t="s">
@@ -10905,7 +10899,7 @@
       <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="156" t="s">
+      <c r="A123" s="153" t="s">
         <v>648</v>
       </c>
       <c r="B123" s="93" t="s">
@@ -10923,7 +10917,7 @@
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="156" t="s">
+      <c r="A124" s="153" t="s">
         <v>650</v>
       </c>
       <c r="B124" s="93" t="s">
@@ -10941,7 +10935,7 @@
       <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="156" t="s">
+      <c r="A125" s="153" t="s">
         <v>651</v>
       </c>
       <c r="B125" s="93" t="s">
@@ -10959,7 +10953,7 @@
       <c r="J125" s="11"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="156" t="s">
+      <c r="A126" s="153" t="s">
         <v>653</v>
       </c>
       <c r="B126" s="93" t="s">
@@ -10977,7 +10971,7 @@
       <c r="J126" s="11"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="156" t="s">
+      <c r="A127" s="153" t="s">
         <v>655</v>
       </c>
       <c r="B127" s="93" t="s">
@@ -10995,7 +10989,7 @@
       <c r="J127" s="11"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="156" t="s">
+      <c r="A128" s="153" t="s">
         <v>656</v>
       </c>
       <c r="B128" s="93" t="s">
@@ -11013,7 +11007,7 @@
       <c r="J128" s="11"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="156" t="s">
+      <c r="A129" s="153" t="s">
         <v>659</v>
       </c>
       <c r="B129" s="93" t="s">
@@ -11031,7 +11025,7 @@
       <c r="J129" s="11"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="156" t="s">
+      <c r="A130" s="153" t="s">
         <v>661</v>
       </c>
       <c r="B130" s="93" t="s">
@@ -11049,7 +11043,7 @@
       <c r="J130" s="11"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="156" t="s">
+      <c r="A131" s="153" t="s">
         <v>662</v>
       </c>
       <c r="B131" s="93" t="s">
@@ -11067,7 +11061,7 @@
       <c r="J131" s="11"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="156" t="s">
+      <c r="A132" s="153" t="s">
         <v>663</v>
       </c>
       <c r="B132" s="93" t="s">
@@ -11085,7 +11079,7 @@
       <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="156" t="s">
+      <c r="A133" s="153" t="s">
         <v>664</v>
       </c>
       <c r="B133" s="93" t="s">
@@ -11103,7 +11097,7 @@
       <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="156" t="s">
+      <c r="A134" s="153" t="s">
         <v>666</v>
       </c>
       <c r="B134" s="93" t="s">
@@ -11121,7 +11115,7 @@
       <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="156" t="s">
+      <c r="A135" s="153" t="s">
         <v>667</v>
       </c>
       <c r="B135" s="93" t="s">
@@ -11139,7 +11133,7 @@
       <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="156" t="s">
+      <c r="A136" s="153" t="s">
         <v>668</v>
       </c>
       <c r="B136" s="93" t="s">
@@ -11157,7 +11151,7 @@
       <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="156" t="s">
+      <c r="A137" s="153" t="s">
         <v>670</v>
       </c>
       <c r="B137" s="93" t="s">
@@ -11175,7 +11169,7 @@
       <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="156" t="s">
+      <c r="A138" s="153" t="s">
         <v>672</v>
       </c>
       <c r="B138" s="93" t="s">
@@ -11193,7 +11187,7 @@
       <c r="J138" s="11"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="156" t="s">
+      <c r="A139" s="153" t="s">
         <v>674</v>
       </c>
       <c r="B139" s="93" t="s">
@@ -11211,7 +11205,7 @@
       <c r="J139" s="11"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="156" t="s">
+      <c r="A140" s="153" t="s">
         <v>676</v>
       </c>
       <c r="B140" s="93" t="s">
@@ -11229,7 +11223,7 @@
       <c r="J140" s="11"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="156" t="s">
+      <c r="A141" s="153" t="s">
         <v>677</v>
       </c>
       <c r="B141" s="93" t="s">
@@ -11247,7 +11241,7 @@
       <c r="J141" s="11"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="156" t="s">
+      <c r="A142" s="153" t="s">
         <v>679</v>
       </c>
       <c r="B142" s="93" t="s">
@@ -11265,7 +11259,7 @@
       <c r="J142" s="11"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="156" t="s">
+      <c r="A143" s="153" t="s">
         <v>681</v>
       </c>
       <c r="B143" s="93" t="s">
@@ -11283,7 +11277,7 @@
       <c r="J143" s="11"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="156" t="s">
+      <c r="A144" s="153" t="s">
         <v>684</v>
       </c>
       <c r="B144" s="93" t="s">
@@ -11301,7 +11295,7 @@
       <c r="J144" s="11"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="156" t="s">
+      <c r="A145" s="153" t="s">
         <v>686</v>
       </c>
       <c r="B145" s="93" t="s">
@@ -11319,7 +11313,7 @@
       <c r="J145" s="11"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="156" t="s">
+      <c r="A146" s="153" t="s">
         <v>689</v>
       </c>
       <c r="B146" s="93" t="s">
@@ -11337,7 +11331,7 @@
       <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="156" t="s">
+      <c r="A147" s="153" t="s">
         <v>691</v>
       </c>
       <c r="B147" s="93" t="s">
@@ -11355,7 +11349,7 @@
       <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="156" t="s">
+      <c r="A148" s="153" t="s">
         <v>693</v>
       </c>
       <c r="B148" s="93" t="s">
@@ -11373,7 +11367,7 @@
       <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="156" t="s">
+      <c r="A149" s="153" t="s">
         <v>695</v>
       </c>
       <c r="B149" s="93" t="s">
@@ -11391,7 +11385,7 @@
       <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="156" t="s">
+      <c r="A150" s="153" t="s">
         <v>697</v>
       </c>
       <c r="B150" s="93" t="s">
@@ -11409,7 +11403,7 @@
       <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="156" t="s">
+      <c r="A151" s="153" t="s">
         <v>698</v>
       </c>
       <c r="B151" s="93" t="s">
@@ -11427,7 +11421,7 @@
       <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="156" t="s">
+      <c r="A152" s="153" t="s">
         <v>699</v>
       </c>
       <c r="B152" s="93" t="s">
@@ -11445,7 +11439,7 @@
       <c r="J152" s="11"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="156" t="s">
+      <c r="A153" s="153" t="s">
         <v>701</v>
       </c>
       <c r="B153" s="93" t="s">
@@ -11463,7 +11457,7 @@
       <c r="J153" s="11"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="156" t="s">
+      <c r="A154" s="153" t="s">
         <v>704</v>
       </c>
       <c r="B154" s="93" t="s">
@@ -11481,7 +11475,7 @@
       <c r="J154" s="11"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="153" t="s">
         <v>706</v>
       </c>
       <c r="B155" s="93" t="s">
@@ -11499,7 +11493,7 @@
       <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="156" t="s">
+      <c r="A156" s="153" t="s">
         <v>709</v>
       </c>
       <c r="B156" s="93" t="s">
@@ -11517,7 +11511,7 @@
       <c r="J156" s="11"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="156" t="s">
+      <c r="A157" s="153" t="s">
         <v>711</v>
       </c>
       <c r="B157" s="93" t="s">
@@ -11535,7 +11529,7 @@
       <c r="J157" s="11"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="156" t="s">
+      <c r="A158" s="153" t="s">
         <v>712</v>
       </c>
       <c r="B158" s="93" t="s">
@@ -11553,7 +11547,7 @@
       <c r="J158" s="11"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="156" t="s">
+      <c r="A159" s="153" t="s">
         <v>714</v>
       </c>
       <c r="B159" s="93" t="s">
@@ -11571,7 +11565,7 @@
       <c r="J159" s="11"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="156" t="s">
+      <c r="A160" s="153" t="s">
         <v>715</v>
       </c>
       <c r="B160" s="93" t="s">
@@ -11695,8 +11689,8 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12055,18 +12049,18 @@
     </row>
     <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="E6" s="197" t="s">
+      <c r="E6" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197" t="s">
+      <c r="F6" s="194"/>
+      <c r="G6" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197" t="s">
+      <c r="H6" s="194"/>
+      <c r="I6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="197"/>
+      <c r="J6" s="194"/>
     </row>
     <row r="7" spans="1:11" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
@@ -12091,18 +12085,18 @@
     </row>
     <row r="8" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179" t="s">
+      <c r="F8" s="176"/>
+      <c r="G8" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="160"/>
-      <c r="I8" s="196" t="s">
+      <c r="H8" s="157"/>
+      <c r="I8" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="J8" s="196"/>
+      <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:11" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -12136,12 +12130,24 @@
       <c r="D10" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
+      <c r="E10" s="141">
+        <v>0</v>
+      </c>
+      <c r="F10" s="141">
+        <v>0</v>
+      </c>
+      <c r="G10" s="196">
+        <v>0</v>
+      </c>
+      <c r="H10" s="196">
+        <v>0</v>
+      </c>
+      <c r="I10" s="196">
+        <v>0</v>
+      </c>
+      <c r="J10" s="196">
+        <v>0</v>
+      </c>
       <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -12155,12 +12161,24 @@
       <c r="D11" s="133" t="s">
         <v>436</v>
       </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
+      <c r="E11" s="141">
+        <v>0</v>
+      </c>
+      <c r="F11" s="141">
+        <v>0</v>
+      </c>
+      <c r="G11" s="196">
+        <v>0</v>
+      </c>
+      <c r="H11" s="196">
+        <v>0</v>
+      </c>
+      <c r="I11" s="196">
+        <v>0</v>
+      </c>
+      <c r="J11" s="196">
+        <v>0</v>
+      </c>
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
@@ -12173,12 +12191,24 @@
       <c r="D12" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
+      <c r="E12" s="141">
+        <v>0</v>
+      </c>
+      <c r="F12" s="141">
+        <v>0</v>
+      </c>
+      <c r="G12" s="196">
+        <v>0</v>
+      </c>
+      <c r="H12" s="196">
+        <v>0</v>
+      </c>
+      <c r="I12" s="196">
+        <v>0</v>
+      </c>
+      <c r="J12" s="196">
+        <v>0</v>
+      </c>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -12191,12 +12221,24 @@
       <c r="D13" s="69" t="s">
         <v>438</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
+      <c r="E13" s="141">
+        <v>0</v>
+      </c>
+      <c r="F13" s="141">
+        <v>0</v>
+      </c>
+      <c r="G13" s="196">
+        <v>0</v>
+      </c>
+      <c r="H13" s="196">
+        <v>0</v>
+      </c>
+      <c r="I13" s="196">
+        <v>0</v>
+      </c>
+      <c r="J13" s="196">
+        <v>0</v>
+      </c>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -12209,12 +12251,24 @@
       <c r="D14" s="69" t="s">
         <v>439</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
+      <c r="E14" s="141">
+        <v>0</v>
+      </c>
+      <c r="F14" s="141">
+        <v>0</v>
+      </c>
+      <c r="G14" s="196">
+        <v>0</v>
+      </c>
+      <c r="H14" s="196">
+        <v>0</v>
+      </c>
+      <c r="I14" s="196">
+        <v>0</v>
+      </c>
+      <c r="J14" s="196">
+        <v>0</v>
+      </c>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12228,12 +12282,24 @@
       <c r="D15" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
+      <c r="E15" s="141">
+        <v>0</v>
+      </c>
+      <c r="F15" s="141">
+        <v>0</v>
+      </c>
+      <c r="G15" s="196">
+        <v>0</v>
+      </c>
+      <c r="H15" s="196">
+        <v>0</v>
+      </c>
+      <c r="I15" s="196">
+        <v>0</v>
+      </c>
+      <c r="J15" s="196">
+        <v>0</v>
+      </c>
       <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" s="34" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12247,12 +12313,24 @@
       <c r="D16" s="133" t="s">
         <v>441</v>
       </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
+      <c r="E16" s="141">
+        <v>0</v>
+      </c>
+      <c r="F16" s="141">
+        <v>0</v>
+      </c>
+      <c r="G16" s="196">
+        <v>0</v>
+      </c>
+      <c r="H16" s="196">
+        <v>0</v>
+      </c>
+      <c r="I16" s="196">
+        <v>0</v>
+      </c>
+      <c r="J16" s="196">
+        <v>0</v>
+      </c>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -12265,12 +12343,24 @@
       <c r="D17" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
+      <c r="E17" s="141">
+        <v>0</v>
+      </c>
+      <c r="F17" s="141">
+        <v>0</v>
+      </c>
+      <c r="G17" s="196">
+        <v>0</v>
+      </c>
+      <c r="H17" s="196">
+        <v>0</v>
+      </c>
+      <c r="I17" s="196">
+        <v>0</v>
+      </c>
+      <c r="J17" s="196">
+        <v>0</v>
+      </c>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12284,12 +12374,24 @@
       <c r="D18" s="69" t="s">
         <v>439</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
+      <c r="E18" s="141">
+        <v>0</v>
+      </c>
+      <c r="F18" s="141">
+        <v>0</v>
+      </c>
+      <c r="G18" s="196">
+        <v>0</v>
+      </c>
+      <c r="H18" s="196">
+        <v>0</v>
+      </c>
+      <c r="I18" s="196">
+        <v>0</v>
+      </c>
+      <c r="J18" s="196">
+        <v>0</v>
+      </c>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -12303,12 +12405,24 @@
       <c r="D19" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
+      <c r="E19" s="141">
+        <v>0</v>
+      </c>
+      <c r="F19" s="141">
+        <v>0</v>
+      </c>
+      <c r="G19" s="196">
+        <v>0</v>
+      </c>
+      <c r="H19" s="196">
+        <v>0</v>
+      </c>
+      <c r="I19" s="196">
+        <v>0</v>
+      </c>
+      <c r="J19" s="196">
+        <v>0</v>
+      </c>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12321,12 +12435,24 @@
       <c r="D20" s="133" t="s">
         <v>443</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
+      <c r="E20" s="141">
+        <v>0</v>
+      </c>
+      <c r="F20" s="141">
+        <v>0</v>
+      </c>
+      <c r="G20" s="196">
+        <v>0</v>
+      </c>
+      <c r="H20" s="196">
+        <v>0</v>
+      </c>
+      <c r="I20" s="196">
+        <v>0</v>
+      </c>
+      <c r="J20" s="196">
+        <v>0</v>
+      </c>
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -12339,12 +12465,24 @@
       <c r="D21" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
+      <c r="E21" s="141">
+        <v>0</v>
+      </c>
+      <c r="F21" s="141">
+        <v>0</v>
+      </c>
+      <c r="G21" s="196">
+        <v>0</v>
+      </c>
+      <c r="H21" s="196">
+        <v>0</v>
+      </c>
+      <c r="I21" s="196">
+        <v>0</v>
+      </c>
+      <c r="J21" s="196">
+        <v>0</v>
+      </c>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12357,12 +12495,24 @@
       <c r="D22" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
+      <c r="E22" s="141">
+        <v>0</v>
+      </c>
+      <c r="F22" s="141">
+        <v>0</v>
+      </c>
+      <c r="G22" s="196">
+        <v>0</v>
+      </c>
+      <c r="H22" s="196">
+        <v>0</v>
+      </c>
+      <c r="I22" s="196">
+        <v>0</v>
+      </c>
+      <c r="J22" s="196">
+        <v>0</v>
+      </c>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -12376,12 +12526,24 @@
       <c r="D23" s="108" t="s">
         <v>445</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
+      <c r="E23" s="141">
+        <v>0</v>
+      </c>
+      <c r="F23" s="141">
+        <v>0</v>
+      </c>
+      <c r="G23" s="196">
+        <v>0</v>
+      </c>
+      <c r="H23" s="196">
+        <v>0</v>
+      </c>
+      <c r="I23" s="196">
+        <v>0</v>
+      </c>
+      <c r="J23" s="196">
+        <v>0</v>
+      </c>
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12394,12 +12556,24 @@
       <c r="D24" s="82" t="s">
         <v>443</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
+      <c r="E24" s="141">
+        <v>0</v>
+      </c>
+      <c r="F24" s="141">
+        <v>0</v>
+      </c>
+      <c r="G24" s="196">
+        <v>0</v>
+      </c>
+      <c r="H24" s="196">
+        <v>0</v>
+      </c>
+      <c r="I24" s="196">
+        <v>0</v>
+      </c>
+      <c r="J24" s="196">
+        <v>0</v>
+      </c>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -12569,7 +12743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
@@ -12612,104 +12786,104 @@
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="198" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="148" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="148" t="s">
+      <c r="G8" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="148" t="s">
+      <c r="H8" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="148" t="s">
+      <c r="I8" s="145" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="146" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="147" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="146" t="s">
         <v>457</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="147" t="s">
         <v>458</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="146" t="s">
         <v>459</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="147" t="s">
         <v>460</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="147" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>

--- a/Example/AR1 - Q1.2023.xlsx
+++ b/Example/AR1 - Q1.2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16460125-C46C-4016-966E-1AB70C5B04A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC248CB2-EDB2-423B-88CF-F6C7EB2237BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ST.01" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">ST.06!$B$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ST.07!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="596">
   <si>
     <t>Karty płatnicze</t>
   </si>
@@ -1557,679 +1557,319 @@
     <t>SE</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>Afganistan</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
     <t>Algieria</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>Andora</t>
   </si>
   <si>
-    <t>AO</t>
-  </si>
-  <si>
     <t>Angola łącznie z Kabinda</t>
   </si>
   <si>
-    <t>AR</t>
-  </si>
-  <si>
     <t>Argentyna</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
     <t>Azerbejdżan</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>Bahamy</t>
   </si>
   <si>
     <t>Bahamas (the)</t>
   </si>
   <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>Bahrajn</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
     <t>Bangladesz</t>
   </si>
   <si>
-    <t>BY</t>
-  </si>
-  <si>
     <t>Białoruś</t>
   </si>
   <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
     <t>Bermudy</t>
   </si>
   <si>
-    <t>BO</t>
-  </si>
-  <si>
     <t>Boliwia</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>Bośnia i Hercegowina</t>
   </si>
   <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>Brazylia</t>
   </si>
   <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>Wyspy Zielonego Przylądka</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
     <t>Kambodża (Kampucza)</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>Kamerun</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Kanada</t>
   </si>
   <si>
-    <t>KY</t>
-  </si>
-  <si>
     <t>Kajmany</t>
   </si>
   <si>
     <t>Cayman Islands (the)</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>Chiny</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Kolumbia</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>Kongo, Republika Demokratyczna</t>
   </si>
   <si>
     <t>Congo (the Democratic Republic of the)</t>
   </si>
   <si>
-    <t>CG</t>
-  </si>
-  <si>
     <t>Kongo</t>
   </si>
   <si>
     <t>Congo (the)</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
     <t>Kostaryka</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>Wybrzeże Kości Słoniowej</t>
   </si>
   <si>
     <t>Côte d'Ivoire</t>
   </si>
   <si>
-    <t>DO</t>
-  </si>
-  <si>
     <t>Republika Dominikany</t>
   </si>
   <si>
     <t>Dominican Republic (the)</t>
   </si>
   <si>
-    <t>EC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ekwador </t>
   </si>
   <si>
-    <t>EG</t>
-  </si>
-  <si>
     <t>Egipt</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>Salwador</t>
   </si>
   <si>
-    <t>D09</t>
-  </si>
-  <si>
     <t>Pozostałe kraje</t>
   </si>
   <si>
     <t>Extra UE not allocated</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
     <t>Gruzja</t>
   </si>
   <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>GI</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
     <t>Gwatemala</t>
   </si>
   <si>
-    <t>VA</t>
-  </si>
-  <si>
     <t>Watykan</t>
   </si>
   <si>
     <t>Holy See (the)</t>
   </si>
   <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
     <t>Hongkong</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>Indie</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Indonezja</t>
   </si>
   <si>
-    <t>IQ</t>
-  </si>
-  <si>
     <t>Irak</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>Izrael</t>
   </si>
   <si>
-    <t>JM</t>
-  </si>
-  <si>
     <t>Jamajka</t>
   </si>
   <si>
-    <t>JP</t>
-  </si>
-  <si>
     <t>Japonia</t>
   </si>
   <si>
-    <t>JO</t>
-  </si>
-  <si>
     <t>Jordania</t>
   </si>
   <si>
-    <t>KZ</t>
-  </si>
-  <si>
     <t>Kazachstan</t>
   </si>
   <si>
-    <t>KE</t>
-  </si>
-  <si>
     <t>Kenia</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>Republika Korei (Korea Południowa)</t>
   </si>
   <si>
     <t>Korea (the Republic of)</t>
   </si>
   <si>
-    <t>KW</t>
-  </si>
-  <si>
     <t>Kuwejt</t>
   </si>
   <si>
-    <t>KG</t>
-  </si>
-  <si>
     <t>Kirgistan</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
     <t>Lao People's Democratic Republic (the)</t>
   </si>
   <si>
-    <t>LB</t>
-  </si>
-  <si>
     <t>Liban</t>
   </si>
   <si>
-    <t>LY</t>
-  </si>
-  <si>
     <t>Libia</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
     <t>Makao</t>
   </si>
   <si>
-    <t>MG</t>
-  </si>
-  <si>
     <t>Madagaskar</t>
   </si>
   <si>
-    <t>MY</t>
-  </si>
-  <si>
     <t>Malezja</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
     <t>Mauretania</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
     <t>Meksyk</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>Mołdowa</t>
   </si>
   <si>
     <t>Moldova (the Republic of)</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
     <t>Czarnogóra</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Maroko</t>
   </si>
   <si>
-    <t>MZ</t>
-  </si>
-  <si>
     <t>Mozambik</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>Myanmar (Birma)</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
     <t>Nowa Zelandia</t>
   </si>
   <si>
-    <t>NI</t>
-  </si>
-  <si>
     <t>Nikaragua</t>
   </si>
   <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
     <t>North Macedonia</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oman </t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>Palestyna</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>Papua Nowa Gwinea</t>
   </si>
   <si>
-    <t>PY</t>
-  </si>
-  <si>
     <t>Paragwaj</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
     <t>Filipiny</t>
   </si>
   <si>
     <t>Philippines (the)</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Katar</t>
   </si>
   <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>Arabia Saudyjska</t>
   </si>
   <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Seszele</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>Singapur</t>
   </si>
   <si>
-    <t>ZA</t>
-  </si>
-  <si>
     <t>Republika Południowej Afryki</t>
   </si>
   <si>
-    <t>SS</t>
-  </si>
-  <si>
     <t>Sudan Południowy</t>
   </si>
   <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>Sudan (the)</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>Szwajcaria</t>
   </si>
   <si>
-    <t>TW</t>
-  </si>
-  <si>
     <t>Tajwan</t>
   </si>
   <si>
     <t>Taiwan (Province of China)</t>
   </si>
   <si>
-    <t>TJ</t>
-  </si>
-  <si>
     <t>Tadżykistan</t>
   </si>
   <si>
-    <t>TZ</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
     <t>Tanzania, the United Republic of</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
     <t>Tajlandia</t>
   </si>
   <si>
-    <t>TT</t>
-  </si>
-  <si>
     <t>Trynidad i Tobago</t>
   </si>
   <si>
-    <t>TN</t>
-  </si>
-  <si>
     <t>Tunezja</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>Turcja</t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>UG</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
     <t>Ukraina</t>
   </si>
   <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>Zjednoczone Emiraty Arabskie</t>
   </si>
   <si>
     <t>United Arab Emirates (the)</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Stany Zjednoczone Ameryki Północnej łącznie z Portoryko i Navassa</t>
   </si>
   <si>
     <t>United States of America (the)</t>
   </si>
   <si>
-    <t>UY</t>
-  </si>
-  <si>
     <t>Urugwaj</t>
   </si>
   <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
     <t>Wietnam</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>ZW</t>
   </si>
 </sst>
 </file>
@@ -3117,6 +2757,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3177,51 +2820,51 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3242,9 +2885,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4077,13 +3717,13 @@
       <c r="A7" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="155" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="158" t="s">
         <v>179</v>
       </c>
       <c r="E7" s="69" t="s">
@@ -4096,11 +3736,11 @@
       <c r="A8" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="155"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="74" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="69" t="s">
         <v>363</v>
       </c>
@@ -4111,11 +3751,11 @@
       <c r="A9" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="157"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="69" t="s">
         <v>364</v>
       </c>
@@ -4126,11 +3766,11 @@
       <c r="A10" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="155"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="157"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="69" t="s">
         <v>50</v>
       </c>
@@ -4141,11 +3781,11 @@
       <c r="A11" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="156"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="157"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="69" t="s">
         <v>365</v>
       </c>
@@ -4156,13 +3796,13 @@
       <c r="A12" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="159" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="157" t="s">
+      <c r="D12" s="158" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="69" t="s">
@@ -4175,11 +3815,11 @@
       <c r="A13" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="158"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="74" t="s">
         <v>373</v>
       </c>
-      <c r="D13" s="157"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="69" t="s">
         <v>363</v>
       </c>
@@ -4190,11 +3830,11 @@
       <c r="A14" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="158"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="D14" s="157"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="69" t="s">
         <v>364</v>
       </c>
@@ -4205,11 +3845,11 @@
       <c r="A15" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="158"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="157"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
@@ -4220,13 +3860,13 @@
       <c r="A16" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="160" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="158" t="s">
         <v>181</v>
       </c>
       <c r="E16" s="69" t="s">
@@ -4239,11 +3879,11 @@
       <c r="A17" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="159"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="D17" s="157"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="69" t="s">
         <v>367</v>
       </c>
@@ -4254,11 +3894,11 @@
       <c r="A18" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="159"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="D18" s="157"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="69" t="s">
         <v>363</v>
       </c>
@@ -4269,11 +3909,11 @@
       <c r="A19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="159"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="D19" s="157"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="69" t="s">
         <v>364</v>
       </c>
@@ -4284,11 +3924,11 @@
       <c r="A20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="159"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="D20" s="157"/>
+      <c r="D20" s="158"/>
       <c r="E20" s="69" t="s">
         <v>368</v>
       </c>
@@ -4299,11 +3939,11 @@
       <c r="A21" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="159"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="D21" s="157"/>
+      <c r="D21" s="158"/>
       <c r="E21" s="69" t="s">
         <v>369</v>
       </c>
@@ -4314,11 +3954,11 @@
       <c r="A22" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="159"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="D22" s="157"/>
+      <c r="D22" s="158"/>
       <c r="E22" s="69" t="s">
         <v>370</v>
       </c>
@@ -4329,11 +3969,11 @@
       <c r="A23" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="159"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="157"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="69" t="s">
         <v>371</v>
       </c>
@@ -4344,11 +3984,11 @@
       <c r="A24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="159"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="157"/>
+      <c r="D24" s="158"/>
       <c r="E24" s="69" t="s">
         <v>372</v>
       </c>
@@ -4359,11 +3999,11 @@
       <c r="A25" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="159"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="157"/>
+      <c r="D25" s="158"/>
       <c r="E25" s="69" t="s">
         <v>176</v>
       </c>
@@ -5037,13 +4677,13 @@
       <c r="A8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="164" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="166" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -5056,11 +4696,11 @@
       <c r="A9" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="166"/>
+      <c r="D9" s="167"/>
       <c r="E9" s="68" t="s">
         <v>50</v>
       </c>
@@ -5071,7 +4711,7 @@
       <c r="A10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="161" t="s">
         <v>384</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -5090,7 +4730,7 @@
       <c r="A11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="161"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="61" t="s">
         <v>392</v>
       </c>
@@ -5105,7 +4745,7 @@
       <c r="A12" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="161"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="61" t="s">
         <v>388</v>
       </c>
@@ -5120,7 +4760,7 @@
       <c r="A13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="161"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="61" t="s">
         <v>393</v>
       </c>
@@ -5135,7 +4775,7 @@
       <c r="A14" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="162"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="55" t="s">
         <v>394</v>
       </c>
@@ -5742,13 +5382,13 @@
       <c r="A8" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="155" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="168" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="69" t="s">
@@ -5761,11 +5401,11 @@
       <c r="A9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="155"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="168"/>
+      <c r="D9" s="169"/>
       <c r="E9" s="69" t="s">
         <v>363</v>
       </c>
@@ -5776,11 +5416,11 @@
       <c r="A10" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="155"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="69" t="s">
         <v>50</v>
       </c>
@@ -5791,11 +5431,11 @@
       <c r="A11" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="155"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="D11" s="168"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="69" t="s">
         <v>401</v>
       </c>
@@ -5806,11 +5446,11 @@
       <c r="A12" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="156"/>
+      <c r="B12" s="157"/>
       <c r="C12" s="91" t="s">
         <v>402</v>
       </c>
-      <c r="D12" s="169"/>
+      <c r="D12" s="170"/>
       <c r="E12" s="69" t="s">
         <v>403</v>
       </c>
@@ -5821,13 +5461,13 @@
       <c r="A13" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="155" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="168" t="s">
         <v>191</v>
       </c>
       <c r="E13" s="69" t="s">
@@ -5840,11 +5480,11 @@
       <c r="A14" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="155"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="69" t="s">
         <v>363</v>
       </c>
@@ -5855,11 +5495,11 @@
       <c r="A15" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="155"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="D15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
@@ -5870,11 +5510,11 @@
       <c r="A16" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="156"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="D16" s="169"/>
+      <c r="D16" s="170"/>
       <c r="E16" s="69" t="s">
         <v>401</v>
       </c>
@@ -5885,13 +5525,13 @@
       <c r="A17" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="155" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="167" t="s">
+      <c r="D17" s="168" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="69" t="s">
@@ -5904,11 +5544,11 @@
       <c r="A18" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="156"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="169"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="69" t="s">
         <v>363</v>
       </c>
@@ -6443,7 +6083,7 @@
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="101"/>
-      <c r="G6" s="170" t="s">
+      <c r="G6" s="171" t="s">
         <v>405</v>
       </c>
       <c r="H6" s="103" t="s">
@@ -6463,7 +6103,7 @@
       <c r="F7" s="109" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="171"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="102"/>
       <c r="I7" s="109" t="s">
         <v>408</v>
@@ -6481,7 +6121,7 @@
       </c>
       <c r="E8" s="105"/>
       <c r="F8" s="106"/>
-      <c r="G8" s="172" t="s">
+      <c r="G8" s="173" t="s">
         <v>199</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -6501,7 +6141,7 @@
       <c r="F9" s="108" t="s">
         <v>411</v>
       </c>
-      <c r="G9" s="173"/>
+      <c r="G9" s="174"/>
       <c r="H9" s="107"/>
       <c r="I9" s="108" t="s">
         <v>390</v>
@@ -7867,18 +7507,18 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="186" t="s">
+      <c r="J6" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186" t="s">
+      <c r="K6" s="178"/>
+      <c r="L6" s="178"/>
+      <c r="M6" s="178"/>
+      <c r="N6" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186"/>
-      <c r="Q6" s="186"/>
+      <c r="O6" s="178"/>
+      <c r="P6" s="178"/>
+      <c r="Q6" s="178"/>
     </row>
     <row r="7" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
@@ -7890,22 +7530,22 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="178" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186" t="s">
+      <c r="K7" s="178"/>
+      <c r="L7" s="178" t="s">
         <v>427</v>
       </c>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186" t="s">
+      <c r="M7" s="178"/>
+      <c r="N7" s="178" t="s">
         <v>428</v>
       </c>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186" t="s">
+      <c r="O7" s="178"/>
+      <c r="P7" s="178" t="s">
         <v>429</v>
       </c>
-      <c r="Q7" s="186"/>
+      <c r="Q7" s="178"/>
     </row>
     <row r="8" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
@@ -7952,18 +7592,18 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="176" t="s">
+      <c r="J9" s="175" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176" t="s">
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
     </row>
     <row r="10" spans="1:18" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
@@ -7975,22 +7615,22 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="187" t="s">
+      <c r="J10" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="188"/>
-      <c r="L10" s="187" t="s">
+      <c r="K10" s="177"/>
+      <c r="L10" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="188"/>
-      <c r="N10" s="176" t="s">
+      <c r="M10" s="177"/>
+      <c r="N10" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176" t="s">
+      <c r="O10" s="175"/>
+      <c r="P10" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" s="176"/>
+      <c r="Q10" s="175"/>
     </row>
     <row r="11" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
@@ -8031,25 +7671,25 @@
       <c r="A12" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="175" t="s">
+      <c r="D12" s="189" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="175" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="177" t="s">
+      <c r="G12" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="176" t="s">
+      <c r="H12" s="175" t="s">
         <v>207</v>
       </c>
       <c r="I12" s="84" t="s">
@@ -8069,15 +7709,15 @@
       <c r="A13" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
       <c r="E13" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F13" s="176"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="176"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="175"/>
       <c r="I13" s="84" t="s">
         <v>420</v>
       </c>
@@ -8095,15 +7735,15 @@
       <c r="A14" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="175"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
       <c r="E14" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="176"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="176"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="175"/>
       <c r="I14" s="119" t="s">
         <v>208</v>
       </c>
@@ -8121,15 +7761,15 @@
       <c r="A15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
       <c r="E15" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="176"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="176"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="175"/>
       <c r="I15" s="119" t="s">
         <v>50</v>
       </c>
@@ -8147,17 +7787,17 @@
       <c r="A16" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175" t="s">
+      <c r="B16" s="188"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="176"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="176" t="s">
+      <c r="F16" s="175"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="175" t="s">
         <v>206</v>
       </c>
       <c r="I16" s="84" t="s">
@@ -8177,15 +7817,15 @@
       <c r="A17" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
       <c r="E17" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="176"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="176"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="175"/>
       <c r="I17" s="84" t="s">
         <v>416</v>
       </c>
@@ -8203,15 +7843,15 @@
       <c r="A18" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
       <c r="E18" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="176"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="176"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="175"/>
       <c r="I18" s="119" t="s">
         <v>208</v>
       </c>
@@ -8229,15 +7869,15 @@
       <c r="A19" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
       <c r="E19" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="176"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="176"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="175"/>
       <c r="I19" s="119" t="s">
         <v>50</v>
       </c>
@@ -8255,19 +7895,19 @@
       <c r="A20" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175" t="s">
+      <c r="B20" s="188"/>
+      <c r="C20" s="189" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="175"/>
+      <c r="D20" s="189"/>
       <c r="E20" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="176"/>
-      <c r="G20" s="180" t="s">
+      <c r="F20" s="175"/>
+      <c r="G20" s="182" t="s">
         <v>421</v>
       </c>
-      <c r="H20" s="181"/>
+      <c r="H20" s="183"/>
       <c r="I20" s="119" t="s">
         <v>50</v>
       </c>
@@ -8285,15 +7925,15 @@
       <c r="A21" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
       <c r="E21" s="74" t="s">
         <v>425</v>
       </c>
-      <c r="F21" s="176"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="183"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
       <c r="I21" s="69" t="s">
         <v>426</v>
       </c>
@@ -8311,19 +7951,19 @@
       <c r="A22" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="175"/>
+      <c r="D22" s="189"/>
       <c r="E22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="176"/>
-      <c r="G22" s="180" t="s">
+      <c r="F22" s="175"/>
+      <c r="G22" s="182" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="181"/>
+      <c r="H22" s="183"/>
       <c r="I22" s="84" t="s">
         <v>178</v>
       </c>
@@ -8341,15 +7981,15 @@
       <c r="A23" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="189"/>
       <c r="E23" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="176"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="185"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="187"/>
       <c r="I23" s="119" t="s">
         <v>50</v>
       </c>
@@ -8367,15 +8007,15 @@
       <c r="A24" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="189"/>
+      <c r="D24" s="189"/>
       <c r="E24" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="F24" s="176"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="183"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
       <c r="I24" s="69" t="s">
         <v>356</v>
       </c>
@@ -8393,19 +8033,19 @@
       <c r="A25" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="174"/>
-      <c r="C25" s="175" t="s">
+      <c r="B25" s="188"/>
+      <c r="C25" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="189"/>
       <c r="E25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="176"/>
-      <c r="G25" s="180" t="s">
+      <c r="F25" s="175"/>
+      <c r="G25" s="182" t="s">
         <v>423</v>
       </c>
-      <c r="H25" s="181"/>
+      <c r="H25" s="183"/>
       <c r="I25" s="69" t="s">
         <v>178</v>
       </c>
@@ -8423,15 +8063,15 @@
       <c r="A26" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="174"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="176"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="185"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="187"/>
       <c r="I26" s="119" t="s">
         <v>50</v>
       </c>
@@ -8449,15 +8089,15 @@
       <c r="A27" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="174"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
       <c r="E27" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="176"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="183"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
       <c r="I27" s="69" t="s">
         <v>356</v>
       </c>
@@ -8475,25 +8115,25 @@
       <c r="A28" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="188" t="s">
         <v>417</v>
       </c>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="175" t="s">
+      <c r="D28" s="189" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="176" t="s">
+      <c r="F28" s="175" t="s">
         <v>358</v>
       </c>
-      <c r="G28" s="177" t="s">
+      <c r="G28" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="176" t="s">
+      <c r="H28" s="175" t="s">
         <v>207</v>
       </c>
       <c r="I28" s="84" t="s">
@@ -8513,15 +8153,15 @@
       <c r="A29" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="174"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="175"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
       <c r="E29" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="176"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="176"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="175"/>
       <c r="I29" s="119" t="s">
         <v>50</v>
       </c>
@@ -8539,17 +8179,17 @@
       <c r="A30" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="174"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175" t="s">
+      <c r="B30" s="188"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="176"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="176" t="s">
+      <c r="F30" s="175"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="175" t="s">
         <v>206</v>
       </c>
       <c r="I30" s="69" t="s">
@@ -8569,15 +8209,15 @@
       <c r="A31" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="174"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
       <c r="E31" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="176"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="176"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="175"/>
       <c r="I31" s="70" t="s">
         <v>50</v>
       </c>
@@ -8698,24 +8338,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H30:H31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="F28:F31"/>
@@ -8732,6 +8354,24 @@
     <mergeCell ref="C25:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8746,8 +8386,8 @@
   </sheetPr>
   <dimension ref="A2:J168"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8792,28 +8432,28 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="86"/>
       <c r="C5" s="86"/>
-      <c r="D5" s="189" t="s">
+      <c r="D5" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
-      <c r="D6" s="190" t="s">
+      <c r="D6" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191" t="s">
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="86"/>
@@ -8840,28 +8480,28 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
-      <c r="D8" s="192" t="s">
+      <c r="D8" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="86"/>
       <c r="C9" s="86"/>
-      <c r="D9" s="192" t="s">
+      <c r="D9" s="193" t="s">
         <v>432</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192" t="s">
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="121"/>
@@ -9423,11 +9063,8 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="153" t="s">
+      <c r="B41" s="93" t="s">
         <v>491</v>
-      </c>
-      <c r="B41" s="93" t="s">
-        <v>492</v>
       </c>
       <c r="C41" s="97" t="s">
         <v>254</v>
@@ -9441,9 +9078,6 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="153" t="s">
-        <v>493</v>
-      </c>
       <c r="B42" s="93" t="s">
         <v>255</v>
       </c>
@@ -9459,11 +9093,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="153" t="s">
-        <v>494</v>
-      </c>
       <c r="B43" s="93" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C43" s="94" t="s">
         <v>280</v>
@@ -9477,11 +9108,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="153" t="s">
-        <v>496</v>
-      </c>
       <c r="B44" s="93" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C44" s="94" t="s">
         <v>253</v>
@@ -9495,11 +9123,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="153" t="s">
-        <v>498</v>
-      </c>
       <c r="B45" s="93" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C45" s="94" t="s">
         <v>257</v>
@@ -9513,11 +9138,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="153" t="s">
-        <v>500</v>
-      </c>
       <c r="B46" s="93" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C46" s="94" t="s">
         <v>258</v>
@@ -9531,9 +9153,6 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="153" t="s">
-        <v>502</v>
-      </c>
       <c r="B47" s="93" t="s">
         <v>256</v>
       </c>
@@ -9549,9 +9168,6 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="153" t="s">
-        <v>503</v>
-      </c>
       <c r="B48" s="93" t="s">
         <v>260</v>
       </c>
@@ -9566,10 +9182,7 @@
       <c r="I48" s="139"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="153" t="s">
-        <v>504</v>
-      </c>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="93" t="s">
         <v>259</v>
       </c>
@@ -9584,12 +9197,9 @@
       <c r="I49" s="139"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="153" t="s">
-        <v>505</v>
-      </c>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="93" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C50" s="94" t="s">
         <v>261</v>
@@ -9602,15 +9212,12 @@
       <c r="I50" s="139"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="153" t="s">
-        <v>507</v>
-      </c>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="93" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C51" s="94" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D51" s="140"/>
       <c r="E51" s="140"/>
@@ -9620,12 +9227,9 @@
       <c r="I51" s="139"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="153" t="s">
-        <v>510</v>
-      </c>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="93" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C52" s="94" t="s">
         <v>264</v>
@@ -9638,12 +9242,9 @@
       <c r="I52" s="139"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="153" t="s">
-        <v>512</v>
-      </c>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="93" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C53" s="94" t="s">
         <v>263</v>
@@ -9656,12 +9257,9 @@
       <c r="I53" s="139"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="153" t="s">
-        <v>514</v>
-      </c>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="93" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C54" s="94" t="s">
         <v>270</v>
@@ -9674,10 +9272,7 @@
       <c r="I54" s="139"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="153" t="s">
-        <v>516</v>
-      </c>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="93" t="s">
         <v>271</v>
       </c>
@@ -9692,12 +9287,9 @@
       <c r="I55" s="139"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="153" t="s">
-        <v>517</v>
-      </c>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="93" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C56" s="94" t="s">
         <v>265</v>
@@ -9710,12 +9302,9 @@
       <c r="I56" s="139"/>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="153" t="s">
-        <v>519</v>
-      </c>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="93" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="C57" s="94" t="s">
         <v>267</v>
@@ -9728,12 +9317,9 @@
       <c r="I57" s="139"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="153" t="s">
-        <v>521</v>
-      </c>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="93" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="C58" s="94" t="s">
         <v>262</v>
@@ -9746,10 +9332,7 @@
       <c r="I58" s="139"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="153" t="s">
-        <v>523</v>
-      </c>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="93" t="s">
         <v>269</v>
       </c>
@@ -9764,12 +9347,9 @@
       <c r="I59" s="139"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="153" t="s">
-        <v>524</v>
-      </c>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="93" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C60" s="94" t="s">
         <v>268</v>
@@ -9782,10 +9362,7 @@
       <c r="I60" s="139"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="153" t="s">
-        <v>526</v>
-      </c>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="93" t="s">
         <v>266</v>
       </c>
@@ -9800,12 +9377,9 @@
       <c r="I61" s="139"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="153" t="s">
-        <v>527</v>
-      </c>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="93" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C62" s="94" t="s">
         <v>279</v>
@@ -9818,12 +9392,9 @@
       <c r="I62" s="139"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="153" t="s">
-        <v>529</v>
-      </c>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="93" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C63" s="94" t="s">
         <v>299</v>
@@ -9836,12 +9407,9 @@
       <c r="I63" s="139"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="153" t="s">
-        <v>531</v>
-      </c>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="93" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C64" s="94" t="s">
         <v>275</v>
@@ -9854,12 +9422,9 @@
       <c r="I64" s="139"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="153" t="s">
-        <v>533</v>
-      </c>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="93" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="C65" s="94" t="s">
         <v>272</v>
@@ -9872,15 +9437,12 @@
       <c r="I65" s="139"/>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="153" t="s">
-        <v>535</v>
-      </c>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="93" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D66" s="140"/>
       <c r="E66" s="140"/>
@@ -9890,10 +9452,7 @@
       <c r="I66" s="139"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="153" t="s">
-        <v>538</v>
-      </c>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="93" t="s">
         <v>274</v>
       </c>
@@ -9908,12 +9467,9 @@
       <c r="I67" s="139"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="153" t="s">
-        <v>539</v>
-      </c>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="93" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="C68" s="94" t="s">
         <v>276</v>
@@ -9926,12 +9482,9 @@
       <c r="I68" s="139"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="153" t="s">
-        <v>541</v>
-      </c>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="93" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C69" s="94" t="s">
         <v>277</v>
@@ -9944,15 +9497,12 @@
       <c r="I69" s="139"/>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="153" t="s">
-        <v>543</v>
-      </c>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="93" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="C70" s="94" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="D70" s="140"/>
       <c r="E70" s="140"/>
@@ -9962,15 +9512,12 @@
       <c r="I70" s="139"/>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="153" t="s">
-        <v>546</v>
-      </c>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="93" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="D71" s="140"/>
       <c r="E71" s="140"/>
@@ -9980,12 +9527,9 @@
       <c r="I71" s="139"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="153" t="s">
-        <v>549</v>
-      </c>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="93" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C72" s="94" t="s">
         <v>278</v>
@@ -9998,15 +9542,12 @@
       <c r="I72" s="139"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="153" t="s">
-        <v>551</v>
-      </c>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="93" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="C73" s="94" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="D73" s="140"/>
       <c r="E73" s="140"/>
@@ -10016,15 +9557,12 @@
       <c r="I73" s="139"/>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="153" t="s">
-        <v>554</v>
-      </c>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="93" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="C74" s="94" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="D74" s="140"/>
       <c r="E74" s="140"/>
@@ -10034,12 +9572,9 @@
       <c r="I74" s="139"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="153" t="s">
-        <v>557</v>
-      </c>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="93" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="C75" s="94" t="s">
         <v>281</v>
@@ -10052,12 +9587,9 @@
       <c r="I75" s="139"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="153" t="s">
-        <v>559</v>
-      </c>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="93" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="C76" s="94" t="s">
         <v>282</v>
@@ -10070,12 +9602,9 @@
       <c r="I76" s="139"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="153" t="s">
-        <v>561</v>
-      </c>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="93" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="C77" s="94" t="s">
         <v>340</v>
@@ -10088,15 +9617,12 @@
       <c r="I77" s="139"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="153" t="s">
-        <v>563</v>
-      </c>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="93" t="s">
-        <v>564</v>
+        <v>526</v>
       </c>
       <c r="C78" s="94" t="s">
-        <v>565</v>
+        <v>527</v>
       </c>
       <c r="D78" s="140"/>
       <c r="E78" s="140"/>
@@ -10106,12 +9632,9 @@
       <c r="I78" s="139"/>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="153" t="s">
-        <v>566</v>
-      </c>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="93" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="C79" s="94" t="s">
         <v>284</v>
@@ -10124,10 +9647,7 @@
       <c r="I79" s="139"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="153" t="s">
-        <v>568</v>
-      </c>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="93" t="s">
         <v>285</v>
       </c>
@@ -10142,10 +9662,7 @@
       <c r="I80" s="139"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="153" t="s">
-        <v>569</v>
-      </c>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="93" t="s">
         <v>286</v>
       </c>
@@ -10160,10 +9677,7 @@
       <c r="I81" s="139"/>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="153" t="s">
-        <v>570</v>
-      </c>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="93" t="s">
         <v>283</v>
       </c>
@@ -10178,12 +9692,9 @@
       <c r="I82" s="139"/>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="153" t="s">
-        <v>571</v>
-      </c>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="93" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="C83" s="94" t="s">
         <v>287</v>
@@ -10196,15 +9707,12 @@
       <c r="I83" s="139"/>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="153" t="s">
-        <v>573</v>
-      </c>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="93" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="C84" s="94" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="D84" s="140"/>
       <c r="E84" s="140"/>
@@ -10214,10 +9722,7 @@
       <c r="I84" s="139"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="153" t="s">
-        <v>576</v>
-      </c>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="93" t="s">
         <v>289</v>
       </c>
@@ -10232,12 +9737,9 @@
       <c r="I85" s="139"/>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="153" t="s">
-        <v>577</v>
-      </c>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="93" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
       <c r="C86" s="94" t="s">
         <v>288</v>
@@ -10250,12 +9752,9 @@
       <c r="I86" s="139"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="153" t="s">
-        <v>579</v>
-      </c>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="93" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="C87" s="94" t="s">
         <v>292</v>
@@ -10268,12 +9767,9 @@
       <c r="I87" s="139"/>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="153" t="s">
-        <v>581</v>
-      </c>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="93" t="s">
-        <v>582</v>
+        <v>534</v>
       </c>
       <c r="C88" s="94" t="s">
         <v>290</v>
@@ -10286,12 +9782,9 @@
       <c r="I88" s="139"/>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="153" t="s">
-        <v>583</v>
-      </c>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="93" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="C89" s="94" t="s">
         <v>293</v>
@@ -10304,12 +9797,9 @@
       <c r="I89" s="139"/>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="153" t="s">
-        <v>585</v>
-      </c>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="93" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="C90" s="94" t="s">
         <v>291</v>
@@ -10322,12 +9812,9 @@
       <c r="I90" s="139"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="153" t="s">
-        <v>587</v>
-      </c>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="93" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="C91" s="94" t="s">
         <v>294</v>
@@ -10340,12 +9827,9 @@
       <c r="I91" s="139"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="153" t="s">
-        <v>589</v>
-      </c>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="93" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="C92" s="94" t="s">
         <v>296</v>
@@ -10358,12 +9842,9 @@
       <c r="I92" s="139"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="153" t="s">
-        <v>591</v>
-      </c>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="93" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="C93" s="94" t="s">
         <v>295</v>
@@ -10376,12 +9857,9 @@
       <c r="I93" s="139"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="153" t="s">
-        <v>593</v>
-      </c>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="93" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="C94" s="94" t="s">
         <v>301</v>
@@ -10394,12 +9872,9 @@
       <c r="I94" s="139"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="153" t="s">
-        <v>595</v>
-      </c>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="93" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="C95" s="94" t="s">
         <v>297</v>
@@ -10412,15 +9887,12 @@
       <c r="I95" s="139"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="153" t="s">
-        <v>597</v>
-      </c>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="93" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="C96" s="94" t="s">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D96" s="140"/>
       <c r="E96" s="140"/>
@@ -10430,12 +9902,9 @@
       <c r="I96" s="139"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="153" t="s">
-        <v>600</v>
-      </c>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="93" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="C97" s="94" t="s">
         <v>300</v>
@@ -10448,12 +9917,9 @@
       <c r="I97" s="139"/>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="153" t="s">
-        <v>602</v>
-      </c>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="93" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="C98" s="94" t="s">
         <v>298</v>
@@ -10466,15 +9932,12 @@
       <c r="I98" s="139"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="153" t="s">
-        <v>604</v>
-      </c>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="93" t="s">
-        <v>605</v>
+        <v>546</v>
       </c>
       <c r="C99" s="94" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="D99" s="140"/>
       <c r="E99" s="140"/>
@@ -10484,12 +9947,9 @@
       <c r="I99" s="139"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="153" t="s">
-        <v>607</v>
-      </c>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="93" t="s">
-        <v>608</v>
+        <v>548</v>
       </c>
       <c r="C100" s="94" t="s">
         <v>302</v>
@@ -10502,12 +9962,9 @@
       <c r="I100" s="139"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="153" t="s">
-        <v>609</v>
-      </c>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="93" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
       <c r="C101" s="94" t="s">
         <v>305</v>
@@ -10520,12 +9977,9 @@
       <c r="I101" s="139"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="153" t="s">
-        <v>611</v>
-      </c>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="93" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="C102" s="94" t="s">
         <v>312</v>
@@ -10538,12 +9992,9 @@
       <c r="I102" s="139"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="153" t="s">
-        <v>613</v>
-      </c>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="93" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="C103" s="94" t="s">
         <v>308</v>
@@ -10556,12 +10007,9 @@
       <c r="I103" s="139"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="153" t="s">
-        <v>615</v>
-      </c>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="93" t="s">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="C104" s="94" t="s">
         <v>316</v>
@@ -10574,10 +10022,7 @@
       <c r="I104" s="139"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="153" t="s">
-        <v>617</v>
-      </c>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="93" t="s">
         <v>309</v>
       </c>
@@ -10592,12 +10037,9 @@
       <c r="I105" s="139"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="153" t="s">
-        <v>618</v>
-      </c>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="93" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
       <c r="C106" s="94" t="s">
         <v>313</v>
@@ -10610,10 +10052,7 @@
       <c r="I106" s="139"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="153" t="s">
-        <v>620</v>
-      </c>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="93" t="s">
         <v>314</v>
       </c>
@@ -10628,12 +10067,9 @@
       <c r="I107" s="139"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="153" t="s">
-        <v>621</v>
-      </c>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="93" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
       <c r="C108" s="94" t="s">
         <v>315</v>
@@ -10646,15 +10082,12 @@
       <c r="I108" s="139"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="153" t="s">
-        <v>623</v>
-      </c>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="93" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="C109" s="94" t="s">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="D109" s="140"/>
       <c r="E109" s="140"/>
@@ -10664,10 +10097,7 @@
       <c r="I109" s="139"/>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="153" t="s">
-        <v>626</v>
-      </c>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="93" t="s">
         <v>311</v>
       </c>
@@ -10682,12 +10112,9 @@
       <c r="I110" s="139"/>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="153" t="s">
-        <v>627</v>
-      </c>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="93" t="s">
-        <v>628</v>
+        <v>557</v>
       </c>
       <c r="C111" s="94" t="s">
         <v>307</v>
@@ -10700,12 +10127,9 @@
       <c r="I111" s="139"/>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="153" t="s">
-        <v>629</v>
-      </c>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="93" t="s">
-        <v>630</v>
+        <v>558</v>
       </c>
       <c r="C112" s="94" t="s">
         <v>306</v>
@@ -10718,12 +10142,9 @@
       <c r="I112" s="139"/>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="153" t="s">
-        <v>631</v>
-      </c>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="93" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="C113" s="94" t="s">
         <v>317</v>
@@ -10736,12 +10157,9 @@
       <c r="I113" s="139"/>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="153" t="s">
-        <v>633</v>
-      </c>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="93" t="s">
-        <v>634</v>
+        <v>560</v>
       </c>
       <c r="C114" s="94" t="s">
         <v>310</v>
@@ -10754,10 +10172,7 @@
       <c r="I114" s="139"/>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="153" t="s">
-        <v>635</v>
-      </c>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="93" t="s">
         <v>318</v>
       </c>
@@ -10772,10 +10187,7 @@
       <c r="I115" s="139"/>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="153" t="s">
-        <v>636</v>
-      </c>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="93" t="s">
         <v>321</v>
       </c>
@@ -10790,12 +10202,9 @@
       <c r="I116" s="139"/>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="153" t="s">
-        <v>637</v>
-      </c>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="93" t="s">
-        <v>638</v>
+        <v>561</v>
       </c>
       <c r="C117" s="94" t="s">
         <v>322</v>
@@ -10808,12 +10217,9 @@
       <c r="I117" s="139"/>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="153" t="s">
-        <v>639</v>
-      </c>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="93" t="s">
-        <v>640</v>
+        <v>562</v>
       </c>
       <c r="C118" s="94" t="s">
         <v>320</v>
@@ -10826,10 +10232,7 @@
       <c r="I118" s="139"/>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="153" t="s">
-        <v>641</v>
-      </c>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="93" t="s">
         <v>319</v>
       </c>
@@ -10844,15 +10247,12 @@
       <c r="I119" s="139"/>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="153" t="s">
-        <v>642</v>
-      </c>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="93" t="s">
-        <v>643</v>
+        <v>563</v>
       </c>
       <c r="C120" s="94" t="s">
-        <v>644</v>
+        <v>564</v>
       </c>
       <c r="D120" s="140"/>
       <c r="E120" s="140"/>
@@ -10862,12 +10262,9 @@
       <c r="I120" s="139"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="153" t="s">
-        <v>645</v>
-      </c>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="93" t="s">
-        <v>646</v>
+        <v>565</v>
       </c>
       <c r="C121" s="94" t="s">
         <v>323</v>
@@ -10880,10 +10277,7 @@
       <c r="I121" s="139"/>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="153" t="s">
-        <v>647</v>
-      </c>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="93" t="s">
         <v>327</v>
       </c>
@@ -10898,12 +10292,9 @@
       <c r="I122" s="139"/>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="153" t="s">
-        <v>648</v>
-      </c>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="93" t="s">
-        <v>649</v>
+        <v>566</v>
       </c>
       <c r="C123" s="94" t="s">
         <v>328</v>
@@ -10916,10 +10307,7 @@
       <c r="I123" s="139"/>
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="153" t="s">
-        <v>650</v>
-      </c>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="93" t="s">
         <v>324</v>
       </c>
@@ -10934,12 +10322,9 @@
       <c r="I124" s="139"/>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="153" t="s">
-        <v>651</v>
-      </c>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="93" t="s">
-        <v>652</v>
+        <v>567</v>
       </c>
       <c r="C125" s="94" t="s">
         <v>326</v>
@@ -10952,12 +10337,9 @@
       <c r="I125" s="139"/>
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="153" t="s">
-        <v>653</v>
-      </c>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="93" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="C126" s="94" t="s">
         <v>329</v>
@@ -10970,10 +10352,7 @@
       <c r="I126" s="139"/>
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="153" t="s">
-        <v>655</v>
-      </c>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="93" t="s">
         <v>325</v>
       </c>
@@ -10988,15 +10367,12 @@
       <c r="I127" s="139"/>
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="153" t="s">
-        <v>656</v>
-      </c>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="93" t="s">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="C128" s="94" t="s">
-        <v>658</v>
+        <v>570</v>
       </c>
       <c r="D128" s="140"/>
       <c r="E128" s="140"/>
@@ -11006,12 +10382,9 @@
       <c r="I128" s="139"/>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="153" t="s">
-        <v>659</v>
-      </c>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="93" t="s">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="C129" s="94" t="s">
         <v>330</v>
@@ -11024,10 +10397,7 @@
       <c r="I129" s="139"/>
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="153" t="s">
-        <v>661</v>
-      </c>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="93" t="s">
         <v>332</v>
       </c>
@@ -11042,10 +10412,7 @@
       <c r="I130" s="139"/>
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="153" t="s">
-        <v>662</v>
-      </c>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="93" t="s">
         <v>303</v>
       </c>
@@ -11060,10 +10427,7 @@
       <c r="I131" s="139"/>
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="153" t="s">
-        <v>663</v>
-      </c>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="93" t="s">
         <v>337</v>
       </c>
@@ -11078,12 +10442,9 @@
       <c r="I132" s="139"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="153" t="s">
-        <v>664</v>
-      </c>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="93" t="s">
-        <v>665</v>
+        <v>572</v>
       </c>
       <c r="C133" s="94" t="s">
         <v>333</v>
@@ -11096,10 +10457,7 @@
       <c r="I133" s="139"/>
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="153" t="s">
-        <v>666</v>
-      </c>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="93" t="s">
         <v>338</v>
       </c>
@@ -11114,10 +10472,7 @@
       <c r="I134" s="139"/>
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="153" t="s">
-        <v>667</v>
-      </c>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="93" t="s">
         <v>331</v>
       </c>
@@ -11132,12 +10487,9 @@
       <c r="I135" s="139"/>
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="153" t="s">
-        <v>668</v>
-      </c>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="93" t="s">
-        <v>669</v>
+        <v>573</v>
       </c>
       <c r="C136" s="94" t="s">
         <v>334</v>
@@ -11150,12 +10502,9 @@
       <c r="I136" s="139"/>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="153" t="s">
-        <v>670</v>
-      </c>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="93" t="s">
-        <v>671</v>
+        <v>574</v>
       </c>
       <c r="C137" s="94" t="s">
         <v>336</v>
@@ -11168,12 +10517,9 @@
       <c r="I137" s="139"/>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="153" t="s">
-        <v>672</v>
-      </c>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="93" t="s">
-        <v>673</v>
+        <v>575</v>
       </c>
       <c r="C138" s="94" t="s">
         <v>352</v>
@@ -11186,12 +10532,9 @@
       <c r="I138" s="139"/>
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="153" t="s">
-        <v>674</v>
-      </c>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="93" t="s">
-        <v>675</v>
+        <v>576</v>
       </c>
       <c r="C139" s="94" t="s">
         <v>339</v>
@@ -11204,10 +10547,7 @@
       <c r="I139" s="139"/>
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="153" t="s">
-        <v>676</v>
-      </c>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="93" t="s">
         <v>304</v>
       </c>
@@ -11222,15 +10562,12 @@
       <c r="I140" s="139"/>
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="153" t="s">
-        <v>677</v>
-      </c>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="93" t="s">
         <v>335</v>
       </c>
       <c r="C141" s="94" t="s">
-        <v>678</v>
+        <v>577</v>
       </c>
       <c r="D141" s="140"/>
       <c r="E141" s="140"/>
@@ -11240,12 +10577,9 @@
       <c r="I141" s="139"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="153" t="s">
-        <v>679</v>
-      </c>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="93" t="s">
-        <v>680</v>
+        <v>578</v>
       </c>
       <c r="C142" s="94" t="s">
         <v>273</v>
@@ -11258,15 +10592,12 @@
       <c r="I142" s="139"/>
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="153" t="s">
-        <v>681</v>
-      </c>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="93" t="s">
-        <v>682</v>
+        <v>579</v>
       </c>
       <c r="C143" s="94" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="D143" s="140"/>
       <c r="E143" s="140"/>
@@ -11276,12 +10607,9 @@
       <c r="I143" s="139"/>
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="153" t="s">
-        <v>684</v>
-      </c>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="93" t="s">
-        <v>685</v>
+        <v>581</v>
       </c>
       <c r="C144" s="94" t="s">
         <v>342</v>
@@ -11294,15 +10622,12 @@
       <c r="I144" s="139"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="153" t="s">
-        <v>686</v>
-      </c>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="93" t="s">
-        <v>687</v>
+        <v>582</v>
       </c>
       <c r="C145" s="94" t="s">
-        <v>688</v>
+        <v>583</v>
       </c>
       <c r="D145" s="140"/>
       <c r="E145" s="140"/>
@@ -11312,12 +10637,9 @@
       <c r="I145" s="139"/>
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="153" t="s">
-        <v>689</v>
-      </c>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="93" t="s">
-        <v>690</v>
+        <v>584</v>
       </c>
       <c r="C146" s="94" t="s">
         <v>341</v>
@@ -11330,12 +10652,9 @@
       <c r="I146" s="139"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="153" t="s">
-        <v>691</v>
-      </c>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="93" t="s">
-        <v>692</v>
+        <v>585</v>
       </c>
       <c r="C147" s="94" t="s">
         <v>346</v>
@@ -11348,12 +10667,9 @@
       <c r="I147" s="139"/>
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="153" t="s">
-        <v>693</v>
-      </c>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="93" t="s">
-        <v>694</v>
+        <v>586</v>
       </c>
       <c r="C148" s="94" t="s">
         <v>344</v>
@@ -11366,12 +10682,9 @@
       <c r="I148" s="139"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="153" t="s">
-        <v>695</v>
-      </c>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="93" t="s">
-        <v>696</v>
+        <v>587</v>
       </c>
       <c r="C149" s="94" t="s">
         <v>345</v>
@@ -11384,10 +10697,7 @@
       <c r="I149" s="139"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="153" t="s">
-        <v>697</v>
-      </c>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="93" t="s">
         <v>343</v>
       </c>
@@ -11402,10 +10712,7 @@
       <c r="I150" s="139"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="153" t="s">
-        <v>698</v>
-      </c>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="93" t="s">
         <v>348</v>
       </c>
@@ -11420,12 +10727,9 @@
       <c r="I151" s="139"/>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="153" t="s">
-        <v>699</v>
-      </c>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="93" t="s">
-        <v>700</v>
+        <v>588</v>
       </c>
       <c r="C152" s="94" t="s">
         <v>347</v>
@@ -11438,15 +10742,12 @@
       <c r="I152" s="139"/>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="153" t="s">
-        <v>701</v>
-      </c>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="93" t="s">
-        <v>702</v>
+        <v>589</v>
       </c>
       <c r="C153" s="94" t="s">
-        <v>703</v>
+        <v>590</v>
       </c>
       <c r="D153" s="140"/>
       <c r="E153" s="140"/>
@@ -11456,15 +10757,12 @@
       <c r="I153" s="139"/>
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="153" t="s">
-        <v>704</v>
-      </c>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="93" t="s">
         <v>40</v>
       </c>
       <c r="C154" s="94" t="s">
-        <v>705</v>
+        <v>591</v>
       </c>
       <c r="D154" s="140"/>
       <c r="E154" s="140"/>
@@ -11474,15 +10772,12 @@
       <c r="I154" s="139"/>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="153" t="s">
-        <v>706</v>
-      </c>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="93" t="s">
-        <v>707</v>
+        <v>592</v>
       </c>
       <c r="C155" s="94" t="s">
-        <v>708</v>
+        <v>593</v>
       </c>
       <c r="D155" s="140"/>
       <c r="E155" s="140"/>
@@ -11492,12 +10787,9 @@
       <c r="I155" s="139"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="153" t="s">
-        <v>709</v>
-      </c>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="93" t="s">
-        <v>710</v>
+        <v>594</v>
       </c>
       <c r="C156" s="94" t="s">
         <v>349</v>
@@ -11510,10 +10802,7 @@
       <c r="I156" s="139"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="153" t="s">
-        <v>711</v>
-      </c>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="93" t="s">
         <v>350</v>
       </c>
@@ -11528,12 +10817,9 @@
       <c r="I157" s="139"/>
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="153" t="s">
-        <v>712</v>
-      </c>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="93" t="s">
-        <v>713</v>
+        <v>595</v>
       </c>
       <c r="C158" s="94" t="s">
         <v>351</v>
@@ -11546,10 +10832,7 @@
       <c r="I158" s="139"/>
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="153" t="s">
-        <v>714</v>
-      </c>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="93" t="s">
         <v>353</v>
       </c>
@@ -11564,10 +10847,7 @@
       <c r="I159" s="139"/>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="153" t="s">
-        <v>715</v>
-      </c>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="93" t="s">
         <v>354</v>
       </c>
@@ -11689,7 +10969,7 @@
   </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -12049,18 +11329,18 @@
     </row>
     <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="E6" s="194" t="s">
+      <c r="E6" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194" t="s">
+      <c r="F6" s="195"/>
+      <c r="G6" s="195" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194" t="s">
+      <c r="H6" s="195"/>
+      <c r="I6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="194"/>
+      <c r="J6" s="195"/>
     </row>
     <row r="7" spans="1:11" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
@@ -12085,18 +11365,18 @@
     </row>
     <row r="8" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176" t="s">
+      <c r="F8" s="175"/>
+      <c r="G8" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="157"/>
-      <c r="I8" s="193" t="s">
+      <c r="H8" s="158"/>
+      <c r="I8" s="194" t="s">
         <v>215</v>
       </c>
-      <c r="J8" s="193"/>
+      <c r="J8" s="194"/>
     </row>
     <row r="9" spans="1:11" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -12136,16 +11416,16 @@
       <c r="F10" s="141">
         <v>0</v>
       </c>
-      <c r="G10" s="196">
+      <c r="G10" s="154">
         <v>0</v>
       </c>
-      <c r="H10" s="196">
+      <c r="H10" s="154">
         <v>0</v>
       </c>
-      <c r="I10" s="196">
+      <c r="I10" s="154">
         <v>0</v>
       </c>
-      <c r="J10" s="196">
+      <c r="J10" s="154">
         <v>0</v>
       </c>
       <c r="K10" s="41"/>
@@ -12167,16 +11447,16 @@
       <c r="F11" s="141">
         <v>0</v>
       </c>
-      <c r="G11" s="196">
+      <c r="G11" s="154">
         <v>0</v>
       </c>
-      <c r="H11" s="196">
+      <c r="H11" s="154">
         <v>0</v>
       </c>
-      <c r="I11" s="196">
+      <c r="I11" s="154">
         <v>0</v>
       </c>
-      <c r="J11" s="196">
+      <c r="J11" s="154">
         <v>0</v>
       </c>
       <c r="K11" s="41"/>
@@ -12197,16 +11477,16 @@
       <c r="F12" s="141">
         <v>0</v>
       </c>
-      <c r="G12" s="196">
+      <c r="G12" s="154">
         <v>0</v>
       </c>
-      <c r="H12" s="196">
+      <c r="H12" s="154">
         <v>0</v>
       </c>
-      <c r="I12" s="196">
+      <c r="I12" s="154">
         <v>0</v>
       </c>
-      <c r="J12" s="196">
+      <c r="J12" s="154">
         <v>0</v>
       </c>
       <c r="K12" s="11"/>
@@ -12227,16 +11507,16 @@
       <c r="F13" s="141">
         <v>0</v>
       </c>
-      <c r="G13" s="196">
+      <c r="G13" s="154">
         <v>0</v>
       </c>
-      <c r="H13" s="196">
+      <c r="H13" s="154">
         <v>0</v>
       </c>
-      <c r="I13" s="196">
+      <c r="I13" s="154">
         <v>0</v>
       </c>
-      <c r="J13" s="196">
+      <c r="J13" s="154">
         <v>0</v>
       </c>
       <c r="K13" s="11"/>
@@ -12257,16 +11537,16 @@
       <c r="F14" s="141">
         <v>0</v>
       </c>
-      <c r="G14" s="196">
+      <c r="G14" s="154">
         <v>0</v>
       </c>
-      <c r="H14" s="196">
+      <c r="H14" s="154">
         <v>0</v>
       </c>
-      <c r="I14" s="196">
+      <c r="I14" s="154">
         <v>0</v>
       </c>
-      <c r="J14" s="196">
+      <c r="J14" s="154">
         <v>0</v>
       </c>
       <c r="K14" s="11"/>
@@ -12288,16 +11568,16 @@
       <c r="F15" s="141">
         <v>0</v>
       </c>
-      <c r="G15" s="196">
+      <c r="G15" s="154">
         <v>0</v>
       </c>
-      <c r="H15" s="196">
+      <c r="H15" s="154">
         <v>0</v>
       </c>
-      <c r="I15" s="196">
+      <c r="I15" s="154">
         <v>0</v>
       </c>
-      <c r="J15" s="196">
+      <c r="J15" s="154">
         <v>0</v>
       </c>
       <c r="K15" s="41"/>
@@ -12319,16 +11599,16 @@
       <c r="F16" s="141">
         <v>0</v>
       </c>
-      <c r="G16" s="196">
+      <c r="G16" s="154">
         <v>0</v>
       </c>
-      <c r="H16" s="196">
+      <c r="H16" s="154">
         <v>0</v>
       </c>
-      <c r="I16" s="196">
+      <c r="I16" s="154">
         <v>0</v>
       </c>
-      <c r="J16" s="196">
+      <c r="J16" s="154">
         <v>0</v>
       </c>
       <c r="K16" s="11"/>
@@ -12349,16 +11629,16 @@
       <c r="F17" s="141">
         <v>0</v>
       </c>
-      <c r="G17" s="196">
+      <c r="G17" s="154">
         <v>0</v>
       </c>
-      <c r="H17" s="196">
+      <c r="H17" s="154">
         <v>0</v>
       </c>
-      <c r="I17" s="196">
+      <c r="I17" s="154">
         <v>0</v>
       </c>
-      <c r="J17" s="196">
+      <c r="J17" s="154">
         <v>0</v>
       </c>
       <c r="K17" s="11"/>
@@ -12380,16 +11660,16 @@
       <c r="F18" s="141">
         <v>0</v>
       </c>
-      <c r="G18" s="196">
+      <c r="G18" s="154">
         <v>0</v>
       </c>
-      <c r="H18" s="196">
+      <c r="H18" s="154">
         <v>0</v>
       </c>
-      <c r="I18" s="196">
+      <c r="I18" s="154">
         <v>0</v>
       </c>
-      <c r="J18" s="196">
+      <c r="J18" s="154">
         <v>0</v>
       </c>
       <c r="K18" s="11"/>
@@ -12411,16 +11691,16 @@
       <c r="F19" s="141">
         <v>0</v>
       </c>
-      <c r="G19" s="196">
+      <c r="G19" s="154">
         <v>0</v>
       </c>
-      <c r="H19" s="196">
+      <c r="H19" s="154">
         <v>0</v>
       </c>
-      <c r="I19" s="196">
+      <c r="I19" s="154">
         <v>0</v>
       </c>
-      <c r="J19" s="196">
+      <c r="J19" s="154">
         <v>0</v>
       </c>
       <c r="K19" s="11"/>
@@ -12441,16 +11721,16 @@
       <c r="F20" s="141">
         <v>0</v>
       </c>
-      <c r="G20" s="196">
+      <c r="G20" s="154">
         <v>0</v>
       </c>
-      <c r="H20" s="196">
+      <c r="H20" s="154">
         <v>0</v>
       </c>
-      <c r="I20" s="196">
+      <c r="I20" s="154">
         <v>0</v>
       </c>
-      <c r="J20" s="196">
+      <c r="J20" s="154">
         <v>0</v>
       </c>
       <c r="K20" s="11"/>
@@ -12471,16 +11751,16 @@
       <c r="F21" s="141">
         <v>0</v>
       </c>
-      <c r="G21" s="196">
+      <c r="G21" s="154">
         <v>0</v>
       </c>
-      <c r="H21" s="196">
+      <c r="H21" s="154">
         <v>0</v>
       </c>
-      <c r="I21" s="196">
+      <c r="I21" s="154">
         <v>0</v>
       </c>
-      <c r="J21" s="196">
+      <c r="J21" s="154">
         <v>0</v>
       </c>
       <c r="K21" s="11"/>
@@ -12501,16 +11781,16 @@
       <c r="F22" s="141">
         <v>0</v>
       </c>
-      <c r="G22" s="196">
+      <c r="G22" s="154">
         <v>0</v>
       </c>
-      <c r="H22" s="196">
+      <c r="H22" s="154">
         <v>0</v>
       </c>
-      <c r="I22" s="196">
+      <c r="I22" s="154">
         <v>0</v>
       </c>
-      <c r="J22" s="196">
+      <c r="J22" s="154">
         <v>0</v>
       </c>
       <c r="K22" s="11"/>
@@ -12532,16 +11812,16 @@
       <c r="F23" s="141">
         <v>0</v>
       </c>
-      <c r="G23" s="196">
+      <c r="G23" s="154">
         <v>0</v>
       </c>
-      <c r="H23" s="196">
+      <c r="H23" s="154">
         <v>0</v>
       </c>
-      <c r="I23" s="196">
+      <c r="I23" s="154">
         <v>0</v>
       </c>
-      <c r="J23" s="196">
+      <c r="J23" s="154">
         <v>0</v>
       </c>
       <c r="K23" s="11"/>
@@ -12562,16 +11842,16 @@
       <c r="F24" s="141">
         <v>0</v>
       </c>
-      <c r="G24" s="196">
+      <c r="G24" s="154">
         <v>0</v>
       </c>
-      <c r="H24" s="196">
+      <c r="H24" s="154">
         <v>0</v>
       </c>
-      <c r="I24" s="196">
+      <c r="I24" s="154">
         <v>0</v>
       </c>
-      <c r="J24" s="196">
+      <c r="J24" s="154">
         <v>0</v>
       </c>
       <c r="K24" s="11"/>
@@ -12788,15 +12068,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="142"/>
       <c r="B7" s="143"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="144" t="s">

--- a/Example/AR1 - Q1.2023.xlsx
+++ b/Example/AR1 - Q1.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC248CB2-EDB2-423B-88CF-F6C7EB2237BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927E074-636C-4E07-8CCE-140DA3486E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">ST.06!$B$1:$I$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">ST.07!$A$1:$J$29</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="390">
   <si>
     <t>Karty płatnicze</t>
   </si>
@@ -822,312 +822,6 @@
   </si>
   <si>
     <t>Transakcje sprzedaży</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palestine, State of</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
   </si>
   <si>
     <t>Sales transactions</t>
@@ -1557,326 +1251,14 @@
     <t>SE</t>
   </si>
   <si>
-    <t>Afganistan</t>
-  </si>
-  <si>
-    <t>Algieria</t>
-  </si>
-  <si>
-    <t>Andora</t>
-  </si>
-  <si>
-    <t>Angola łącznie z Kabinda</t>
-  </si>
-  <si>
-    <t>Argentyna</t>
-  </si>
-  <si>
-    <t>Azerbejdżan</t>
-  </si>
-  <si>
-    <t>Bahamy</t>
-  </si>
-  <si>
-    <t>Bahamas (the)</t>
-  </si>
-  <si>
-    <t>Bahrajn</t>
-  </si>
-  <si>
-    <t>Bangladesz</t>
-  </si>
-  <si>
-    <t>Białoruś</t>
-  </si>
-  <si>
-    <t>Bermudy</t>
-  </si>
-  <si>
-    <t>Boliwia</t>
-  </si>
-  <si>
-    <t>Bośnia i Hercegowina</t>
-  </si>
-  <si>
-    <t>Brazylia</t>
-  </si>
-  <si>
-    <t>Wyspy Zielonego Przylądka</t>
-  </si>
-  <si>
-    <t>Kambodża (Kampucza)</t>
-  </si>
-  <si>
-    <t>Kamerun</t>
-  </si>
-  <si>
-    <t>Kanada</t>
-  </si>
-  <si>
-    <t>Kajmany</t>
-  </si>
-  <si>
-    <t>Cayman Islands (the)</t>
-  </si>
-  <si>
-    <t>Chiny</t>
-  </si>
-  <si>
-    <t>Kolumbia</t>
-  </si>
-  <si>
-    <t>Kongo, Republika Demokratyczna</t>
-  </si>
-  <si>
-    <t>Congo (the Democratic Republic of the)</t>
-  </si>
-  <si>
-    <t>Kongo</t>
-  </si>
-  <si>
-    <t>Congo (the)</t>
-  </si>
-  <si>
-    <t>Kostaryka</t>
-  </si>
-  <si>
-    <t>Wybrzeże Kości Słoniowej</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Republika Dominikany</t>
-  </si>
-  <si>
-    <t>Dominican Republic (the)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ekwador </t>
-  </si>
-  <si>
-    <t>Egipt</t>
-  </si>
-  <si>
-    <t>Salwador</t>
-  </si>
-  <si>
-    <t>Pozostałe kraje</t>
-  </si>
-  <si>
-    <t>Extra UE not allocated</t>
-  </si>
-  <si>
-    <t>Gruzja</t>
-  </si>
-  <si>
-    <t>Gwatemala</t>
-  </si>
-  <si>
-    <t>Watykan</t>
-  </si>
-  <si>
-    <t>Holy See (the)</t>
-  </si>
-  <si>
-    <t>Hongkong</t>
-  </si>
-  <si>
-    <t>Indie</t>
-  </si>
-  <si>
-    <t>Indonezja</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
-    <t>Izrael</t>
-  </si>
-  <si>
-    <t>Jamajka</t>
-  </si>
-  <si>
-    <t>Japonia</t>
-  </si>
-  <si>
-    <t>Jordania</t>
-  </si>
-  <si>
-    <t>Kazachstan</t>
-  </si>
-  <si>
-    <t>Kenia</t>
-  </si>
-  <si>
-    <t>Republika Korei (Korea Południowa)</t>
-  </si>
-  <si>
-    <t>Korea (the Republic of)</t>
-  </si>
-  <si>
-    <t>Kuwejt</t>
-  </si>
-  <si>
-    <t>Kirgistan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic (the)</t>
-  </si>
-  <si>
-    <t>Liban</t>
-  </si>
-  <si>
-    <t>Libia</t>
-  </si>
-  <si>
-    <t>Makao</t>
-  </si>
-  <si>
-    <t>Madagaskar</t>
-  </si>
-  <si>
-    <t>Malezja</t>
-  </si>
-  <si>
-    <t>Mauretania</t>
-  </si>
-  <si>
-    <t>Meksyk</t>
-  </si>
-  <si>
-    <t>Mołdowa</t>
-  </si>
-  <si>
-    <t>Moldova (the Republic of)</t>
-  </si>
-  <si>
-    <t>Czarnogóra</t>
-  </si>
-  <si>
-    <t>Maroko</t>
-  </si>
-  <si>
-    <t>Mozambik</t>
-  </si>
-  <si>
-    <t>Myanmar (Birma)</t>
-  </si>
-  <si>
-    <t>Nowa Zelandia</t>
-  </si>
-  <si>
-    <t>Nikaragua</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman </t>
-  </si>
-  <si>
-    <t>Palestyna</t>
-  </si>
-  <si>
-    <t>Papua Nowa Gwinea</t>
-  </si>
-  <si>
-    <t>Paragwaj</t>
-  </si>
-  <si>
-    <t>Filipiny</t>
-  </si>
-  <si>
-    <t>Philippines (the)</t>
-  </si>
-  <si>
-    <t>Katar</t>
-  </si>
-  <si>
-    <t>Arabia Saudyjska</t>
-  </si>
-  <si>
-    <t>Seszele</t>
-  </si>
-  <si>
-    <t>Singapur</t>
-  </si>
-  <si>
-    <t>Republika Południowej Afryki</t>
-  </si>
-  <si>
-    <t>Sudan Południowy</t>
-  </si>
-  <si>
-    <t>Sudan (the)</t>
-  </si>
-  <si>
-    <t>Szwajcaria</t>
-  </si>
-  <si>
-    <t>Tajwan</t>
-  </si>
-  <si>
-    <t>Taiwan (Province of China)</t>
-  </si>
-  <si>
-    <t>Tadżykistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tanzania, the United Republic of</t>
-  </si>
-  <si>
-    <t>Tajlandia</t>
-  </si>
-  <si>
-    <t>Trynidad i Tobago</t>
-  </si>
-  <si>
-    <t>Tunezja</t>
-  </si>
-  <si>
-    <t>Turcja</t>
-  </si>
-  <si>
-    <t>Ukraina</t>
-  </si>
-  <si>
-    <t>Zjednoczone Emiraty Arabskie</t>
-  </si>
-  <si>
-    <t>United Arab Emirates (the)</t>
-  </si>
-  <si>
-    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
-  </si>
-  <si>
-    <t>Stany Zjednoczone Ameryki Północnej łącznie z Portoryko i Navassa</t>
-  </si>
-  <si>
-    <t>United States of America (the)</t>
-  </si>
-  <si>
-    <t>Urugwaj</t>
-  </si>
-  <si>
-    <t>Wietnam</t>
+    <t>NEXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2051,6 +1433,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -2352,7 +1741,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2886,6 +2275,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hiperłącze 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3665,7 +3055,7 @@
   <sheetData>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="66" t="s">
-        <v>359</v>
+        <v>257</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -3676,7 +3066,7 @@
     </row>
     <row r="3" spans="1:8" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="67" t="s">
-        <v>360</v>
+        <v>258</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -3721,7 +3111,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="D7" s="158" t="s">
         <v>179</v>
@@ -3738,11 +3128,11 @@
       </c>
       <c r="B8" s="156"/>
       <c r="C8" s="74" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="D8" s="158"/>
       <c r="E8" s="69" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F8" s="136"/>
       <c r="G8" s="136"/>
@@ -3753,11 +3143,11 @@
       </c>
       <c r="B9" s="156"/>
       <c r="C9" s="74" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="D9" s="158"/>
       <c r="E9" s="69" t="s">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="F9" s="136"/>
       <c r="G9" s="136"/>
@@ -3783,11 +3173,11 @@
       </c>
       <c r="B11" s="157"/>
       <c r="C11" s="74" t="s">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="D11" s="158"/>
       <c r="E11" s="69" t="s">
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="F11" s="136"/>
       <c r="G11" s="136"/>
@@ -3800,7 +3190,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>362</v>
+        <v>260</v>
       </c>
       <c r="D12" s="158" t="s">
         <v>180</v>
@@ -3817,11 +3207,11 @@
       </c>
       <c r="B13" s="159"/>
       <c r="C13" s="74" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="D13" s="158"/>
       <c r="E13" s="69" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F13" s="136"/>
       <c r="G13" s="136"/>
@@ -3832,11 +3222,11 @@
       </c>
       <c r="B14" s="159"/>
       <c r="C14" s="74" t="s">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="D14" s="158"/>
       <c r="E14" s="69" t="s">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="F14" s="136"/>
       <c r="G14" s="136"/>
@@ -3864,7 +3254,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="D16" s="158" t="s">
         <v>181</v>
@@ -3881,11 +3271,11 @@
       </c>
       <c r="B17" s="160"/>
       <c r="C17" s="74" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="D17" s="158"/>
       <c r="E17" s="69" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="F17" s="136"/>
       <c r="G17" s="136"/>
@@ -3896,11 +3286,11 @@
       </c>
       <c r="B18" s="160"/>
       <c r="C18" s="74" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="D18" s="158"/>
       <c r="E18" s="69" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F18" s="136"/>
       <c r="G18" s="136"/>
@@ -3911,11 +3301,11 @@
       </c>
       <c r="B19" s="160"/>
       <c r="C19" s="74" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="D19" s="158"/>
       <c r="E19" s="69" t="s">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="136"/>
@@ -3926,11 +3316,11 @@
       </c>
       <c r="B20" s="160"/>
       <c r="C20" s="74" t="s">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="D20" s="158"/>
       <c r="E20" s="69" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="F20" s="136"/>
       <c r="G20" s="136"/>
@@ -3941,11 +3331,11 @@
       </c>
       <c r="B21" s="160"/>
       <c r="C21" s="74" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="D21" s="158"/>
       <c r="E21" s="69" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="F21" s="136"/>
       <c r="G21" s="136"/>
@@ -3956,11 +3346,11 @@
       </c>
       <c r="B22" s="160"/>
       <c r="C22" s="74" t="s">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="D22" s="158"/>
       <c r="E22" s="69" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="F22" s="136"/>
       <c r="G22" s="136"/>
@@ -3971,11 +3361,11 @@
       </c>
       <c r="B23" s="160"/>
       <c r="C23" s="74" t="s">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="D23" s="158"/>
       <c r="E23" s="69" t="s">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="F23" s="136"/>
       <c r="G23" s="136"/>
@@ -3986,11 +3376,11 @@
       </c>
       <c r="B24" s="160"/>
       <c r="C24" s="74" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="D24" s="158"/>
       <c r="E24" s="69" t="s">
-        <v>372</v>
+        <v>270</v>
       </c>
       <c r="F24" s="136"/>
       <c r="G24" s="136"/>
@@ -4603,14 +3993,14 @@
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="18" t="s">
-        <v>385</v>
+        <v>283</v>
       </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="62"/>
       <c r="B3" s="80" t="s">
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -4712,10 +4102,10 @@
         <v>94</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>186</v>
@@ -4732,11 +4122,11 @@
       </c>
       <c r="B11" s="162"/>
       <c r="C11" s="61" t="s">
-        <v>392</v>
+        <v>290</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="68" t="s">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -4747,7 +4137,7 @@
       </c>
       <c r="B12" s="162"/>
       <c r="C12" s="61" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="D12" s="83"/>
       <c r="E12" s="68" t="s">
@@ -4762,11 +4152,11 @@
       </c>
       <c r="B13" s="162"/>
       <c r="C13" s="61" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="68" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -4777,11 +4167,11 @@
       </c>
       <c r="B14" s="163"/>
       <c r="C14" s="55" t="s">
-        <v>394</v>
+        <v>292</v>
       </c>
       <c r="D14" s="82"/>
       <c r="E14" s="68" t="s">
-        <v>391</v>
+        <v>289</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -5318,7 +4708,7 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
       <c r="B2" s="19" t="s">
-        <v>395</v>
+        <v>293</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -5330,7 +4720,7 @@
     <row r="3" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
       <c r="B3" s="90" t="s">
-        <v>396</v>
+        <v>294</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -5386,7 +4776,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>397</v>
+        <v>295</v>
       </c>
       <c r="D8" s="168" t="s">
         <v>179</v>
@@ -5403,11 +4793,11 @@
       </c>
       <c r="B9" s="156"/>
       <c r="C9" s="91" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="D9" s="169"/>
       <c r="E9" s="69" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F9" s="136"/>
       <c r="G9" s="136"/>
@@ -5433,11 +4823,11 @@
       </c>
       <c r="B11" s="156"/>
       <c r="C11" s="92" t="s">
-        <v>399</v>
+        <v>297</v>
       </c>
       <c r="D11" s="169"/>
       <c r="E11" s="69" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="F11" s="136"/>
       <c r="G11" s="136"/>
@@ -5448,11 +4838,11 @@
       </c>
       <c r="B12" s="157"/>
       <c r="C12" s="91" t="s">
-        <v>402</v>
+        <v>300</v>
       </c>
       <c r="D12" s="170"/>
       <c r="E12" s="69" t="s">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="F12" s="137"/>
       <c r="G12" s="137"/>
@@ -5482,11 +4872,11 @@
       </c>
       <c r="B14" s="156"/>
       <c r="C14" s="91" t="s">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="D14" s="169"/>
       <c r="E14" s="69" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F14" s="136"/>
       <c r="G14" s="136"/>
@@ -5497,7 +4887,7 @@
       </c>
       <c r="B15" s="156"/>
       <c r="C15" s="92" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="D15" s="169"/>
       <c r="E15" s="69" t="s">
@@ -5512,11 +4902,11 @@
       </c>
       <c r="B16" s="157"/>
       <c r="C16" s="92" t="s">
-        <v>399</v>
+        <v>297</v>
       </c>
       <c r="D16" s="170"/>
       <c r="E16" s="69" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="F16" s="136"/>
       <c r="G16" s="136"/>
@@ -5546,11 +4936,11 @@
       </c>
       <c r="B18" s="157"/>
       <c r="C18" s="91" t="s">
-        <v>400</v>
+        <v>298</v>
       </c>
       <c r="D18" s="170"/>
       <c r="E18" s="69" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="F18" s="136"/>
       <c r="G18" s="136"/>
@@ -6001,7 +5391,7 @@
   <sheetData>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -6014,7 +5404,7 @@
     </row>
     <row r="3" spans="1:36" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="90" t="s">
-        <v>412</v>
+        <v>310</v>
       </c>
       <c r="C3" s="64"/>
       <c r="E3" s="64"/>
@@ -6079,15 +5469,15 @@
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="103" t="s">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="101"/>
       <c r="G6" s="171" t="s">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="H6" s="103" t="s">
-        <v>388</v>
+        <v>286</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -6098,18 +5488,18 @@
       <c r="C7" s="64"/>
       <c r="D7" s="102"/>
       <c r="E7" s="109" t="s">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="F7" s="109" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="G7" s="172"/>
       <c r="H7" s="102"/>
       <c r="I7" s="109" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="J7" s="109" t="s">
-        <v>409</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="56" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6136,18 +5526,18 @@
       <c r="C9" s="64"/>
       <c r="D9" s="107"/>
       <c r="E9" s="108" t="s">
-        <v>410</v>
+        <v>308</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
       <c r="G9" s="174"/>
       <c r="H9" s="107"/>
       <c r="I9" s="108" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
       <c r="J9" s="108" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7460,7 +6850,7 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7468,7 +6858,7 @@
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="116" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
@@ -7531,19 +6921,19 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="178" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="K7" s="178"/>
       <c r="L7" s="178" t="s">
-        <v>427</v>
+        <v>325</v>
       </c>
       <c r="M7" s="178"/>
       <c r="N7" s="178" t="s">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="O7" s="178"/>
       <c r="P7" s="178" t="s">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="178"/>
     </row>
@@ -7684,7 +7074,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="175" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="G12" s="179" t="s">
         <v>205</v>
@@ -7713,13 +7103,13 @@
       <c r="C13" s="189"/>
       <c r="D13" s="189"/>
       <c r="E13" s="74" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="F13" s="175"/>
       <c r="G13" s="180"/>
       <c r="H13" s="175"/>
       <c r="I13" s="84" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="J13" s="150"/>
       <c r="K13" s="150"/>
@@ -7821,13 +7211,13 @@
       <c r="C17" s="189"/>
       <c r="D17" s="189"/>
       <c r="E17" s="74" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
       <c r="F17" s="175"/>
       <c r="G17" s="180"/>
       <c r="H17" s="175"/>
       <c r="I17" s="84" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="J17" s="150"/>
       <c r="K17" s="150"/>
@@ -7905,7 +7295,7 @@
       </c>
       <c r="F20" s="175"/>
       <c r="G20" s="182" t="s">
-        <v>421</v>
+        <v>319</v>
       </c>
       <c r="H20" s="183"/>
       <c r="I20" s="119" t="s">
@@ -7923,19 +7313,19 @@
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="88" t="s">
-        <v>424</v>
+        <v>322</v>
       </c>
       <c r="B21" s="188"/>
       <c r="C21" s="189"/>
       <c r="D21" s="189"/>
       <c r="E21" s="74" t="s">
-        <v>425</v>
+        <v>323</v>
       </c>
       <c r="F21" s="175"/>
       <c r="G21" s="184"/>
       <c r="H21" s="185"/>
       <c r="I21" s="69" t="s">
-        <v>426</v>
+        <v>324</v>
       </c>
       <c r="J21" s="150"/>
       <c r="K21" s="150"/>
@@ -7961,7 +7351,7 @@
       </c>
       <c r="F22" s="175"/>
       <c r="G22" s="182" t="s">
-        <v>422</v>
+        <v>320</v>
       </c>
       <c r="H22" s="183"/>
       <c r="I22" s="84" t="s">
@@ -8011,13 +7401,13 @@
       <c r="C24" s="189"/>
       <c r="D24" s="189"/>
       <c r="E24" s="74" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="F24" s="175"/>
       <c r="G24" s="184"/>
       <c r="H24" s="185"/>
       <c r="I24" s="69" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
       <c r="J24" s="150"/>
       <c r="K24" s="150"/>
@@ -8043,7 +7433,7 @@
       </c>
       <c r="F25" s="175"/>
       <c r="G25" s="182" t="s">
-        <v>423</v>
+        <v>321</v>
       </c>
       <c r="H25" s="183"/>
       <c r="I25" s="69" t="s">
@@ -8093,13 +7483,13 @@
       <c r="C27" s="189"/>
       <c r="D27" s="189"/>
       <c r="E27" s="74" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="F27" s="175"/>
       <c r="G27" s="184"/>
       <c r="H27" s="185"/>
       <c r="I27" s="69" t="s">
-        <v>356</v>
+        <v>254</v>
       </c>
       <c r="J27" s="150"/>
       <c r="K27" s="150"/>
@@ -8116,7 +7506,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="188" t="s">
-        <v>417</v>
+        <v>315</v>
       </c>
       <c r="C28" s="189" t="s">
         <v>57</v>
@@ -8128,7 +7518,7 @@
         <v>43</v>
       </c>
       <c r="F28" s="175" t="s">
-        <v>358</v>
+        <v>256</v>
       </c>
       <c r="G28" s="179" t="s">
         <v>205</v>
@@ -8384,10 +7774,10 @@
   <sheetPr>
     <tabColor rgb="FF007A70"/>
   </sheetPr>
-  <dimension ref="A2:J168"/>
+  <dimension ref="A2:J517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C512" sqref="C512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8403,7 +7793,7 @@
   <sheetData>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="27" t="s">
-        <v>430</v>
+        <v>328</v>
       </c>
       <c r="D2" s="114"/>
       <c r="E2" s="114"/>
@@ -8415,7 +7805,7 @@
     </row>
     <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="120" t="s">
-        <v>431</v>
+        <v>329</v>
       </c>
       <c r="D3" s="114"/>
       <c r="E3" s="114"/>
@@ -8493,7 +7883,7 @@
       <c r="B9" s="86"/>
       <c r="C9" s="86"/>
       <c r="D9" s="193" t="s">
-        <v>432</v>
+        <v>330</v>
       </c>
       <c r="E9" s="193"/>
       <c r="F9" s="193"/>
@@ -8527,7 +7917,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="153" t="s">
-        <v>462</v>
+        <v>360</v>
       </c>
       <c r="B11" s="93" t="s">
         <v>16</v>
@@ -8545,7 +7935,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="153" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="B12" s="93" t="s">
         <v>17</v>
@@ -8563,7 +7953,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="153" t="s">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="B13" s="93" t="s">
         <v>18</v>
@@ -8581,7 +7971,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="153" t="s">
-        <v>465</v>
+        <v>363</v>
       </c>
       <c r="B14" s="93" t="s">
         <v>19</v>
@@ -8599,7 +7989,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="153" t="s">
-        <v>466</v>
+        <v>364</v>
       </c>
       <c r="B15" s="93" t="s">
         <v>20</v>
@@ -8617,7 +8007,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="153" t="s">
-        <v>467</v>
+        <v>365</v>
       </c>
       <c r="B16" s="93" t="s">
         <v>21</v>
@@ -8635,7 +8025,7 @@
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="153" t="s">
-        <v>468</v>
+        <v>366</v>
       </c>
       <c r="B17" s="93" t="s">
         <v>22</v>
@@ -8653,7 +8043,7 @@
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="153" t="s">
-        <v>469</v>
+        <v>367</v>
       </c>
       <c r="B18" s="93" t="s">
         <v>23</v>
@@ -8671,7 +8061,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="153" t="s">
-        <v>470</v>
+        <v>368</v>
       </c>
       <c r="B19" s="93" t="s">
         <v>24</v>
@@ -8689,7 +8079,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="153" t="s">
-        <v>471</v>
+        <v>369</v>
       </c>
       <c r="B20" s="93" t="s">
         <v>25</v>
@@ -8707,7 +8097,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="153" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="B21" s="93" t="s">
         <v>26</v>
@@ -8725,7 +8115,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="153" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="B22" s="93" t="s">
         <v>27</v>
@@ -8743,7 +8133,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="153" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="B23" s="93" t="s">
         <v>39</v>
@@ -8761,7 +8151,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="153" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="B24" s="93" t="s">
         <v>245</v>
@@ -8779,7 +8169,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="153" t="s">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="B25" s="93" t="s">
         <v>28</v>
@@ -8797,7 +8187,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="153" t="s">
-        <v>477</v>
+        <v>375</v>
       </c>
       <c r="B26" s="93" t="s">
         <v>41</v>
@@ -8815,7 +8205,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="153" t="s">
-        <v>478</v>
+        <v>376</v>
       </c>
       <c r="B27" s="93" t="s">
         <v>31</v>
@@ -8833,7 +8223,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="153" t="s">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="B28" s="93" t="s">
         <v>232</v>
@@ -8851,7 +8241,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="153" t="s">
-        <v>480</v>
+        <v>378</v>
       </c>
       <c r="B29" s="93" t="s">
         <v>29</v>
@@ -8869,7 +8259,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="153" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
       <c r="B30" s="93" t="s">
         <v>30</v>
@@ -8887,7 +8277,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="153" t="s">
-        <v>482</v>
+        <v>380</v>
       </c>
       <c r="B31" s="93" t="s">
         <v>32</v>
@@ -8905,7 +8295,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="153" t="s">
-        <v>483</v>
+        <v>381</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>214</v>
@@ -8923,7 +8313,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="153" t="s">
-        <v>484</v>
+        <v>382</v>
       </c>
       <c r="B33" s="93" t="s">
         <v>33</v>
@@ -8941,7 +8331,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="153" t="s">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="B34" s="93" t="s">
         <v>246</v>
@@ -8959,7 +8349,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="153" t="s">
-        <v>486</v>
+        <v>384</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>34</v>
@@ -8977,7 +8367,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="153" t="s">
-        <v>487</v>
+        <v>385</v>
       </c>
       <c r="B36" s="93" t="s">
         <v>35</v>
@@ -8995,7 +8385,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="153" t="s">
-        <v>488</v>
+        <v>386</v>
       </c>
       <c r="B37" s="93" t="s">
         <v>36</v>
@@ -9013,7 +8403,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="153" t="s">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="B38" s="93" t="s">
         <v>37</v>
@@ -9031,7 +8421,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="153" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="B39" s="93" t="s">
         <v>38</v>
@@ -9063,12 +8453,11 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="93" t="s">
-        <v>491</v>
-      </c>
-      <c r="C41" s="97" t="s">
-        <v>254</v>
-      </c>
+      <c r="A41" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="93"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="140"/>
       <c r="E41" s="140"/>
       <c r="F41" s="140"/>
@@ -9078,12 +8467,11 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="93" t="s">
-        <v>255</v>
-      </c>
-      <c r="C42" s="94" t="s">
-        <v>255</v>
-      </c>
+      <c r="A42" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" s="93"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="140"/>
       <c r="E42" s="140"/>
       <c r="F42" s="140"/>
@@ -9093,12 +8481,11 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="93" t="s">
-        <v>492</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>280</v>
-      </c>
+      <c r="A43" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="93"/>
+      <c r="C43" s="94"/>
       <c r="D43" s="140"/>
       <c r="E43" s="140"/>
       <c r="F43" s="140"/>
@@ -9108,12 +8495,11 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="93" t="s">
-        <v>493</v>
-      </c>
-      <c r="C44" s="94" t="s">
-        <v>253</v>
-      </c>
+      <c r="A44" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="140"/>
       <c r="E44" s="140"/>
       <c r="F44" s="140"/>
@@ -9123,12 +8509,11 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="93" t="s">
-        <v>494</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>257</v>
-      </c>
+      <c r="A45" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" s="93"/>
+      <c r="C45" s="94"/>
       <c r="D45" s="140"/>
       <c r="E45" s="140"/>
       <c r="F45" s="140"/>
@@ -9138,12 +8523,11 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="93" t="s">
-        <v>495</v>
-      </c>
-      <c r="C46" s="94" t="s">
-        <v>258</v>
-      </c>
+      <c r="A46" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="140"/>
       <c r="E46" s="140"/>
       <c r="F46" s="140"/>
@@ -9153,12 +8537,11 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="C47" s="94" t="s">
-        <v>256</v>
-      </c>
+      <c r="A47" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="140"/>
       <c r="E47" s="140"/>
       <c r="F47" s="140"/>
@@ -9168,12 +8551,11 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="93" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" s="94" t="s">
-        <v>260</v>
-      </c>
+      <c r="A48" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="93"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="140"/>
       <c r="E48" s="140"/>
       <c r="F48" s="140"/>
@@ -9182,13 +8564,12 @@
       <c r="I48" s="139"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="93" t="s">
-        <v>259</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>259</v>
-      </c>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="93"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="140"/>
       <c r="E49" s="140"/>
       <c r="F49" s="140"/>
@@ -9197,13 +8578,12 @@
       <c r="I49" s="139"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="93" t="s">
-        <v>496</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>261</v>
-      </c>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B50" s="93"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="140"/>
       <c r="E50" s="140"/>
       <c r="F50" s="140"/>
@@ -9212,13 +8592,12 @@
       <c r="I50" s="139"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="93" t="s">
-        <v>497</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>498</v>
-      </c>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" s="93"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="140"/>
       <c r="E51" s="140"/>
       <c r="F51" s="140"/>
@@ -9227,13 +8606,12 @@
       <c r="I51" s="139"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="93" t="s">
-        <v>499</v>
-      </c>
-      <c r="C52" s="94" t="s">
-        <v>264</v>
-      </c>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="93"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="140"/>
       <c r="E52" s="140"/>
       <c r="F52" s="140"/>
@@ -9242,13 +8620,12 @@
       <c r="I52" s="139"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="93" t="s">
-        <v>500</v>
-      </c>
-      <c r="C53" s="94" t="s">
-        <v>263</v>
-      </c>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="140"/>
       <c r="E53" s="140"/>
       <c r="F53" s="140"/>
@@ -9257,13 +8634,12 @@
       <c r="I53" s="139"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="93" t="s">
-        <v>501</v>
-      </c>
-      <c r="C54" s="94" t="s">
-        <v>270</v>
-      </c>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B54" s="93"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="140"/>
       <c r="E54" s="140"/>
       <c r="F54" s="140"/>
@@ -9272,13 +8648,12 @@
       <c r="I54" s="139"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="93" t="s">
-        <v>271</v>
-      </c>
-      <c r="C55" s="94" t="s">
-        <v>271</v>
-      </c>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="140"/>
       <c r="E55" s="140"/>
       <c r="F55" s="140"/>
@@ -9287,13 +8662,12 @@
       <c r="I55" s="139"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="93" t="s">
-        <v>502</v>
-      </c>
-      <c r="C56" s="94" t="s">
-        <v>265</v>
-      </c>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140"/>
       <c r="F56" s="140"/>
@@ -9302,13 +8676,12 @@
       <c r="I56" s="139"/>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="93" t="s">
-        <v>503</v>
-      </c>
-      <c r="C57" s="94" t="s">
-        <v>267</v>
-      </c>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B57" s="93"/>
+      <c r="C57" s="94"/>
       <c r="D57" s="140"/>
       <c r="E57" s="140"/>
       <c r="F57" s="140"/>
@@ -9317,13 +8690,12 @@
       <c r="I57" s="139"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="93" t="s">
-        <v>504</v>
-      </c>
-      <c r="C58" s="94" t="s">
-        <v>262</v>
-      </c>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B58" s="93"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="140"/>
       <c r="E58" s="140"/>
       <c r="F58" s="140"/>
@@ -9332,13 +8704,12 @@
       <c r="I58" s="139"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="94" t="s">
-        <v>269</v>
-      </c>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="140"/>
       <c r="E59" s="140"/>
       <c r="F59" s="140"/>
@@ -9347,13 +8718,12 @@
       <c r="I59" s="139"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="93" t="s">
-        <v>505</v>
-      </c>
-      <c r="C60" s="94" t="s">
-        <v>268</v>
-      </c>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" s="93"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="140"/>
       <c r="E60" s="140"/>
       <c r="F60" s="140"/>
@@ -9362,13 +8732,12 @@
       <c r="I60" s="139"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>266</v>
-      </c>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B61" s="93"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="140"/>
       <c r="E61" s="140"/>
       <c r="F61" s="140"/>
@@ -9377,13 +8746,12 @@
       <c r="I61" s="139"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="93" t="s">
-        <v>506</v>
-      </c>
-      <c r="C62" s="94" t="s">
-        <v>279</v>
-      </c>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="140"/>
       <c r="E62" s="140"/>
       <c r="F62" s="140"/>
@@ -9392,13 +8760,12 @@
       <c r="I62" s="139"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="93" t="s">
-        <v>507</v>
-      </c>
-      <c r="C63" s="94" t="s">
-        <v>299</v>
-      </c>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="93"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="140"/>
       <c r="E63" s="140"/>
       <c r="F63" s="140"/>
@@ -9407,13 +8774,12 @@
       <c r="I63" s="139"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="93" t="s">
-        <v>508</v>
-      </c>
-      <c r="C64" s="94" t="s">
-        <v>275</v>
-      </c>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" s="93"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
       <c r="F64" s="140"/>
@@ -9422,13 +8788,12 @@
       <c r="I64" s="139"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="93" t="s">
-        <v>509</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>272</v>
-      </c>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B65" s="93"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="140"/>
       <c r="E65" s="140"/>
       <c r="F65" s="140"/>
@@ -9437,13 +8802,12 @@
       <c r="I65" s="139"/>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="93" t="s">
-        <v>510</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>511</v>
-      </c>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="140"/>
       <c r="E66" s="140"/>
       <c r="F66" s="140"/>
@@ -9452,13 +8816,12 @@
       <c r="I66" s="139"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="93" t="s">
-        <v>274</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>274</v>
-      </c>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="140"/>
       <c r="E67" s="140"/>
       <c r="F67" s="140"/>
@@ -9467,13 +8830,12 @@
       <c r="I67" s="139"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="93" t="s">
-        <v>512</v>
-      </c>
-      <c r="C68" s="94" t="s">
-        <v>276</v>
-      </c>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B68" s="93"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="140"/>
       <c r="E68" s="140"/>
       <c r="F68" s="140"/>
@@ -9482,13 +8844,12 @@
       <c r="I68" s="139"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="93" t="s">
-        <v>513</v>
-      </c>
-      <c r="C69" s="94" t="s">
-        <v>277</v>
-      </c>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B69" s="93"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="140"/>
       <c r="E69" s="140"/>
       <c r="F69" s="140"/>
@@ -9497,13 +8858,12 @@
       <c r="I69" s="139"/>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="93" t="s">
-        <v>514</v>
-      </c>
-      <c r="C70" s="94" t="s">
-        <v>515</v>
-      </c>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B70" s="93"/>
+      <c r="C70" s="94"/>
       <c r="D70" s="140"/>
       <c r="E70" s="140"/>
       <c r="F70" s="140"/>
@@ -9512,13 +8872,12 @@
       <c r="I70" s="139"/>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="93" t="s">
-        <v>516</v>
-      </c>
-      <c r="C71" s="94" t="s">
-        <v>517</v>
-      </c>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71" s="93"/>
+      <c r="C71" s="94"/>
       <c r="D71" s="140"/>
       <c r="E71" s="140"/>
       <c r="F71" s="140"/>
@@ -9527,13 +8886,12 @@
       <c r="I71" s="139"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="93" t="s">
-        <v>518</v>
-      </c>
-      <c r="C72" s="94" t="s">
-        <v>278</v>
-      </c>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" s="93"/>
+      <c r="C72" s="94"/>
       <c r="D72" s="140"/>
       <c r="E72" s="140"/>
       <c r="F72" s="140"/>
@@ -9542,13 +8900,12 @@
       <c r="I72" s="139"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="93" t="s">
-        <v>519</v>
-      </c>
-      <c r="C73" s="94" t="s">
-        <v>520</v>
-      </c>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" s="93"/>
+      <c r="C73" s="94"/>
       <c r="D73" s="140"/>
       <c r="E73" s="140"/>
       <c r="F73" s="140"/>
@@ -9557,13 +8914,12 @@
       <c r="I73" s="139"/>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="93" t="s">
-        <v>521</v>
-      </c>
-      <c r="C74" s="94" t="s">
-        <v>522</v>
-      </c>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="93"/>
+      <c r="C74" s="94"/>
       <c r="D74" s="140"/>
       <c r="E74" s="140"/>
       <c r="F74" s="140"/>
@@ -9572,13 +8928,12 @@
       <c r="I74" s="139"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="93" t="s">
-        <v>523</v>
-      </c>
-      <c r="C75" s="94" t="s">
-        <v>281</v>
-      </c>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B75" s="93"/>
+      <c r="C75" s="94"/>
       <c r="D75" s="140"/>
       <c r="E75" s="140"/>
       <c r="F75" s="140"/>
@@ -9587,13 +8942,12 @@
       <c r="I75" s="139"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="93" t="s">
-        <v>524</v>
-      </c>
-      <c r="C76" s="94" t="s">
-        <v>282</v>
-      </c>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" s="93"/>
+      <c r="C76" s="94"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140"/>
       <c r="F76" s="140"/>
@@ -9602,13 +8956,12 @@
       <c r="I76" s="139"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="93" t="s">
-        <v>525</v>
-      </c>
-      <c r="C77" s="94" t="s">
-        <v>340</v>
-      </c>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B77" s="93"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="140"/>
       <c r="E77" s="140"/>
       <c r="F77" s="140"/>
@@ -9617,13 +8970,12 @@
       <c r="I77" s="139"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="93" t="s">
-        <v>526</v>
-      </c>
-      <c r="C78" s="94" t="s">
-        <v>527</v>
-      </c>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="93"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="140"/>
       <c r="E78" s="140"/>
       <c r="F78" s="140"/>
@@ -9632,13 +8984,12 @@
       <c r="I78" s="139"/>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="93" t="s">
-        <v>528</v>
-      </c>
-      <c r="C79" s="94" t="s">
-        <v>284</v>
-      </c>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" s="93"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="140"/>
       <c r="E79" s="140"/>
       <c r="F79" s="140"/>
@@ -9647,13 +8998,12 @@
       <c r="I79" s="139"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="93" t="s">
-        <v>285</v>
-      </c>
-      <c r="C80" s="94" t="s">
-        <v>285</v>
-      </c>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B80" s="93"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="140"/>
       <c r="E80" s="140"/>
       <c r="F80" s="140"/>
@@ -9662,13 +9012,12 @@
       <c r="I80" s="139"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="C81" s="94" t="s">
-        <v>286</v>
-      </c>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B81" s="93"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="140"/>
       <c r="E81" s="140"/>
       <c r="F81" s="140"/>
@@ -9677,13 +9026,12 @@
       <c r="I81" s="139"/>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="C82" s="94" t="s">
-        <v>283</v>
-      </c>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B82" s="93"/>
+      <c r="C82" s="94"/>
       <c r="D82" s="140"/>
       <c r="E82" s="140"/>
       <c r="F82" s="140"/>
@@ -9692,13 +9040,12 @@
       <c r="I82" s="139"/>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="93" t="s">
-        <v>529</v>
-      </c>
-      <c r="C83" s="94" t="s">
-        <v>287</v>
-      </c>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B83" s="93"/>
+      <c r="C83" s="94"/>
       <c r="D83" s="140"/>
       <c r="E83" s="140"/>
       <c r="F83" s="140"/>
@@ -9707,13 +9054,12 @@
       <c r="I83" s="139"/>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="93" t="s">
-        <v>530</v>
-      </c>
-      <c r="C84" s="94" t="s">
-        <v>531</v>
-      </c>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84" s="93"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="140"/>
       <c r="E84" s="140"/>
       <c r="F84" s="140"/>
@@ -9722,13 +9068,12 @@
       <c r="I84" s="139"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="C85" s="94" t="s">
-        <v>289</v>
-      </c>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B85" s="93"/>
+      <c r="C85" s="94"/>
       <c r="D85" s="140"/>
       <c r="E85" s="140"/>
       <c r="F85" s="140"/>
@@ -9737,13 +9082,12 @@
       <c r="I85" s="139"/>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="93" t="s">
-        <v>532</v>
-      </c>
-      <c r="C86" s="94" t="s">
-        <v>288</v>
-      </c>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B86" s="93"/>
+      <c r="C86" s="94"/>
       <c r="D86" s="140"/>
       <c r="E86" s="140"/>
       <c r="F86" s="140"/>
@@ -9752,13 +9096,12 @@
       <c r="I86" s="139"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="93" t="s">
-        <v>533</v>
-      </c>
-      <c r="C87" s="94" t="s">
-        <v>292</v>
-      </c>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" s="93"/>
+      <c r="C87" s="94"/>
       <c r="D87" s="140"/>
       <c r="E87" s="140"/>
       <c r="F87" s="140"/>
@@ -9767,13 +9110,12 @@
       <c r="I87" s="139"/>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="93" t="s">
-        <v>534</v>
-      </c>
-      <c r="C88" s="94" t="s">
-        <v>290</v>
-      </c>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" s="93"/>
+      <c r="C88" s="94"/>
       <c r="D88" s="140"/>
       <c r="E88" s="140"/>
       <c r="F88" s="140"/>
@@ -9782,13 +9124,12 @@
       <c r="I88" s="139"/>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="93" t="s">
-        <v>535</v>
-      </c>
-      <c r="C89" s="94" t="s">
-        <v>293</v>
-      </c>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B89" s="93"/>
+      <c r="C89" s="94"/>
       <c r="D89" s="140"/>
       <c r="E89" s="140"/>
       <c r="F89" s="140"/>
@@ -9797,13 +9138,12 @@
       <c r="I89" s="139"/>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="93" t="s">
-        <v>536</v>
-      </c>
-      <c r="C90" s="94" t="s">
-        <v>291</v>
-      </c>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90" s="93"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="140"/>
       <c r="E90" s="140"/>
       <c r="F90" s="140"/>
@@ -9812,13 +9152,12 @@
       <c r="I90" s="139"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="93" t="s">
-        <v>537</v>
-      </c>
-      <c r="C91" s="94" t="s">
-        <v>294</v>
-      </c>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B91" s="93"/>
+      <c r="C91" s="94"/>
       <c r="D91" s="140"/>
       <c r="E91" s="140"/>
       <c r="F91" s="140"/>
@@ -9827,13 +9166,12 @@
       <c r="I91" s="139"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="93" t="s">
-        <v>538</v>
-      </c>
-      <c r="C92" s="94" t="s">
-        <v>296</v>
-      </c>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" s="93"/>
+      <c r="C92" s="94"/>
       <c r="D92" s="140"/>
       <c r="E92" s="140"/>
       <c r="F92" s="140"/>
@@ -9842,13 +9180,12 @@
       <c r="I92" s="139"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="93" t="s">
-        <v>539</v>
-      </c>
-      <c r="C93" s="94" t="s">
-        <v>295</v>
-      </c>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B93" s="93"/>
+      <c r="C93" s="94"/>
       <c r="D93" s="140"/>
       <c r="E93" s="140"/>
       <c r="F93" s="140"/>
@@ -9857,13 +9194,12 @@
       <c r="I93" s="139"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="93" t="s">
-        <v>540</v>
-      </c>
-      <c r="C94" s="94" t="s">
-        <v>301</v>
-      </c>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B94" s="93"/>
+      <c r="C94" s="94"/>
       <c r="D94" s="140"/>
       <c r="E94" s="140"/>
       <c r="F94" s="140"/>
@@ -9872,13 +9208,12 @@
       <c r="I94" s="139"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="93" t="s">
-        <v>541</v>
-      </c>
-      <c r="C95" s="94" t="s">
-        <v>297</v>
-      </c>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B95" s="93"/>
+      <c r="C95" s="94"/>
       <c r="D95" s="140"/>
       <c r="E95" s="140"/>
       <c r="F95" s="140"/>
@@ -9887,13 +9222,12 @@
       <c r="I95" s="139"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="93" t="s">
-        <v>542</v>
-      </c>
-      <c r="C96" s="94" t="s">
-        <v>543</v>
-      </c>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B96" s="93"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="140"/>
       <c r="E96" s="140"/>
       <c r="F96" s="140"/>
@@ -9902,13 +9236,12 @@
       <c r="I96" s="139"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="93" t="s">
-        <v>544</v>
-      </c>
-      <c r="C97" s="94" t="s">
-        <v>300</v>
-      </c>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B97" s="93"/>
+      <c r="C97" s="94"/>
       <c r="D97" s="140"/>
       <c r="E97" s="140"/>
       <c r="F97" s="140"/>
@@ -9917,13 +9250,12 @@
       <c r="I97" s="139"/>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="93" t="s">
-        <v>545</v>
-      </c>
-      <c r="C98" s="94" t="s">
-        <v>298</v>
-      </c>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B98" s="93"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="140"/>
       <c r="E98" s="140"/>
       <c r="F98" s="140"/>
@@ -9932,13 +9264,12 @@
       <c r="I98" s="139"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="93" t="s">
-        <v>546</v>
-      </c>
-      <c r="C99" s="94" t="s">
-        <v>547</v>
-      </c>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B99" s="93"/>
+      <c r="C99" s="94"/>
       <c r="D99" s="140"/>
       <c r="E99" s="140"/>
       <c r="F99" s="140"/>
@@ -9947,13 +9278,12 @@
       <c r="I99" s="139"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="93" t="s">
-        <v>548</v>
-      </c>
-      <c r="C100" s="94" t="s">
-        <v>302</v>
-      </c>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" s="93"/>
+      <c r="C100" s="94"/>
       <c r="D100" s="140"/>
       <c r="E100" s="140"/>
       <c r="F100" s="140"/>
@@ -9962,13 +9292,12 @@
       <c r="I100" s="139"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="93" t="s">
-        <v>549</v>
-      </c>
-      <c r="C101" s="94" t="s">
-        <v>305</v>
-      </c>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B101" s="93"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="140"/>
       <c r="E101" s="140"/>
       <c r="F101" s="140"/>
@@ -9977,13 +9306,12 @@
       <c r="I101" s="139"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B102" s="93" t="s">
-        <v>550</v>
-      </c>
-      <c r="C102" s="94" t="s">
-        <v>312</v>
-      </c>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B102" s="93"/>
+      <c r="C102" s="94"/>
       <c r="D102" s="140"/>
       <c r="E102" s="140"/>
       <c r="F102" s="140"/>
@@ -9992,13 +9320,12 @@
       <c r="I102" s="139"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" s="93" t="s">
-        <v>551</v>
-      </c>
-      <c r="C103" s="94" t="s">
-        <v>308</v>
-      </c>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B103" s="93"/>
+      <c r="C103" s="94"/>
       <c r="D103" s="140"/>
       <c r="E103" s="140"/>
       <c r="F103" s="140"/>
@@ -10007,13 +9334,12 @@
       <c r="I103" s="139"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="93" t="s">
-        <v>552</v>
-      </c>
-      <c r="C104" s="94" t="s">
-        <v>316</v>
-      </c>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B104" s="93"/>
+      <c r="C104" s="94"/>
       <c r="D104" s="140"/>
       <c r="E104" s="140"/>
       <c r="F104" s="140"/>
@@ -10022,13 +9348,12 @@
       <c r="I104" s="139"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="C105" s="94" t="s">
-        <v>309</v>
-      </c>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B105" s="93"/>
+      <c r="C105" s="94"/>
       <c r="D105" s="140"/>
       <c r="E105" s="140"/>
       <c r="F105" s="140"/>
@@ -10037,13 +9362,12 @@
       <c r="I105" s="139"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="93" t="s">
-        <v>553</v>
-      </c>
-      <c r="C106" s="94" t="s">
-        <v>313</v>
-      </c>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B106" s="93"/>
+      <c r="C106" s="94"/>
       <c r="D106" s="140"/>
       <c r="E106" s="140"/>
       <c r="F106" s="140"/>
@@ -10052,13 +9376,12 @@
       <c r="I106" s="139"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="94" t="s">
-        <v>314</v>
-      </c>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="93"/>
+      <c r="C107" s="94"/>
       <c r="D107" s="140"/>
       <c r="E107" s="140"/>
       <c r="F107" s="140"/>
@@ -10067,13 +9390,12 @@
       <c r="I107" s="139"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="93" t="s">
-        <v>554</v>
-      </c>
-      <c r="C108" s="94" t="s">
-        <v>315</v>
-      </c>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" s="93"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="140"/>
       <c r="E108" s="140"/>
       <c r="F108" s="140"/>
@@ -10082,13 +9404,12 @@
       <c r="I108" s="139"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="93" t="s">
-        <v>555</v>
-      </c>
-      <c r="C109" s="94" t="s">
-        <v>556</v>
-      </c>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B109" s="93"/>
+      <c r="C109" s="94"/>
       <c r="D109" s="140"/>
       <c r="E109" s="140"/>
       <c r="F109" s="140"/>
@@ -10097,13 +9418,12 @@
       <c r="I109" s="139"/>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="93" t="s">
-        <v>311</v>
-      </c>
-      <c r="C110" s="94" t="s">
-        <v>311</v>
-      </c>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B110" s="93"/>
+      <c r="C110" s="94"/>
       <c r="D110" s="140"/>
       <c r="E110" s="140"/>
       <c r="F110" s="140"/>
@@ -10112,13 +9432,12 @@
       <c r="I110" s="139"/>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="93" t="s">
-        <v>557</v>
-      </c>
-      <c r="C111" s="94" t="s">
-        <v>307</v>
-      </c>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B111" s="93"/>
+      <c r="C111" s="94"/>
       <c r="D111" s="140"/>
       <c r="E111" s="140"/>
       <c r="F111" s="140"/>
@@ -10127,13 +9446,12 @@
       <c r="I111" s="139"/>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="93" t="s">
-        <v>558</v>
-      </c>
-      <c r="C112" s="94" t="s">
-        <v>306</v>
-      </c>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B112" s="93"/>
+      <c r="C112" s="94"/>
       <c r="D112" s="140"/>
       <c r="E112" s="140"/>
       <c r="F112" s="140"/>
@@ -10142,13 +9460,12 @@
       <c r="I112" s="139"/>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="93" t="s">
-        <v>559</v>
-      </c>
-      <c r="C113" s="94" t="s">
-        <v>317</v>
-      </c>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B113" s="93"/>
+      <c r="C113" s="94"/>
       <c r="D113" s="140"/>
       <c r="E113" s="140"/>
       <c r="F113" s="140"/>
@@ -10157,13 +9474,12 @@
       <c r="I113" s="139"/>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="93" t="s">
-        <v>560</v>
-      </c>
-      <c r="C114" s="94" t="s">
-        <v>310</v>
-      </c>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="93"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="140"/>
       <c r="E114" s="140"/>
       <c r="F114" s="140"/>
@@ -10172,13 +9488,12 @@
       <c r="I114" s="139"/>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="93" t="s">
-        <v>318</v>
-      </c>
-      <c r="C115" s="94" t="s">
-        <v>318</v>
-      </c>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B115" s="93"/>
+      <c r="C115" s="94"/>
       <c r="D115" s="140"/>
       <c r="E115" s="140"/>
       <c r="F115" s="140"/>
@@ -10187,13 +9502,12 @@
       <c r="I115" s="139"/>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="93" t="s">
-        <v>321</v>
-      </c>
-      <c r="C116" s="94" t="s">
-        <v>321</v>
-      </c>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B116" s="93"/>
+      <c r="C116" s="94"/>
       <c r="D116" s="140"/>
       <c r="E116" s="140"/>
       <c r="F116" s="140"/>
@@ -10202,13 +9516,12 @@
       <c r="I116" s="139"/>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="93" t="s">
-        <v>561</v>
-      </c>
-      <c r="C117" s="94" t="s">
-        <v>322</v>
-      </c>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B117" s="93"/>
+      <c r="C117" s="94"/>
       <c r="D117" s="140"/>
       <c r="E117" s="140"/>
       <c r="F117" s="140"/>
@@ -10217,13 +9530,12 @@
       <c r="I117" s="139"/>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="93" t="s">
-        <v>562</v>
-      </c>
-      <c r="C118" s="94" t="s">
-        <v>320</v>
-      </c>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" s="93"/>
+      <c r="C118" s="94"/>
       <c r="D118" s="140"/>
       <c r="E118" s="140"/>
       <c r="F118" s="140"/>
@@ -10232,13 +9544,12 @@
       <c r="I118" s="139"/>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="C119" s="94" t="s">
-        <v>319</v>
-      </c>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B119" s="93"/>
+      <c r="C119" s="94"/>
       <c r="D119" s="140"/>
       <c r="E119" s="140"/>
       <c r="F119" s="140"/>
@@ -10247,13 +9558,12 @@
       <c r="I119" s="139"/>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="93" t="s">
-        <v>563</v>
-      </c>
-      <c r="C120" s="94" t="s">
-        <v>564</v>
-      </c>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="93"/>
+      <c r="C120" s="94"/>
       <c r="D120" s="140"/>
       <c r="E120" s="140"/>
       <c r="F120" s="140"/>
@@ -10262,13 +9572,12 @@
       <c r="I120" s="139"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="93" t="s">
-        <v>565</v>
-      </c>
-      <c r="C121" s="94" t="s">
-        <v>323</v>
-      </c>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B121" s="93"/>
+      <c r="C121" s="94"/>
       <c r="D121" s="140"/>
       <c r="E121" s="140"/>
       <c r="F121" s="140"/>
@@ -10277,13 +9586,12 @@
       <c r="I121" s="139"/>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="C122" s="94" t="s">
-        <v>327</v>
-      </c>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122" s="93"/>
+      <c r="C122" s="94"/>
       <c r="D122" s="140"/>
       <c r="E122" s="140"/>
       <c r="F122" s="140"/>
@@ -10292,13 +9600,12 @@
       <c r="I122" s="139"/>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123" s="93" t="s">
-        <v>566</v>
-      </c>
-      <c r="C123" s="94" t="s">
-        <v>328</v>
-      </c>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="93"/>
+      <c r="C123" s="94"/>
       <c r="D123" s="140"/>
       <c r="E123" s="140"/>
       <c r="F123" s="140"/>
@@ -10307,13 +9614,12 @@
       <c r="I123" s="139"/>
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124" s="93" t="s">
-        <v>324</v>
-      </c>
-      <c r="C124" s="94" t="s">
-        <v>324</v>
-      </c>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B124" s="93"/>
+      <c r="C124" s="94"/>
       <c r="D124" s="140"/>
       <c r="E124" s="140"/>
       <c r="F124" s="140"/>
@@ -10322,13 +9628,12 @@
       <c r="I124" s="139"/>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="93" t="s">
-        <v>567</v>
-      </c>
-      <c r="C125" s="94" t="s">
-        <v>326</v>
-      </c>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="93"/>
+      <c r="C125" s="94"/>
       <c r="D125" s="140"/>
       <c r="E125" s="140"/>
       <c r="F125" s="140"/>
@@ -10337,13 +9642,12 @@
       <c r="I125" s="139"/>
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="93" t="s">
-        <v>568</v>
-      </c>
-      <c r="C126" s="94" t="s">
-        <v>329</v>
-      </c>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B126" s="93"/>
+      <c r="C126" s="94"/>
       <c r="D126" s="140"/>
       <c r="E126" s="140"/>
       <c r="F126" s="140"/>
@@ -10352,13 +9656,12 @@
       <c r="I126" s="139"/>
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" s="93" t="s">
-        <v>325</v>
-      </c>
-      <c r="C127" s="94" t="s">
-        <v>325</v>
-      </c>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B127" s="93"/>
+      <c r="C127" s="94"/>
       <c r="D127" s="140"/>
       <c r="E127" s="140"/>
       <c r="F127" s="140"/>
@@ -10367,13 +9670,12 @@
       <c r="I127" s="139"/>
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="93" t="s">
-        <v>569</v>
-      </c>
-      <c r="C128" s="94" t="s">
-        <v>570</v>
-      </c>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B128" s="93"/>
+      <c r="C128" s="94"/>
       <c r="D128" s="140"/>
       <c r="E128" s="140"/>
       <c r="F128" s="140"/>
@@ -10382,13 +9684,12 @@
       <c r="I128" s="139"/>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B129" s="93" t="s">
-        <v>571</v>
-      </c>
-      <c r="C129" s="94" t="s">
-        <v>330</v>
-      </c>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B129" s="93"/>
+      <c r="C129" s="94"/>
       <c r="D129" s="140"/>
       <c r="E129" s="140"/>
       <c r="F129" s="140"/>
@@ -10397,13 +9698,12 @@
       <c r="I129" s="139"/>
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B130" s="93" t="s">
-        <v>332</v>
-      </c>
-      <c r="C130" s="94" t="s">
-        <v>332</v>
-      </c>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B130" s="93"/>
+      <c r="C130" s="94"/>
       <c r="D130" s="140"/>
       <c r="E130" s="140"/>
       <c r="F130" s="140"/>
@@ -10412,13 +9712,12 @@
       <c r="I130" s="139"/>
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="93" t="s">
-        <v>303</v>
-      </c>
-      <c r="C131" s="94" t="s">
-        <v>303</v>
-      </c>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" s="93"/>
+      <c r="C131" s="94"/>
       <c r="D131" s="140"/>
       <c r="E131" s="140"/>
       <c r="F131" s="140"/>
@@ -10427,13 +9726,12 @@
       <c r="I131" s="139"/>
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B132" s="93" t="s">
-        <v>337</v>
-      </c>
-      <c r="C132" s="94" t="s">
-        <v>337</v>
-      </c>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" s="93"/>
+      <c r="C132" s="94"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140"/>
       <c r="F132" s="140"/>
@@ -10442,13 +9740,12 @@
       <c r="I132" s="139"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="93" t="s">
-        <v>572</v>
-      </c>
-      <c r="C133" s="94" t="s">
-        <v>333</v>
-      </c>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="93"/>
+      <c r="C133" s="94"/>
       <c r="D133" s="140"/>
       <c r="E133" s="140"/>
       <c r="F133" s="140"/>
@@ -10457,13 +9754,12 @@
       <c r="I133" s="139"/>
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B134" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="C134" s="94" t="s">
-        <v>338</v>
-      </c>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B134" s="93"/>
+      <c r="C134" s="94"/>
       <c r="D134" s="140"/>
       <c r="E134" s="140"/>
       <c r="F134" s="140"/>
@@ -10472,13 +9768,12 @@
       <c r="I134" s="139"/>
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B135" s="93" t="s">
-        <v>331</v>
-      </c>
-      <c r="C135" s="94" t="s">
-        <v>331</v>
-      </c>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B135" s="93"/>
+      <c r="C135" s="94"/>
       <c r="D135" s="140"/>
       <c r="E135" s="140"/>
       <c r="F135" s="140"/>
@@ -10487,13 +9782,12 @@
       <c r="I135" s="139"/>
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="93" t="s">
-        <v>573</v>
-      </c>
-      <c r="C136" s="94" t="s">
-        <v>334</v>
-      </c>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" s="93"/>
+      <c r="C136" s="94"/>
       <c r="D136" s="140"/>
       <c r="E136" s="140"/>
       <c r="F136" s="140"/>
@@ -10502,13 +9796,12 @@
       <c r="I136" s="139"/>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B137" s="93" t="s">
-        <v>574</v>
-      </c>
-      <c r="C137" s="94" t="s">
-        <v>336</v>
-      </c>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B137" s="93"/>
+      <c r="C137" s="94"/>
       <c r="D137" s="140"/>
       <c r="E137" s="140"/>
       <c r="F137" s="140"/>
@@ -10517,13 +9810,12 @@
       <c r="I137" s="139"/>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" s="93" t="s">
-        <v>575</v>
-      </c>
-      <c r="C138" s="94" t="s">
-        <v>352</v>
-      </c>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B138" s="93"/>
+      <c r="C138" s="94"/>
       <c r="D138" s="140"/>
       <c r="E138" s="140"/>
       <c r="F138" s="140"/>
@@ -10532,13 +9824,12 @@
       <c r="I138" s="139"/>
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B139" s="93" t="s">
-        <v>576</v>
-      </c>
-      <c r="C139" s="94" t="s">
-        <v>339</v>
-      </c>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B139" s="93"/>
+      <c r="C139" s="94"/>
       <c r="D139" s="140"/>
       <c r="E139" s="140"/>
       <c r="F139" s="140"/>
@@ -10547,13 +9838,12 @@
       <c r="I139" s="139"/>
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B140" s="93" t="s">
-        <v>304</v>
-      </c>
-      <c r="C140" s="94" t="s">
-        <v>304</v>
-      </c>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B140" s="93"/>
+      <c r="C140" s="94"/>
       <c r="D140" s="140"/>
       <c r="E140" s="140"/>
       <c r="F140" s="140"/>
@@ -10562,13 +9852,12 @@
       <c r="I140" s="139"/>
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B141" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="C141" s="94" t="s">
-        <v>577</v>
-      </c>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B141" s="93"/>
+      <c r="C141" s="94"/>
       <c r="D141" s="140"/>
       <c r="E141" s="140"/>
       <c r="F141" s="140"/>
@@ -10577,13 +9866,12 @@
       <c r="I141" s="139"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" s="93" t="s">
-        <v>578</v>
-      </c>
-      <c r="C142" s="94" t="s">
-        <v>273</v>
-      </c>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" s="93"/>
+      <c r="C142" s="94"/>
       <c r="D142" s="140"/>
       <c r="E142" s="140"/>
       <c r="F142" s="140"/>
@@ -10592,13 +9880,12 @@
       <c r="I142" s="139"/>
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B143" s="93" t="s">
-        <v>579</v>
-      </c>
-      <c r="C143" s="94" t="s">
-        <v>580</v>
-      </c>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B143" s="93"/>
+      <c r="C143" s="94"/>
       <c r="D143" s="140"/>
       <c r="E143" s="140"/>
       <c r="F143" s="140"/>
@@ -10607,13 +9894,12 @@
       <c r="I143" s="139"/>
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B144" s="93" t="s">
-        <v>581</v>
-      </c>
-      <c r="C144" s="94" t="s">
-        <v>342</v>
-      </c>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B144" s="93"/>
+      <c r="C144" s="94"/>
       <c r="D144" s="140"/>
       <c r="E144" s="140"/>
       <c r="F144" s="140"/>
@@ -10622,13 +9908,12 @@
       <c r="I144" s="139"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" s="93" t="s">
-        <v>582</v>
-      </c>
-      <c r="C145" s="94" t="s">
-        <v>583</v>
-      </c>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B145" s="93"/>
+      <c r="C145" s="94"/>
       <c r="D145" s="140"/>
       <c r="E145" s="140"/>
       <c r="F145" s="140"/>
@@ -10637,13 +9922,12 @@
       <c r="I145" s="139"/>
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B146" s="93" t="s">
-        <v>584</v>
-      </c>
-      <c r="C146" s="94" t="s">
-        <v>341</v>
-      </c>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B146" s="93"/>
+      <c r="C146" s="94"/>
       <c r="D146" s="140"/>
       <c r="E146" s="140"/>
       <c r="F146" s="140"/>
@@ -10652,13 +9936,12 @@
       <c r="I146" s="139"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="93" t="s">
-        <v>585</v>
-      </c>
-      <c r="C147" s="94" t="s">
-        <v>346</v>
-      </c>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="93"/>
+      <c r="C147" s="94"/>
       <c r="D147" s="140"/>
       <c r="E147" s="140"/>
       <c r="F147" s="140"/>
@@ -10667,13 +9950,12 @@
       <c r="I147" s="139"/>
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="93" t="s">
-        <v>586</v>
-      </c>
-      <c r="C148" s="94" t="s">
-        <v>344</v>
-      </c>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B148" s="93"/>
+      <c r="C148" s="94"/>
       <c r="D148" s="140"/>
       <c r="E148" s="140"/>
       <c r="F148" s="140"/>
@@ -10682,13 +9964,12 @@
       <c r="I148" s="139"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B149" s="93" t="s">
-        <v>587</v>
-      </c>
-      <c r="C149" s="94" t="s">
-        <v>345</v>
-      </c>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="93"/>
+      <c r="C149" s="94"/>
       <c r="D149" s="140"/>
       <c r="E149" s="140"/>
       <c r="F149" s="140"/>
@@ -10697,13 +9978,12 @@
       <c r="I149" s="139"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="93" t="s">
-        <v>343</v>
-      </c>
-      <c r="C150" s="94" t="s">
-        <v>343</v>
-      </c>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B150" s="93"/>
+      <c r="C150" s="94"/>
       <c r="D150" s="140"/>
       <c r="E150" s="140"/>
       <c r="F150" s="140"/>
@@ -10712,13 +9992,12 @@
       <c r="I150" s="139"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B151" s="93" t="s">
-        <v>348</v>
-      </c>
-      <c r="C151" s="94" t="s">
-        <v>348</v>
-      </c>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" s="93"/>
+      <c r="C151" s="94"/>
       <c r="D151" s="140"/>
       <c r="E151" s="140"/>
       <c r="F151" s="140"/>
@@ -10727,13 +10006,12 @@
       <c r="I151" s="139"/>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="93" t="s">
-        <v>588</v>
-      </c>
-      <c r="C152" s="94" t="s">
-        <v>347</v>
-      </c>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B152" s="93"/>
+      <c r="C152" s="94"/>
       <c r="D152" s="140"/>
       <c r="E152" s="140"/>
       <c r="F152" s="140"/>
@@ -10742,13 +10020,12 @@
       <c r="I152" s="139"/>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="93" t="s">
-        <v>589</v>
-      </c>
-      <c r="C153" s="94" t="s">
-        <v>590</v>
-      </c>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B153" s="93"/>
+      <c r="C153" s="94"/>
       <c r="D153" s="140"/>
       <c r="E153" s="140"/>
       <c r="F153" s="140"/>
@@ -10757,13 +10034,12 @@
       <c r="I153" s="139"/>
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C154" s="94" t="s">
-        <v>591</v>
-      </c>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B154" s="93"/>
+      <c r="C154" s="94"/>
       <c r="D154" s="140"/>
       <c r="E154" s="140"/>
       <c r="F154" s="140"/>
@@ -10772,13 +10048,12 @@
       <c r="I154" s="139"/>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B155" s="93" t="s">
-        <v>592</v>
-      </c>
-      <c r="C155" s="94" t="s">
-        <v>593</v>
-      </c>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B155" s="93"/>
+      <c r="C155" s="94"/>
       <c r="D155" s="140"/>
       <c r="E155" s="140"/>
       <c r="F155" s="140"/>
@@ -10787,13 +10062,12 @@
       <c r="I155" s="139"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="93" t="s">
-        <v>594</v>
-      </c>
-      <c r="C156" s="94" t="s">
-        <v>349</v>
-      </c>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B156" s="93"/>
+      <c r="C156" s="94"/>
       <c r="D156" s="140"/>
       <c r="E156" s="140"/>
       <c r="F156" s="140"/>
@@ -10802,13 +10076,12 @@
       <c r="I156" s="139"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="C157" s="94" t="s">
-        <v>350</v>
-      </c>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B157" s="93"/>
+      <c r="C157" s="94"/>
       <c r="D157" s="140"/>
       <c r="E157" s="140"/>
       <c r="F157" s="140"/>
@@ -10817,13 +10090,12 @@
       <c r="I157" s="139"/>
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="93" t="s">
-        <v>595</v>
-      </c>
-      <c r="C158" s="94" t="s">
-        <v>351</v>
-      </c>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B158" s="93"/>
+      <c r="C158" s="94"/>
       <c r="D158" s="140"/>
       <c r="E158" s="140"/>
       <c r="F158" s="140"/>
@@ -10832,13 +10104,12 @@
       <c r="I158" s="139"/>
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="93" t="s">
-        <v>353</v>
-      </c>
-      <c r="C159" s="94" t="s">
-        <v>353</v>
-      </c>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B159" s="93"/>
+      <c r="C159" s="94"/>
       <c r="D159" s="140"/>
       <c r="E159" s="140"/>
       <c r="F159" s="140"/>
@@ -10847,13 +10118,12 @@
       <c r="I159" s="139"/>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" s="93" t="s">
-        <v>354</v>
-      </c>
-      <c r="C160" s="94" t="s">
-        <v>354</v>
-      </c>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="197" t="s">
+        <v>389</v>
+      </c>
+      <c r="B160" s="93"/>
+      <c r="C160" s="94"/>
       <c r="D160" s="140"/>
       <c r="E160" s="140"/>
       <c r="F160" s="140"/>
@@ -10862,7 +10132,10 @@
       <c r="I160" s="139"/>
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B161" s="93"/>
       <c r="C161" s="94"/>
       <c r="D161" s="140"/>
@@ -10873,7 +10146,10 @@
       <c r="I161" s="139"/>
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B162" s="98"/>
       <c r="C162" s="94"/>
       <c r="D162" s="140"/>
@@ -10884,7 +10160,10 @@
       <c r="I162" s="139"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B163" s="93"/>
       <c r="C163" s="94"/>
       <c r="D163" s="140"/>
@@ -10895,7 +10174,10 @@
       <c r="I163" s="139"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B164" s="98"/>
       <c r="C164" s="94"/>
       <c r="D164" s="140"/>
@@ -10906,7 +10188,10 @@
       <c r="I164" s="139"/>
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B165" s="93"/>
       <c r="C165" s="94"/>
       <c r="D165" s="140"/>
@@ -10917,7 +10202,10 @@
       <c r="I165" s="139"/>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B166" s="98"/>
       <c r="C166" s="94"/>
       <c r="D166" s="140"/>
@@ -10927,7 +10215,10 @@
       <c r="H166" s="138"/>
       <c r="I166" s="139"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B167" s="93"/>
       <c r="C167" s="94"/>
       <c r="D167" s="140"/>
@@ -10937,7 +10228,10 @@
       <c r="H167" s="138"/>
       <c r="I167" s="139"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="197" t="s">
+        <v>389</v>
+      </c>
       <c r="B168" s="98"/>
       <c r="C168" s="94"/>
       <c r="D168" s="140"/>
@@ -10946,6 +10240,1751 @@
       <c r="G168" s="138"/>
       <c r="H168" s="138"/>
       <c r="I168" s="139"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="197" t="s">
+        <v>389</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11307,12 +12346,12 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2" s="123" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="124" t="s">
-        <v>433</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11436,10 +12475,10 @@
         <v>160</v>
       </c>
       <c r="C11" s="135" t="s">
-        <v>446</v>
+        <v>344</v>
       </c>
       <c r="D11" s="133" t="s">
-        <v>436</v>
+        <v>334</v>
       </c>
       <c r="E11" s="141">
         <v>0</v>
@@ -11466,10 +12505,10 @@
         <v>165</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="E12" s="141">
         <v>0</v>
@@ -11496,10 +12535,10 @@
         <v>167</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>438</v>
+        <v>336</v>
       </c>
       <c r="E13" s="141">
         <v>0</v>
@@ -11526,10 +12565,10 @@
         <v>166</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="E14" s="141">
         <v>0</v>
@@ -11557,10 +12596,10 @@
         <v>168</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="E15" s="141">
         <v>0</v>
@@ -11588,10 +12627,10 @@
         <v>161</v>
       </c>
       <c r="C16" s="135" t="s">
-        <v>447</v>
+        <v>345</v>
       </c>
       <c r="D16" s="133" t="s">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="E16" s="141">
         <v>0</v>
@@ -11618,10 +12657,10 @@
         <v>169</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>442</v>
+        <v>340</v>
       </c>
       <c r="E17" s="141">
         <v>0</v>
@@ -11649,10 +12688,10 @@
         <v>170</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>439</v>
+        <v>337</v>
       </c>
       <c r="E18" s="141">
         <v>0</v>
@@ -11680,10 +12719,10 @@
         <v>171</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="E19" s="141">
         <v>0</v>
@@ -11710,10 +12749,10 @@
         <v>164</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="D20" s="133" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="E20" s="141">
         <v>0</v>
@@ -11740,7 +12779,7 @@
         <v>157</v>
       </c>
       <c r="C21" s="127" t="s">
-        <v>435</v>
+        <v>333</v>
       </c>
       <c r="D21" s="132" t="s">
         <v>177</v>
@@ -11770,10 +12809,10 @@
         <v>162</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>449</v>
+        <v>347</v>
       </c>
       <c r="D22" s="108" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="E22" s="141">
         <v>0</v>
@@ -11801,10 +12840,10 @@
         <v>163</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>445</v>
+        <v>343</v>
       </c>
       <c r="E23" s="141">
         <v>0</v>
@@ -11831,10 +12870,10 @@
         <v>172</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>448</v>
+        <v>346</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>443</v>
+        <v>341</v>
       </c>
       <c r="E24" s="141">
         <v>0</v>
@@ -12107,10 +13146,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="146" t="s">
-        <v>455</v>
+        <v>353</v>
       </c>
       <c r="B9" s="147" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
       <c r="C9" s="149"/>
       <c r="D9" s="149"/>
@@ -12122,10 +13161,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="146" t="s">
-        <v>457</v>
+        <v>355</v>
       </c>
       <c r="B10" s="147" t="s">
-        <v>458</v>
+        <v>356</v>
       </c>
       <c r="C10" s="149"/>
       <c r="D10" s="149"/>
@@ -12137,10 +13176,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="146" t="s">
-        <v>459</v>
+        <v>357</v>
       </c>
       <c r="B11" s="147" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="C11" s="149"/>
       <c r="D11" s="149"/>
@@ -12155,7 +13194,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="147" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="C12" s="148"/>
       <c r="D12" s="148"/>

--- a/Example/AR1 - Q1.2023.xlsx
+++ b/Example/AR1 - Q1.2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysztof kaniewski\PycharmProjects\pythonProject\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927E074-636C-4E07-8CCE-140DA3486E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6462817-BB63-4BE1-8897-5AA73C8E6EE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="389">
   <si>
     <t>Karty płatnicze</t>
   </si>
@@ -1250,15 +1250,12 @@
   <si>
     <t>SE</t>
   </si>
-  <si>
-    <t>NEXT</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1433,13 +1430,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial CE"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -1741,7 +1731,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2145,7 +2135,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2209,51 +2198,51 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2275,7 +2264,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hiperłącze 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3107,13 +3096,13 @@
       <c r="A7" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="154" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="157" t="s">
         <v>179</v>
       </c>
       <c r="E7" s="69" t="s">
@@ -3126,11 +3115,11 @@
       <c r="A8" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="156"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="69" t="s">
         <v>261</v>
       </c>
@@ -3141,11 +3130,11 @@
       <c r="A9" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="156"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="157"/>
       <c r="E9" s="69" t="s">
         <v>262</v>
       </c>
@@ -3156,11 +3145,11 @@
       <c r="A10" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="156"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="69" t="s">
         <v>50</v>
       </c>
@@ -3171,11 +3160,11 @@
       <c r="A11" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="157"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="69" t="s">
         <v>263</v>
       </c>
@@ -3186,13 +3175,13 @@
       <c r="A12" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="158" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="157" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="69" t="s">
@@ -3205,11 +3194,11 @@
       <c r="A13" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="159"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="157"/>
       <c r="E13" s="69" t="s">
         <v>261</v>
       </c>
@@ -3220,11 +3209,11 @@
       <c r="A14" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="159"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="157"/>
       <c r="E14" s="69" t="s">
         <v>262</v>
       </c>
@@ -3235,11 +3224,11 @@
       <c r="A15" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="159"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="157"/>
       <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
@@ -3250,13 +3239,13 @@
       <c r="A16" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="159" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="157" t="s">
         <v>181</v>
       </c>
       <c r="E16" s="69" t="s">
@@ -3269,11 +3258,11 @@
       <c r="A17" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="160"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="157"/>
       <c r="E17" s="69" t="s">
         <v>265</v>
       </c>
@@ -3284,11 +3273,11 @@
       <c r="A18" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="160"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="157"/>
       <c r="E18" s="69" t="s">
         <v>261</v>
       </c>
@@ -3299,11 +3288,11 @@
       <c r="A19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="160"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="69" t="s">
         <v>262</v>
       </c>
@@ -3314,11 +3303,11 @@
       <c r="A20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="160"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="69" t="s">
         <v>266</v>
       </c>
@@ -3329,11 +3318,11 @@
       <c r="A21" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="160"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="158"/>
+      <c r="D21" s="157"/>
       <c r="E21" s="69" t="s">
         <v>267</v>
       </c>
@@ -3344,11 +3333,11 @@
       <c r="A22" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="160"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="158"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="69" t="s">
         <v>268</v>
       </c>
@@ -3359,11 +3348,11 @@
       <c r="A23" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="160"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="158"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="69" t="s">
         <v>269</v>
       </c>
@@ -3374,11 +3363,11 @@
       <c r="A24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="160"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="158"/>
+      <c r="D24" s="157"/>
       <c r="E24" s="69" t="s">
         <v>270</v>
       </c>
@@ -3389,11 +3378,11 @@
       <c r="A25" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="160"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="158"/>
+      <c r="D25" s="157"/>
       <c r="E25" s="69" t="s">
         <v>176</v>
       </c>
@@ -4067,13 +4056,13 @@
       <c r="A8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="163" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="165" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="68" t="s">
@@ -4086,11 +4075,11 @@
       <c r="A9" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="165"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="167"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="68" t="s">
         <v>50</v>
       </c>
@@ -4101,7 +4090,7 @@
       <c r="A10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="160" t="s">
         <v>282</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -4120,7 +4109,7 @@
       <c r="A11" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="162"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="61" t="s">
         <v>290</v>
       </c>
@@ -4135,7 +4124,7 @@
       <c r="A12" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="162"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="61" t="s">
         <v>286</v>
       </c>
@@ -4150,7 +4139,7 @@
       <c r="A13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="162"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="61" t="s">
         <v>291</v>
       </c>
@@ -4165,7 +4154,7 @@
       <c r="A14" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="163"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="55" t="s">
         <v>292</v>
       </c>
@@ -4772,13 +4761,13 @@
       <c r="A8" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="154" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="167" t="s">
         <v>179</v>
       </c>
       <c r="E8" s="69" t="s">
@@ -4791,11 +4780,11 @@
       <c r="A9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="156"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="169"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="69" t="s">
         <v>261</v>
       </c>
@@ -4806,11 +4795,11 @@
       <c r="A10" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="156"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="69" t="s">
         <v>50</v>
       </c>
@@ -4821,11 +4810,11 @@
       <c r="A11" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="156"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="169"/>
+      <c r="D11" s="168"/>
       <c r="E11" s="69" t="s">
         <v>299</v>
       </c>
@@ -4836,11 +4825,11 @@
       <c r="A12" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="157"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="170"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="69" t="s">
         <v>301</v>
       </c>
@@ -4851,13 +4840,13 @@
       <c r="A13" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="154" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="167" t="s">
         <v>191</v>
       </c>
       <c r="E13" s="69" t="s">
@@ -4870,11 +4859,11 @@
       <c r="A14" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="156"/>
+      <c r="B14" s="155"/>
       <c r="C14" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="169"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="69" t="s">
         <v>261</v>
       </c>
@@ -4885,11 +4874,11 @@
       <c r="A15" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="155"/>
       <c r="C15" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="169"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="69" t="s">
         <v>50</v>
       </c>
@@ -4900,11 +4889,11 @@
       <c r="A16" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="157"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="170"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="69" t="s">
         <v>299</v>
       </c>
@@ -4915,13 +4904,13 @@
       <c r="A17" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="154" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="167" t="s">
         <v>192</v>
       </c>
       <c r="E17" s="69" t="s">
@@ -4934,11 +4923,11 @@
       <c r="A18" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="157"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="D18" s="170"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="69" t="s">
         <v>261</v>
       </c>
@@ -5473,7 +5462,7 @@
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="101"/>
-      <c r="G6" s="171" t="s">
+      <c r="G6" s="170" t="s">
         <v>303</v>
       </c>
       <c r="H6" s="103" t="s">
@@ -5493,7 +5482,7 @@
       <c r="F7" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="172"/>
+      <c r="G7" s="171"/>
       <c r="H7" s="102"/>
       <c r="I7" s="109" t="s">
         <v>306</v>
@@ -5511,7 +5500,7 @@
       </c>
       <c r="E8" s="105"/>
       <c r="F8" s="106"/>
-      <c r="G8" s="173" t="s">
+      <c r="G8" s="172" t="s">
         <v>199</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -5531,7 +5520,7 @@
       <c r="F9" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="G9" s="174"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="107"/>
       <c r="I9" s="108" t="s">
         <v>288</v>
@@ -6897,18 +6886,18 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178" t="s">
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
+      <c r="N6" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
+      <c r="O6" s="186"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="186"/>
     </row>
     <row r="7" spans="1:18" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
@@ -6920,22 +6909,22 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="178" t="s">
+      <c r="J7" s="186" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178" t="s">
+      <c r="K7" s="186"/>
+      <c r="L7" s="186" t="s">
         <v>325</v>
       </c>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178" t="s">
+      <c r="M7" s="186"/>
+      <c r="N7" s="186" t="s">
         <v>326</v>
       </c>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178" t="s">
+      <c r="O7" s="186"/>
+      <c r="P7" s="186" t="s">
         <v>327</v>
       </c>
-      <c r="Q7" s="178"/>
+      <c r="Q7" s="186"/>
     </row>
     <row r="8" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
@@ -6982,18 +6971,18 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="175" t="s">
+      <c r="J9" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175" t="s">
+      <c r="K9" s="176"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176" t="s">
         <v>247</v>
       </c>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
     </row>
     <row r="10" spans="1:18" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
@@ -7005,22 +6994,22 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="176" t="s">
+      <c r="J10" s="187" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="176" t="s">
+      <c r="K10" s="188"/>
+      <c r="L10" s="187" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="177"/>
-      <c r="N10" s="175" t="s">
+      <c r="M10" s="188"/>
+      <c r="N10" s="176" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175" t="s">
+      <c r="O10" s="176"/>
+      <c r="P10" s="176" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" s="175"/>
+      <c r="Q10" s="176"/>
     </row>
     <row r="11" spans="1:18" s="50" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
@@ -7061,25 +7050,25 @@
       <c r="A12" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="174" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="175" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="175" t="s">
+      <c r="F12" s="176" t="s">
         <v>253</v>
       </c>
-      <c r="G12" s="179" t="s">
+      <c r="G12" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="176" t="s">
         <v>207</v>
       </c>
       <c r="I12" s="84" t="s">
@@ -7099,15 +7088,15 @@
       <c r="A13" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="175"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="175"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="176"/>
       <c r="I13" s="84" t="s">
         <v>318</v>
       </c>
@@ -7125,15 +7114,15 @@
       <c r="A14" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="188"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="175"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="175"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="119" t="s">
         <v>208</v>
       </c>
@@ -7151,15 +7140,15 @@
       <c r="A15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="188"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="175"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="175"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="176"/>
       <c r="I15" s="119" t="s">
         <v>50</v>
       </c>
@@ -7177,17 +7166,17 @@
       <c r="A16" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189" t="s">
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="175"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="175" t="s">
+      <c r="F16" s="176"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I16" s="84" t="s">
@@ -7207,15 +7196,15 @@
       <c r="A17" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="188"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="175"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="176"/>
       <c r="I17" s="84" t="s">
         <v>314</v>
       </c>
@@ -7233,15 +7222,15 @@
       <c r="A18" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="188"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="175"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="175"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="176"/>
       <c r="I18" s="119" t="s">
         <v>208</v>
       </c>
@@ -7259,15 +7248,15 @@
       <c r="A19" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="188"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="175"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="175"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="176"/>
       <c r="I19" s="119" t="s">
         <v>50</v>
       </c>
@@ -7285,19 +7274,19 @@
       <c r="A20" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="188"/>
-      <c r="C20" s="189" t="s">
+      <c r="B20" s="174"/>
+      <c r="C20" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="189"/>
+      <c r="D20" s="175"/>
       <c r="E20" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="175"/>
-      <c r="G20" s="182" t="s">
+      <c r="F20" s="176"/>
+      <c r="G20" s="180" t="s">
         <v>319</v>
       </c>
-      <c r="H20" s="183"/>
+      <c r="H20" s="181"/>
       <c r="I20" s="119" t="s">
         <v>50</v>
       </c>
@@ -7315,15 +7304,15 @@
       <c r="A21" s="88" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="188"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
       <c r="E21" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="F21" s="175"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="185"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="183"/>
       <c r="I21" s="69" t="s">
         <v>324</v>
       </c>
@@ -7341,19 +7330,19 @@
       <c r="A22" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="188"/>
-      <c r="C22" s="189" t="s">
+      <c r="B22" s="174"/>
+      <c r="C22" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="189"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="175"/>
-      <c r="G22" s="182" t="s">
+      <c r="F22" s="176"/>
+      <c r="G22" s="180" t="s">
         <v>320</v>
       </c>
-      <c r="H22" s="183"/>
+      <c r="H22" s="181"/>
       <c r="I22" s="84" t="s">
         <v>178</v>
       </c>
@@ -7371,15 +7360,15 @@
       <c r="A23" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="175"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="187"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
       <c r="I23" s="119" t="s">
         <v>50</v>
       </c>
@@ -7397,15 +7386,15 @@
       <c r="A24" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="188"/>
-      <c r="C24" s="189"/>
-      <c r="D24" s="189"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="175"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="185"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="183"/>
       <c r="I24" s="69" t="s">
         <v>254</v>
       </c>
@@ -7423,19 +7412,19 @@
       <c r="A25" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="188"/>
-      <c r="C25" s="189" t="s">
+      <c r="B25" s="174"/>
+      <c r="C25" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="189"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="175"/>
-      <c r="G25" s="182" t="s">
+      <c r="F25" s="176"/>
+      <c r="G25" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="H25" s="183"/>
+      <c r="H25" s="181"/>
       <c r="I25" s="69" t="s">
         <v>178</v>
       </c>
@@ -7453,15 +7442,15 @@
       <c r="A26" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="188"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="175"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
       <c r="I26" s="119" t="s">
         <v>50</v>
       </c>
@@ -7479,15 +7468,15 @@
       <c r="A27" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="188"/>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="175"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="185"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="183"/>
       <c r="I27" s="69" t="s">
         <v>254</v>
       </c>
@@ -7505,25 +7494,25 @@
       <c r="A28" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="174" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="175" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="175" t="s">
+      <c r="F28" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="175" t="s">
+      <c r="H28" s="176" t="s">
         <v>207</v>
       </c>
       <c r="I28" s="84" t="s">
@@ -7543,15 +7532,15 @@
       <c r="A29" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="188"/>
-      <c r="C29" s="189"/>
-      <c r="D29" s="189"/>
+      <c r="B29" s="174"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="175"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="175"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="176"/>
       <c r="I29" s="119" t="s">
         <v>50</v>
       </c>
@@ -7569,17 +7558,17 @@
       <c r="A30" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189" t="s">
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="175"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="175" t="s">
+      <c r="F30" s="176"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="176" t="s">
         <v>206</v>
       </c>
       <c r="I30" s="69" t="s">
@@ -7599,15 +7588,15 @@
       <c r="A31" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="188"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
+      <c r="B31" s="174"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="175"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="175"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="176"/>
       <c r="I31" s="70" t="s">
         <v>50</v>
       </c>
@@ -7728,6 +7717,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="F28:F31"/>
@@ -7744,24 +7751,6 @@
     <mergeCell ref="C25:D27"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7774,15 +7763,15 @@
   <sheetPr>
     <tabColor rgb="FF007A70"/>
   </sheetPr>
-  <dimension ref="A2:J517"/>
+  <dimension ref="A2:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C512" sqref="C512"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="153"/>
+    <col min="1" max="1" width="9.140625" style="196"/>
     <col min="2" max="2" width="14.140625" style="56" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" style="56" customWidth="1"/>
     <col min="4" max="9" width="21.140625" style="56" customWidth="1"/>
@@ -7822,28 +7811,28 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="86"/>
       <c r="C5" s="86"/>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="86"/>
       <c r="C6" s="86"/>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="192" t="s">
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="86"/>
@@ -7870,28 +7859,28 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
       <c r="C8" s="86"/>
-      <c r="D8" s="193" t="s">
+      <c r="D8" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="86"/>
       <c r="C9" s="86"/>
-      <c r="D9" s="193" t="s">
+      <c r="D9" s="192" t="s">
         <v>330</v>
       </c>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="121"/>
@@ -7916,7 +7905,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="196" t="s">
         <v>360</v>
       </c>
       <c r="B11" s="93" t="s">
@@ -7934,7 +7923,7 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="196" t="s">
         <v>361</v>
       </c>
       <c r="B12" s="93" t="s">
@@ -7952,7 +7941,7 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="196" t="s">
         <v>362</v>
       </c>
       <c r="B13" s="93" t="s">
@@ -7970,7 +7959,7 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="196" t="s">
         <v>363</v>
       </c>
       <c r="B14" s="93" t="s">
@@ -7988,7 +7977,7 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="196" t="s">
         <v>364</v>
       </c>
       <c r="B15" s="93" t="s">
@@ -8006,7 +7995,7 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="196" t="s">
         <v>365</v>
       </c>
       <c r="B16" s="93" t="s">
@@ -8024,7 +8013,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="153" t="s">
+      <c r="A17" s="196" t="s">
         <v>366</v>
       </c>
       <c r="B17" s="93" t="s">
@@ -8042,7 +8031,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="196" t="s">
         <v>367</v>
       </c>
       <c r="B18" s="93" t="s">
@@ -8060,7 +8049,7 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="196" t="s">
         <v>368</v>
       </c>
       <c r="B19" s="93" t="s">
@@ -8078,7 +8067,7 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="196" t="s">
         <v>369</v>
       </c>
       <c r="B20" s="93" t="s">
@@ -8096,7 +8085,7 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="153" t="s">
+      <c r="A21" s="196" t="s">
         <v>370</v>
       </c>
       <c r="B21" s="93" t="s">
@@ -8114,7 +8103,7 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="196" t="s">
         <v>371</v>
       </c>
       <c r="B22" s="93" t="s">
@@ -8132,7 +8121,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="153" t="s">
+      <c r="A23" s="196" t="s">
         <v>372</v>
       </c>
       <c r="B23" s="93" t="s">
@@ -8150,7 +8139,7 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="196" t="s">
         <v>373</v>
       </c>
       <c r="B24" s="93" t="s">
@@ -8168,7 +8157,7 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="196" t="s">
         <v>374</v>
       </c>
       <c r="B25" s="93" t="s">
@@ -8186,7 +8175,7 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="196" t="s">
         <v>375</v>
       </c>
       <c r="B26" s="93" t="s">
@@ -8204,7 +8193,7 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="153" t="s">
+      <c r="A27" s="196" t="s">
         <v>376</v>
       </c>
       <c r="B27" s="93" t="s">
@@ -8222,7 +8211,7 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="196" t="s">
         <v>377</v>
       </c>
       <c r="B28" s="93" t="s">
@@ -8240,7 +8229,7 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="196" t="s">
         <v>378</v>
       </c>
       <c r="B29" s="93" t="s">
@@ -8258,7 +8247,7 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="196" t="s">
         <v>379</v>
       </c>
       <c r="B30" s="93" t="s">
@@ -8276,7 +8265,7 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="153" t="s">
+      <c r="A31" s="196" t="s">
         <v>380</v>
       </c>
       <c r="B31" s="93" t="s">
@@ -8294,7 +8283,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="153" t="s">
+      <c r="A32" s="196" t="s">
         <v>381</v>
       </c>
       <c r="B32" s="93" t="s">
@@ -8312,7 +8301,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="153" t="s">
+      <c r="A33" s="196" t="s">
         <v>382</v>
       </c>
       <c r="B33" s="93" t="s">
@@ -8330,7 +8319,7 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="153" t="s">
+      <c r="A34" s="196" t="s">
         <v>383</v>
       </c>
       <c r="B34" s="93" t="s">
@@ -8348,7 +8337,7 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="196" t="s">
         <v>384</v>
       </c>
       <c r="B35" s="93" t="s">
@@ -8366,7 +8355,7 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="196" t="s">
         <v>385</v>
       </c>
       <c r="B36" s="93" t="s">
@@ -8384,7 +8373,7 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="153" t="s">
+      <c r="A37" s="196" t="s">
         <v>386</v>
       </c>
       <c r="B37" s="93" t="s">
@@ -8402,7 +8391,7 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="153" t="s">
+      <c r="A38" s="196" t="s">
         <v>387</v>
       </c>
       <c r="B38" s="93" t="s">
@@ -8420,7 +8409,7 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="153" t="s">
+      <c r="A39" s="196" t="s">
         <v>388</v>
       </c>
       <c r="B39" s="93" t="s">
@@ -8453,9 +8442,6 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B41" s="93"/>
       <c r="C41" s="97"/>
       <c r="D41" s="140"/>
@@ -8467,9 +8453,6 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B42" s="93"/>
       <c r="C42" s="94"/>
       <c r="D42" s="140"/>
@@ -8481,9 +8464,6 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B43" s="93"/>
       <c r="C43" s="94"/>
       <c r="D43" s="140"/>
@@ -8495,9 +8475,6 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B44" s="93"/>
       <c r="C44" s="94"/>
       <c r="D44" s="140"/>
@@ -8509,9 +8486,6 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B45" s="93"/>
       <c r="C45" s="94"/>
       <c r="D45" s="140"/>
@@ -8523,9 +8497,6 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B46" s="93"/>
       <c r="C46" s="94"/>
       <c r="D46" s="140"/>
@@ -8537,9 +8508,6 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B47" s="93"/>
       <c r="C47" s="94"/>
       <c r="D47" s="140"/>
@@ -8551,9 +8519,6 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="197" t="s">
-        <v>389</v>
-      </c>
       <c r="B48" s="93"/>
       <c r="C48" s="94"/>
       <c r="D48" s="140"/>
@@ -8564,10 +8529,7 @@
       <c r="I48" s="139"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="93"/>
       <c r="C49" s="94"/>
       <c r="D49" s="140"/>
@@ -8578,10 +8540,7 @@
       <c r="I49" s="139"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="93"/>
       <c r="C50" s="94"/>
       <c r="D50" s="140"/>
@@ -8592,10 +8551,7 @@
       <c r="I50" s="139"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="93"/>
       <c r="C51" s="94"/>
       <c r="D51" s="140"/>
@@ -8606,10 +8562,7 @@
       <c r="I51" s="139"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="93"/>
       <c r="C52" s="94"/>
       <c r="D52" s="140"/>
@@ -8620,10 +8573,7 @@
       <c r="I52" s="139"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="93"/>
       <c r="C53" s="94"/>
       <c r="D53" s="140"/>
@@ -8634,10 +8584,7 @@
       <c r="I53" s="139"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="93"/>
       <c r="C54" s="94"/>
       <c r="D54" s="140"/>
@@ -8648,10 +8595,7 @@
       <c r="I54" s="139"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="93"/>
       <c r="C55" s="94"/>
       <c r="D55" s="140"/>
@@ -8662,10 +8606,7 @@
       <c r="I55" s="139"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="93"/>
       <c r="C56" s="94"/>
       <c r="D56" s="140"/>
@@ -8676,10 +8617,7 @@
       <c r="I56" s="139"/>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
       <c r="D57" s="140"/>
@@ -8690,10 +8628,7 @@
       <c r="I57" s="139"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
       <c r="D58" s="140"/>
@@ -8704,10 +8639,7 @@
       <c r="I58" s="139"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="93"/>
       <c r="C59" s="94"/>
       <c r="D59" s="140"/>
@@ -8718,10 +8650,7 @@
       <c r="I59" s="139"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="93"/>
       <c r="C60" s="94"/>
       <c r="D60" s="140"/>
@@ -8732,10 +8661,7 @@
       <c r="I60" s="139"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="93"/>
       <c r="C61" s="94"/>
       <c r="D61" s="140"/>
@@ -8746,10 +8672,7 @@
       <c r="I61" s="139"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="93"/>
       <c r="C62" s="94"/>
       <c r="D62" s="140"/>
@@ -8760,10 +8683,7 @@
       <c r="I62" s="139"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="93"/>
       <c r="C63" s="94"/>
       <c r="D63" s="140"/>
@@ -8774,10 +8694,7 @@
       <c r="I63" s="139"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="93"/>
       <c r="C64" s="94"/>
       <c r="D64" s="140"/>
@@ -8788,10 +8705,7 @@
       <c r="I64" s="139"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="93"/>
       <c r="C65" s="94"/>
       <c r="D65" s="140"/>
@@ -8802,10 +8716,7 @@
       <c r="I65" s="139"/>
       <c r="J65" s="11"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="93"/>
       <c r="C66" s="94"/>
       <c r="D66" s="140"/>
@@ -8816,10 +8727,7 @@
       <c r="I66" s="139"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="93"/>
       <c r="C67" s="94"/>
       <c r="D67" s="140"/>
@@ -8830,10 +8738,7 @@
       <c r="I67" s="139"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="93"/>
       <c r="C68" s="94"/>
       <c r="D68" s="140"/>
@@ -8844,10 +8749,7 @@
       <c r="I68" s="139"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="93"/>
       <c r="C69" s="94"/>
       <c r="D69" s="140"/>
@@ -8858,10 +8760,7 @@
       <c r="I69" s="139"/>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="93"/>
       <c r="C70" s="94"/>
       <c r="D70" s="140"/>
@@ -8872,10 +8771,7 @@
       <c r="I70" s="139"/>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="93"/>
       <c r="C71" s="94"/>
       <c r="D71" s="140"/>
@@ -8886,10 +8782,7 @@
       <c r="I71" s="139"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="93"/>
       <c r="C72" s="94"/>
       <c r="D72" s="140"/>
@@ -8900,10 +8793,7 @@
       <c r="I72" s="139"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="93"/>
       <c r="C73" s="94"/>
       <c r="D73" s="140"/>
@@ -8914,10 +8804,7 @@
       <c r="I73" s="139"/>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="93"/>
       <c r="C74" s="94"/>
       <c r="D74" s="140"/>
@@ -8928,10 +8815,7 @@
       <c r="I74" s="139"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="93"/>
       <c r="C75" s="94"/>
       <c r="D75" s="140"/>
@@ -8942,10 +8826,7 @@
       <c r="I75" s="139"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="93"/>
       <c r="C76" s="94"/>
       <c r="D76" s="140"/>
@@ -8956,10 +8837,7 @@
       <c r="I76" s="139"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="93"/>
       <c r="C77" s="94"/>
       <c r="D77" s="140"/>
@@ -8970,10 +8848,7 @@
       <c r="I77" s="139"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="93"/>
       <c r="C78" s="94"/>
       <c r="D78" s="140"/>
@@ -8984,10 +8859,7 @@
       <c r="I78" s="139"/>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="93"/>
       <c r="C79" s="94"/>
       <c r="D79" s="140"/>
@@ -8998,10 +8870,7 @@
       <c r="I79" s="139"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="93"/>
       <c r="C80" s="94"/>
       <c r="D80" s="140"/>
@@ -9012,10 +8881,7 @@
       <c r="I80" s="139"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="93"/>
       <c r="C81" s="94"/>
       <c r="D81" s="140"/>
@@ -9026,10 +8892,7 @@
       <c r="I81" s="139"/>
       <c r="J81" s="11"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="93"/>
       <c r="C82" s="94"/>
       <c r="D82" s="140"/>
@@ -9040,10 +8903,7 @@
       <c r="I82" s="139"/>
       <c r="J82" s="11"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="93"/>
       <c r="C83" s="94"/>
       <c r="D83" s="140"/>
@@ -9054,10 +8914,7 @@
       <c r="I83" s="139"/>
       <c r="J83" s="11"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="93"/>
       <c r="C84" s="94"/>
       <c r="D84" s="140"/>
@@ -9068,10 +8925,7 @@
       <c r="I84" s="139"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="93"/>
       <c r="C85" s="94"/>
       <c r="D85" s="140"/>
@@ -9082,10 +8936,7 @@
       <c r="I85" s="139"/>
       <c r="J85" s="11"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="93"/>
       <c r="C86" s="94"/>
       <c r="D86" s="140"/>
@@ -9096,10 +8947,7 @@
       <c r="I86" s="139"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="93"/>
       <c r="C87" s="94"/>
       <c r="D87" s="140"/>
@@ -9110,10 +8958,7 @@
       <c r="I87" s="139"/>
       <c r="J87" s="11"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="93"/>
       <c r="C88" s="94"/>
       <c r="D88" s="140"/>
@@ -9124,10 +8969,7 @@
       <c r="I88" s="139"/>
       <c r="J88" s="11"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="93"/>
       <c r="C89" s="94"/>
       <c r="D89" s="140"/>
@@ -9138,10 +8980,7 @@
       <c r="I89" s="139"/>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="93"/>
       <c r="C90" s="94"/>
       <c r="D90" s="140"/>
@@ -9152,10 +8991,7 @@
       <c r="I90" s="139"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="93"/>
       <c r="C91" s="94"/>
       <c r="D91" s="140"/>
@@ -9166,10 +9002,7 @@
       <c r="I91" s="139"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="93"/>
       <c r="C92" s="94"/>
       <c r="D92" s="140"/>
@@ -9180,10 +9013,7 @@
       <c r="I92" s="139"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="93"/>
       <c r="C93" s="94"/>
       <c r="D93" s="140"/>
@@ -9194,10 +9024,7 @@
       <c r="I93" s="139"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="93"/>
       <c r="C94" s="94"/>
       <c r="D94" s="140"/>
@@ -9208,10 +9035,7 @@
       <c r="I94" s="139"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="93"/>
       <c r="C95" s="94"/>
       <c r="D95" s="140"/>
@@ -9222,10 +9046,7 @@
       <c r="I95" s="139"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="93"/>
       <c r="C96" s="94"/>
       <c r="D96" s="140"/>
@@ -9236,10 +9057,7 @@
       <c r="I96" s="139"/>
       <c r="J96" s="11"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="93"/>
       <c r="C97" s="94"/>
       <c r="D97" s="140"/>
@@ -9250,10 +9068,7 @@
       <c r="I97" s="139"/>
       <c r="J97" s="11"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="93"/>
       <c r="C98" s="94"/>
       <c r="D98" s="140"/>
@@ -9264,10 +9079,7 @@
       <c r="I98" s="139"/>
       <c r="J98" s="11"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="93"/>
       <c r="C99" s="94"/>
       <c r="D99" s="140"/>
@@ -9278,10 +9090,7 @@
       <c r="I99" s="139"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="93"/>
       <c r="C100" s="94"/>
       <c r="D100" s="140"/>
@@ -9292,10 +9101,7 @@
       <c r="I100" s="139"/>
       <c r="J100" s="11"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="93"/>
       <c r="C101" s="94"/>
       <c r="D101" s="140"/>
@@ -9306,10 +9112,7 @@
       <c r="I101" s="139"/>
       <c r="J101" s="11"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="93"/>
       <c r="C102" s="94"/>
       <c r="D102" s="140"/>
@@ -9320,10 +9123,7 @@
       <c r="I102" s="139"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="93"/>
       <c r="C103" s="94"/>
       <c r="D103" s="140"/>
@@ -9334,10 +9134,7 @@
       <c r="I103" s="139"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="93"/>
       <c r="C104" s="94"/>
       <c r="D104" s="140"/>
@@ -9348,10 +9145,7 @@
       <c r="I104" s="139"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="93"/>
       <c r="C105" s="94"/>
       <c r="D105" s="140"/>
@@ -9362,10 +9156,7 @@
       <c r="I105" s="139"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="93"/>
       <c r="C106" s="94"/>
       <c r="D106" s="140"/>
@@ -9376,10 +9167,7 @@
       <c r="I106" s="139"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="93"/>
       <c r="C107" s="94"/>
       <c r="D107" s="140"/>
@@ -9390,10 +9178,7 @@
       <c r="I107" s="139"/>
       <c r="J107" s="11"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="93"/>
       <c r="C108" s="94"/>
       <c r="D108" s="140"/>
@@ -9404,10 +9189,7 @@
       <c r="I108" s="139"/>
       <c r="J108" s="11"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="93"/>
       <c r="C109" s="94"/>
       <c r="D109" s="140"/>
@@ -9418,10 +9200,7 @@
       <c r="I109" s="139"/>
       <c r="J109" s="11"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="93"/>
       <c r="C110" s="94"/>
       <c r="D110" s="140"/>
@@ -9432,10 +9211,7 @@
       <c r="I110" s="139"/>
       <c r="J110" s="11"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="93"/>
       <c r="C111" s="94"/>
       <c r="D111" s="140"/>
@@ -9446,10 +9222,7 @@
       <c r="I111" s="139"/>
       <c r="J111" s="11"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="93"/>
       <c r="C112" s="94"/>
       <c r="D112" s="140"/>
@@ -9460,10 +9233,7 @@
       <c r="I112" s="139"/>
       <c r="J112" s="11"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="93"/>
       <c r="C113" s="94"/>
       <c r="D113" s="140"/>
@@ -9474,10 +9244,7 @@
       <c r="I113" s="139"/>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="93"/>
       <c r="C114" s="94"/>
       <c r="D114" s="140"/>
@@ -9488,10 +9255,7 @@
       <c r="I114" s="139"/>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="93"/>
       <c r="C115" s="94"/>
       <c r="D115" s="140"/>
@@ -9502,10 +9266,7 @@
       <c r="I115" s="139"/>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="93"/>
       <c r="C116" s="94"/>
       <c r="D116" s="140"/>
@@ -9516,10 +9277,7 @@
       <c r="I116" s="139"/>
       <c r="J116" s="11"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="93"/>
       <c r="C117" s="94"/>
       <c r="D117" s="140"/>
@@ -9530,10 +9288,7 @@
       <c r="I117" s="139"/>
       <c r="J117" s="11"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="93"/>
       <c r="C118" s="94"/>
       <c r="D118" s="140"/>
@@ -9544,10 +9299,7 @@
       <c r="I118" s="139"/>
       <c r="J118" s="11"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="93"/>
       <c r="C119" s="94"/>
       <c r="D119" s="140"/>
@@ -9558,10 +9310,7 @@
       <c r="I119" s="139"/>
       <c r="J119" s="11"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="93"/>
       <c r="C120" s="94"/>
       <c r="D120" s="140"/>
@@ -9572,10 +9321,7 @@
       <c r="I120" s="139"/>
       <c r="J120" s="11"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="93"/>
       <c r="C121" s="94"/>
       <c r="D121" s="140"/>
@@ -9586,10 +9332,7 @@
       <c r="I121" s="139"/>
       <c r="J121" s="11"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="93"/>
       <c r="C122" s="94"/>
       <c r="D122" s="140"/>
@@ -9600,10 +9343,7 @@
       <c r="I122" s="139"/>
       <c r="J122" s="11"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="93"/>
       <c r="C123" s="94"/>
       <c r="D123" s="140"/>
@@ -9614,10 +9354,7 @@
       <c r="I123" s="139"/>
       <c r="J123" s="11"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="93"/>
       <c r="C124" s="94"/>
       <c r="D124" s="140"/>
@@ -9628,10 +9365,7 @@
       <c r="I124" s="139"/>
       <c r="J124" s="11"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="93"/>
       <c r="C125" s="94"/>
       <c r="D125" s="140"/>
@@ -9642,10 +9376,7 @@
       <c r="I125" s="139"/>
       <c r="J125" s="11"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="93"/>
       <c r="C126" s="94"/>
       <c r="D126" s="140"/>
@@ -9656,10 +9387,7 @@
       <c r="I126" s="139"/>
       <c r="J126" s="11"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="93"/>
       <c r="C127" s="94"/>
       <c r="D127" s="140"/>
@@ -9670,10 +9398,7 @@
       <c r="I127" s="139"/>
       <c r="J127" s="11"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="93"/>
       <c r="C128" s="94"/>
       <c r="D128" s="140"/>
@@ -9684,10 +9409,7 @@
       <c r="I128" s="139"/>
       <c r="J128" s="11"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="93"/>
       <c r="C129" s="94"/>
       <c r="D129" s="140"/>
@@ -9698,10 +9420,7 @@
       <c r="I129" s="139"/>
       <c r="J129" s="11"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="93"/>
       <c r="C130" s="94"/>
       <c r="D130" s="140"/>
@@ -9712,10 +9431,7 @@
       <c r="I130" s="139"/>
       <c r="J130" s="11"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="93"/>
       <c r="C131" s="94"/>
       <c r="D131" s="140"/>
@@ -9726,10 +9442,7 @@
       <c r="I131" s="139"/>
       <c r="J131" s="11"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="93"/>
       <c r="C132" s="94"/>
       <c r="D132" s="140"/>
@@ -9740,10 +9453,7 @@
       <c r="I132" s="139"/>
       <c r="J132" s="11"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="93"/>
       <c r="C133" s="94"/>
       <c r="D133" s="140"/>
@@ -9754,10 +9464,7 @@
       <c r="I133" s="139"/>
       <c r="J133" s="11"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="93"/>
       <c r="C134" s="94"/>
       <c r="D134" s="140"/>
@@ -9768,10 +9475,7 @@
       <c r="I134" s="139"/>
       <c r="J134" s="11"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="93"/>
       <c r="C135" s="94"/>
       <c r="D135" s="140"/>
@@ -9782,10 +9486,7 @@
       <c r="I135" s="139"/>
       <c r="J135" s="11"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="93"/>
       <c r="C136" s="94"/>
       <c r="D136" s="140"/>
@@ -9796,10 +9497,7 @@
       <c r="I136" s="139"/>
       <c r="J136" s="11"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="93"/>
       <c r="C137" s="94"/>
       <c r="D137" s="140"/>
@@ -9810,10 +9508,7 @@
       <c r="I137" s="139"/>
       <c r="J137" s="11"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="93"/>
       <c r="C138" s="94"/>
       <c r="D138" s="140"/>
@@ -9824,10 +9519,7 @@
       <c r="I138" s="139"/>
       <c r="J138" s="11"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="93"/>
       <c r="C139" s="94"/>
       <c r="D139" s="140"/>
@@ -9838,10 +9530,7 @@
       <c r="I139" s="139"/>
       <c r="J139" s="11"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="93"/>
       <c r="C140" s="94"/>
       <c r="D140" s="140"/>
@@ -9852,10 +9541,7 @@
       <c r="I140" s="139"/>
       <c r="J140" s="11"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="93"/>
       <c r="C141" s="94"/>
       <c r="D141" s="140"/>
@@ -9866,10 +9552,7 @@
       <c r="I141" s="139"/>
       <c r="J141" s="11"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="93"/>
       <c r="C142" s="94"/>
       <c r="D142" s="140"/>
@@ -9880,10 +9563,7 @@
       <c r="I142" s="139"/>
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="93"/>
       <c r="C143" s="94"/>
       <c r="D143" s="140"/>
@@ -9894,10 +9574,7 @@
       <c r="I143" s="139"/>
       <c r="J143" s="11"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="93"/>
       <c r="C144" s="94"/>
       <c r="D144" s="140"/>
@@ -9908,10 +9585,7 @@
       <c r="I144" s="139"/>
       <c r="J144" s="11"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="93"/>
       <c r="C145" s="94"/>
       <c r="D145" s="140"/>
@@ -9922,10 +9596,7 @@
       <c r="I145" s="139"/>
       <c r="J145" s="11"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="93"/>
       <c r="C146" s="94"/>
       <c r="D146" s="140"/>
@@ -9936,10 +9607,7 @@
       <c r="I146" s="139"/>
       <c r="J146" s="11"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="93"/>
       <c r="C147" s="94"/>
       <c r="D147" s="140"/>
@@ -9950,10 +9618,7 @@
       <c r="I147" s="139"/>
       <c r="J147" s="11"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="93"/>
       <c r="C148" s="94"/>
       <c r="D148" s="140"/>
@@ -9964,10 +9629,7 @@
       <c r="I148" s="139"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="93"/>
       <c r="C149" s="94"/>
       <c r="D149" s="140"/>
@@ -9978,10 +9640,7 @@
       <c r="I149" s="139"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="93"/>
       <c r="C150" s="94"/>
       <c r="D150" s="140"/>
@@ -9992,10 +9651,7 @@
       <c r="I150" s="139"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="93"/>
       <c r="C151" s="94"/>
       <c r="D151" s="140"/>
@@ -10006,10 +9662,7 @@
       <c r="I151" s="139"/>
       <c r="J151" s="11"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="93"/>
       <c r="C152" s="94"/>
       <c r="D152" s="140"/>
@@ -10020,10 +9673,7 @@
       <c r="I152" s="139"/>
       <c r="J152" s="11"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="93"/>
       <c r="C153" s="94"/>
       <c r="D153" s="140"/>
@@ -10034,10 +9684,7 @@
       <c r="I153" s="139"/>
       <c r="J153" s="11"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="93"/>
       <c r="C154" s="94"/>
       <c r="D154" s="140"/>
@@ -10048,10 +9695,7 @@
       <c r="I154" s="139"/>
       <c r="J154" s="11"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="93"/>
       <c r="C155" s="94"/>
       <c r="D155" s="140"/>
@@ -10062,10 +9706,7 @@
       <c r="I155" s="139"/>
       <c r="J155" s="11"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="93"/>
       <c r="C156" s="94"/>
       <c r="D156" s="140"/>
@@ -10076,10 +9717,7 @@
       <c r="I156" s="139"/>
       <c r="J156" s="11"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="93"/>
       <c r="C157" s="94"/>
       <c r="D157" s="140"/>
@@ -10090,10 +9728,7 @@
       <c r="I157" s="139"/>
       <c r="J157" s="11"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="93"/>
       <c r="C158" s="94"/>
       <c r="D158" s="140"/>
@@ -10104,10 +9739,7 @@
       <c r="I158" s="139"/>
       <c r="J158" s="11"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="93"/>
       <c r="C159" s="94"/>
       <c r="D159" s="140"/>
@@ -10118,10 +9750,7 @@
       <c r="I159" s="139"/>
       <c r="J159" s="11"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="93"/>
       <c r="C160" s="94"/>
       <c r="D160" s="140"/>
@@ -10132,10 +9761,7 @@
       <c r="I160" s="139"/>
       <c r="J160" s="11"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="93"/>
       <c r="C161" s="94"/>
       <c r="D161" s="140"/>
@@ -10146,10 +9772,7 @@
       <c r="I161" s="139"/>
       <c r="J161" s="11"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="98"/>
       <c r="C162" s="94"/>
       <c r="D162" s="140"/>
@@ -10160,10 +9783,7 @@
       <c r="I162" s="139"/>
       <c r="J162" s="11"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="93"/>
       <c r="C163" s="94"/>
       <c r="D163" s="140"/>
@@ -10174,10 +9794,7 @@
       <c r="I163" s="139"/>
       <c r="J163" s="11"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="98"/>
       <c r="C164" s="94"/>
       <c r="D164" s="140"/>
@@ -10188,10 +9805,7 @@
       <c r="I164" s="139"/>
       <c r="J164" s="11"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="93"/>
       <c r="C165" s="94"/>
       <c r="D165" s="140"/>
@@ -10202,10 +9816,7 @@
       <c r="I165" s="139"/>
       <c r="J165" s="11"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="98"/>
       <c r="C166" s="94"/>
       <c r="D166" s="140"/>
@@ -10215,10 +9826,7 @@
       <c r="H166" s="138"/>
       <c r="I166" s="139"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" s="93"/>
       <c r="C167" s="94"/>
       <c r="D167" s="140"/>
@@ -10228,10 +9836,7 @@
       <c r="H167" s="138"/>
       <c r="I167" s="139"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="197" t="s">
-        <v>389</v>
-      </c>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="98"/>
       <c r="C168" s="94"/>
       <c r="D168" s="140"/>
@@ -10240,1751 +9845,6 @@
       <c r="G168" s="138"/>
       <c r="H168" s="138"/>
       <c r="I168" s="139"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="197" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="197" t="s">
-        <v>389</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12368,18 +10228,18 @@
     </row>
     <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="E6" s="195" t="s">
+      <c r="E6" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195" t="s">
+      <c r="F6" s="194"/>
+      <c r="G6" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195" t="s">
+      <c r="H6" s="194"/>
+      <c r="I6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="195"/>
+      <c r="J6" s="194"/>
     </row>
     <row r="7" spans="1:11" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
@@ -12404,18 +10264,18 @@
     </row>
     <row r="8" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175" t="s">
+      <c r="F8" s="176"/>
+      <c r="G8" s="176" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="158"/>
-      <c r="I8" s="194" t="s">
+      <c r="H8" s="157"/>
+      <c r="I8" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="J8" s="194"/>
+      <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:11" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
@@ -12455,16 +10315,16 @@
       <c r="F10" s="141">
         <v>0</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="153">
         <v>0</v>
       </c>
-      <c r="H10" s="154">
+      <c r="H10" s="153">
         <v>0</v>
       </c>
-      <c r="I10" s="154">
+      <c r="I10" s="153">
         <v>0</v>
       </c>
-      <c r="J10" s="154">
+      <c r="J10" s="153">
         <v>0</v>
       </c>
       <c r="K10" s="41"/>
@@ -12486,16 +10346,16 @@
       <c r="F11" s="141">
         <v>0</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="153">
         <v>0</v>
       </c>
-      <c r="H11" s="154">
+      <c r="H11" s="153">
         <v>0</v>
       </c>
-      <c r="I11" s="154">
+      <c r="I11" s="153">
         <v>0</v>
       </c>
-      <c r="J11" s="154">
+      <c r="J11" s="153">
         <v>0</v>
       </c>
       <c r="K11" s="41"/>
@@ -12516,16 +10376,16 @@
       <c r="F12" s="141">
         <v>0</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="153">
         <v>0</v>
       </c>
-      <c r="H12" s="154">
+      <c r="H12" s="153">
         <v>0</v>
       </c>
-      <c r="I12" s="154">
+      <c r="I12" s="153">
         <v>0</v>
       </c>
-      <c r="J12" s="154">
+      <c r="J12" s="153">
         <v>0</v>
       </c>
       <c r="K12" s="11"/>
@@ -12546,16 +10406,16 @@
       <c r="F13" s="141">
         <v>0</v>
       </c>
-      <c r="G13" s="154">
+      <c r="G13" s="153">
         <v>0</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>0</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>0</v>
       </c>
-      <c r="J13" s="154">
+      <c r="J13" s="153">
         <v>0</v>
       </c>
       <c r="K13" s="11"/>
@@ -12576,16 +10436,16 @@
       <c r="F14" s="141">
         <v>0</v>
       </c>
-      <c r="G14" s="154">
+      <c r="G14" s="153">
         <v>0</v>
       </c>
-      <c r="H14" s="154">
+      <c r="H14" s="153">
         <v>0</v>
       </c>
-      <c r="I14" s="154">
+      <c r="I14" s="153">
         <v>0</v>
       </c>
-      <c r="J14" s="154">
+      <c r="J14" s="153">
         <v>0</v>
       </c>
       <c r="K14" s="11"/>
@@ -12607,16 +10467,16 @@
       <c r="F15" s="141">
         <v>0</v>
       </c>
-      <c r="G15" s="154">
+      <c r="G15" s="153">
         <v>0</v>
       </c>
-      <c r="H15" s="154">
+      <c r="H15" s="153">
         <v>0</v>
       </c>
-      <c r="I15" s="154">
+      <c r="I15" s="153">
         <v>0</v>
       </c>
-      <c r="J15" s="154">
+      <c r="J15" s="153">
         <v>0</v>
       </c>
       <c r="K15" s="41"/>
@@ -12638,16 +10498,16 @@
       <c r="F16" s="141">
         <v>0</v>
       </c>
-      <c r="G16" s="154">
+      <c r="G16" s="153">
         <v>0</v>
       </c>
-      <c r="H16" s="154">
+      <c r="H16" s="153">
         <v>0</v>
       </c>
-      <c r="I16" s="154">
+      <c r="I16" s="153">
         <v>0</v>
       </c>
-      <c r="J16" s="154">
+      <c r="J16" s="153">
         <v>0</v>
       </c>
       <c r="K16" s="11"/>
@@ -12668,16 +10528,16 @@
       <c r="F17" s="141">
         <v>0</v>
       </c>
-      <c r="G17" s="154">
+      <c r="G17" s="153">
         <v>0</v>
       </c>
-      <c r="H17" s="154">
+      <c r="H17" s="153">
         <v>0</v>
       </c>
-      <c r="I17" s="154">
+      <c r="I17" s="153">
         <v>0</v>
       </c>
-      <c r="J17" s="154">
+      <c r="J17" s="153">
         <v>0</v>
       </c>
       <c r="K17" s="11"/>
@@ -12699,16 +10559,16 @@
       <c r="F18" s="141">
         <v>0</v>
       </c>
-      <c r="G18" s="154">
+      <c r="G18" s="153">
         <v>0</v>
       </c>
-      <c r="H18" s="154">
+      <c r="H18" s="153">
         <v>0</v>
       </c>
-      <c r="I18" s="154">
+      <c r="I18" s="153">
         <v>0</v>
       </c>
-      <c r="J18" s="154">
+      <c r="J18" s="153">
         <v>0</v>
       </c>
       <c r="K18" s="11"/>
@@ -12730,16 +10590,16 @@
       <c r="F19" s="141">
         <v>0</v>
       </c>
-      <c r="G19" s="154">
+      <c r="G19" s="153">
         <v>0</v>
       </c>
-      <c r="H19" s="154">
+      <c r="H19" s="153">
         <v>0</v>
       </c>
-      <c r="I19" s="154">
+      <c r="I19" s="153">
         <v>0</v>
       </c>
-      <c r="J19" s="154">
+      <c r="J19" s="153">
         <v>0</v>
       </c>
       <c r="K19" s="11"/>
@@ -12760,16 +10620,16 @@
       <c r="F20" s="141">
         <v>0</v>
       </c>
-      <c r="G20" s="154">
+      <c r="G20" s="153">
         <v>0</v>
       </c>
-      <c r="H20" s="154">
+      <c r="H20" s="153">
         <v>0</v>
       </c>
-      <c r="I20" s="154">
+      <c r="I20" s="153">
         <v>0</v>
       </c>
-      <c r="J20" s="154">
+      <c r="J20" s="153">
         <v>0</v>
       </c>
       <c r="K20" s="11"/>
@@ -12790,16 +10650,16 @@
       <c r="F21" s="141">
         <v>0</v>
       </c>
-      <c r="G21" s="154">
+      <c r="G21" s="153">
         <v>0</v>
       </c>
-      <c r="H21" s="154">
+      <c r="H21" s="153">
         <v>0</v>
       </c>
-      <c r="I21" s="154">
+      <c r="I21" s="153">
         <v>0</v>
       </c>
-      <c r="J21" s="154">
+      <c r="J21" s="153">
         <v>0</v>
       </c>
       <c r="K21" s="11"/>
@@ -12820,16 +10680,16 @@
       <c r="F22" s="141">
         <v>0</v>
       </c>
-      <c r="G22" s="154">
+      <c r="G22" s="153">
         <v>0</v>
       </c>
-      <c r="H22" s="154">
+      <c r="H22" s="153">
         <v>0</v>
       </c>
-      <c r="I22" s="154">
+      <c r="I22" s="153">
         <v>0</v>
       </c>
-      <c r="J22" s="154">
+      <c r="J22" s="153">
         <v>0</v>
       </c>
       <c r="K22" s="11"/>
@@ -12851,16 +10711,16 @@
       <c r="F23" s="141">
         <v>0</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <v>0</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="153">
         <v>0</v>
       </c>
-      <c r="I23" s="154">
+      <c r="I23" s="153">
         <v>0</v>
       </c>
-      <c r="J23" s="154">
+      <c r="J23" s="153">
         <v>0</v>
       </c>
       <c r="K23" s="11"/>
@@ -12881,16 +10741,16 @@
       <c r="F24" s="141">
         <v>0</v>
       </c>
-      <c r="G24" s="154">
+      <c r="G24" s="153">
         <v>0</v>
       </c>
-      <c r="H24" s="154">
+      <c r="H24" s="153">
         <v>0</v>
       </c>
-      <c r="I24" s="154">
+      <c r="I24" s="153">
         <v>0</v>
       </c>
-      <c r="J24" s="154">
+      <c r="J24" s="153">
         <v>0</v>
       </c>
       <c r="K24" s="11"/>
@@ -13107,15 +10967,15 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="142"/>
       <c r="B7" s="143"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="144" t="s">
